--- a/cmip6/citations/cmip6_miroc_citations.xlsx
+++ b/cmip6/citations/cmip6_miroc_citations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ipsl/Engineering/esdoc/bash/cmip6/models/templates_xls/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ipsl/Engineering/esdoc/bash/cmip6/citations/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB9EE97-499E-614E-B69C-D7B32C06EAAA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3B9249-E2A6-2448-9F22-74A155B1A05C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="17280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>ES-DOC CMIP6 Model Citations</t>
   </si>
@@ -53,77 +53,40 @@
     <t>Identifier / Mnemonic *</t>
   </si>
   <si>
-    <t>Title *</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Authors *</t>
-  </si>
-  <si>
     <t>URL</t>
   </si>
   <si>
     <t>DOI</t>
   </si>
   <si>
-    <t>Abstract *</t>
-  </si>
-  <si>
-    <t>SOLAR-IRRADIANCE</t>
-  </si>
-  <si>
-    <t>Solar irradiance reduction via climate engineering-impact of different techniques on the energy balance and the hydrological cycle</t>
-  </si>
-  <si>
-    <t>Assesses the climate impacts of different techniques of solar radiation management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niemeier, U., H. Schmidt, K. Alterskjær, and J. E. Kristjánsson (2013), Solar irradiance reduction via climate engineering-impact of different techniques on the energy balance and the hydrological cycle, J. Geophys. Res., 118, 11905-11917 </t>
-  </si>
-  <si>
-    <t>http://onlinelibrary.wiley.com/doi/10.1002/2013JD020445/abstract</t>
-  </si>
-  <si>
     <t>10.1002/2013JD020445</t>
   </si>
   <si>
-    <t>Different techniques of solar radiation management (SRM) have been suggested to counteract global warming, among them the injection of sulfur into the stratosphere, mirrors in space, and marine cloud brightening through artificial emissions of sea salt. This study focuses on to what extent climate impacts of these three methods would be different. We present results from simulations with an Earth system model where the forcing from the increase of greenhouse gases in a transient scenario (RCP4.5) was balanced over 50 years by SRM. While global mean temperature increases slightly due to the inertia of the climate system and evolves similar with time for the different SRM methods, responses of global mean precipitation differ considerably among the methods. The hydrological sensitivity is decreased by SRM, most prominently for aerosol-based techniques, sea salt emissions, and injection of sulfate into the stratosphere. Reasons for these differences are discussed through an analysis of the surface energy budget. Furthermore, effects on large-scale tropical dynamics and on regional climate are discussed.</t>
+    <t>"@article{
+  title = {Unidata's Common Data Model Mapping to the ISO 19123 Data Model},
+  journal = {Earth Science Informatics},
+  author = {Nativi, Stefano and Caron, John and Domenico, Ben and Bigagli, Lorenzo},
+  year = {2008},
+}"</t>
   </si>
   <si>
-    <t>TIMESLICE-EXPERIMENTS</t>
+    <t>BibTex</t>
   </si>
   <si>
-    <t>Regional climate changes as simulated in time-slice experiments</t>
+    <t>http://journal.com/873487234</t>
   </si>
   <si>
-    <t>Timeslice experiments with CO2 at present levels and at time of CO2 doubling and tripling</t>
+    <t>Nativi_2008</t>
   </si>
   <si>
-    <t>Cubasch, U., J. Waszkewitz, G. Hegerl, and J. Perlwitz (1995), Regional climate changes as simulated in time-slice experiments, Climatic Change, 31, 372-304</t>
-  </si>
-  <si>
-    <t>http://link.springer.com/article/10.1007/BF01095150</t>
-  </si>
-  <si>
-    <t>10.1007/BF01095150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Three 30 year long simulations have been performed with a T42 atmosphere model, in which the sea-surface temperature (SST) and sea-ice distribution have been taken from a transient climate change experiment with a T21 global coupled ocean-atmosphere model. In this so-called time-slice experiment, the SST values (and the greenhouse gas concentration) were taken at present time CO2 level, at the time of CO2 doubling and tripling.
-The annual cycle of temperature and precipitation has been studied over the IPCC regions and has been compared with observations. Additionally the combination of temperature and precipitation change has been analysed. Further parameters investigated include the difference between daily minimum and maximum temperature, the rainfall intensity and the length of droughts.
-While the regional simulation of the annual cycle of the near surface temperature is quite realistic with deviations rarely exceeding 3 K, the precipitation is reproduced to a much smaller degree of accuracy.
-The changes in temperature at the time of CO2 doubling amount to only 30–40% of those at the 3 * CO2 level and show hardly any seasonal variation, contrary to the 3 * CO2 experiment. The comparatively small response to the CO2 doubling can be attributed to the cold-start of the simulation, from which the SST has been extracted. The strong change in the seasonality cannot be explained by internal fluctuations and cold start alone, but has to be caused by feedback mechanisms. Due to the delay in warming caused by the transient experiment, from which the SST has been derived, the 3 * CO2 experiment can be compared to the CO2 doubling studies performed with mixed-layer models.
-The precipitation change does not display a clear signal. However, an increase of the rain intensity and of longer dry periods is simulated in many regions of the globe.
-The changes in these parameters as well as the combination of temperature- and precipitation change and the changes in the daily temperature range give valuable hints, in which regions observational studies should be intensified and under which aspects the observational data should be evaluated.
-</t>
+    <t>Long name for internal use (unarchived)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -177,10 +140,19 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="12"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Helvetica Neue"/>
       <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="4">
@@ -203,7 +175,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -288,17 +260,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="13"/>
       </left>
@@ -332,7 +293,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -373,34 +334,7 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -409,32 +343,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1593,7 +1533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IV6"/>
+  <dimension ref="A1:IV7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1650,12 +1590,19 @@
       <c r="D5" s="6"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" ht="409.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1674,21 +1621,21 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV30"/>
+  <dimension ref="A1:IP56"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="26.83203125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="29.5" style="10" customWidth="1"/>
-    <col min="3" max="4" width="29.83203125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="23.1640625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="26.5" style="10" customWidth="1"/>
-    <col min="7" max="256" width="16.33203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="34.83203125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="81.83203125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="42.83203125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="46.83203125" style="18" customWidth="1"/>
+    <col min="6" max="250" width="16.33203125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:250" ht="31" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
@@ -1696,464 +1643,656 @@
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-    </row>
-    <row r="2" spans="1:11" ht="20.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:250" ht="20.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>8</v>
+      <c r="E2" s="21" t="s">
+        <v>14</v>
       </c>
-      <c r="D2" s="13" t="s">
+    </row>
+    <row r="3" spans="1:250" s="27" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="C3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="26" t="s">
+      <c r="D3" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="28"/>
-    </row>
-    <row r="3" spans="1:11" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="31"/>
-    </row>
-    <row r="4" spans="1:11" ht="296" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-    </row>
-    <row r="5" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-    </row>
-    <row r="6" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-    </row>
-    <row r="7" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-    </row>
-    <row r="8" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-    </row>
-    <row r="9" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-    </row>
-    <row r="10" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-    </row>
-    <row r="11" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-    </row>
-    <row r="12" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-    </row>
-    <row r="13" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-    </row>
-    <row r="14" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-    </row>
-    <row r="15" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-    </row>
-    <row r="16" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-    </row>
-    <row r="17" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-    </row>
-    <row r="18" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-    </row>
-    <row r="19" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-    </row>
-    <row r="20" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-    </row>
-    <row r="21" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-    </row>
-    <row r="22" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="20"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-    </row>
-    <row r="23" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-    </row>
-    <row r="24" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="22"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-    </row>
-    <row r="25" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="22"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-    </row>
-    <row r="26" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="22"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-    </row>
-    <row r="27" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="22"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-    </row>
-    <row r="28" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="22"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-    </row>
-    <row r="29" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="22"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-    </row>
-    <row r="30" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="22"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26"/>
+      <c r="AH3" s="26"/>
+      <c r="AI3" s="26"/>
+      <c r="AJ3" s="26"/>
+      <c r="AK3" s="26"/>
+      <c r="AL3" s="26"/>
+      <c r="AM3" s="26"/>
+      <c r="AN3" s="26"/>
+      <c r="AO3" s="26"/>
+      <c r="AP3" s="26"/>
+      <c r="AQ3" s="26"/>
+      <c r="AR3" s="26"/>
+      <c r="AS3" s="26"/>
+      <c r="AT3" s="26"/>
+      <c r="AU3" s="26"/>
+      <c r="AV3" s="26"/>
+      <c r="AW3" s="26"/>
+      <c r="AX3" s="26"/>
+      <c r="AY3" s="26"/>
+      <c r="AZ3" s="26"/>
+      <c r="BA3" s="26"/>
+      <c r="BB3" s="26"/>
+      <c r="BC3" s="26"/>
+      <c r="BD3" s="26"/>
+      <c r="BE3" s="26"/>
+      <c r="BF3" s="26"/>
+      <c r="BG3" s="26"/>
+      <c r="BH3" s="26"/>
+      <c r="BI3" s="26"/>
+      <c r="BJ3" s="26"/>
+      <c r="BK3" s="26"/>
+      <c r="BL3" s="26"/>
+      <c r="BM3" s="26"/>
+      <c r="BN3" s="26"/>
+      <c r="BO3" s="26"/>
+      <c r="BP3" s="26"/>
+      <c r="BQ3" s="26"/>
+      <c r="BR3" s="26"/>
+      <c r="BS3" s="26"/>
+      <c r="BT3" s="26"/>
+      <c r="BU3" s="26"/>
+      <c r="BV3" s="26"/>
+      <c r="BW3" s="26"/>
+      <c r="BX3" s="26"/>
+      <c r="BY3" s="26"/>
+      <c r="BZ3" s="26"/>
+      <c r="CA3" s="26"/>
+      <c r="CB3" s="26"/>
+      <c r="CC3" s="26"/>
+      <c r="CD3" s="26"/>
+      <c r="CE3" s="26"/>
+      <c r="CF3" s="26"/>
+      <c r="CG3" s="26"/>
+      <c r="CH3" s="26"/>
+      <c r="CI3" s="26"/>
+      <c r="CJ3" s="26"/>
+      <c r="CK3" s="26"/>
+      <c r="CL3" s="26"/>
+      <c r="CM3" s="26"/>
+      <c r="CN3" s="26"/>
+      <c r="CO3" s="26"/>
+      <c r="CP3" s="26"/>
+      <c r="CQ3" s="26"/>
+      <c r="CR3" s="26"/>
+      <c r="CS3" s="26"/>
+      <c r="CT3" s="26"/>
+      <c r="CU3" s="26"/>
+      <c r="CV3" s="26"/>
+      <c r="CW3" s="26"/>
+      <c r="CX3" s="26"/>
+      <c r="CY3" s="26"/>
+      <c r="CZ3" s="26"/>
+      <c r="DA3" s="26"/>
+      <c r="DB3" s="26"/>
+      <c r="DC3" s="26"/>
+      <c r="DD3" s="26"/>
+      <c r="DE3" s="26"/>
+      <c r="DF3" s="26"/>
+      <c r="DG3" s="26"/>
+      <c r="DH3" s="26"/>
+      <c r="DI3" s="26"/>
+      <c r="DJ3" s="26"/>
+      <c r="DK3" s="26"/>
+      <c r="DL3" s="26"/>
+      <c r="DM3" s="26"/>
+      <c r="DN3" s="26"/>
+      <c r="DO3" s="26"/>
+      <c r="DP3" s="26"/>
+      <c r="DQ3" s="26"/>
+      <c r="DR3" s="26"/>
+      <c r="DS3" s="26"/>
+      <c r="DT3" s="26"/>
+      <c r="DU3" s="26"/>
+      <c r="DV3" s="26"/>
+      <c r="DW3" s="26"/>
+      <c r="DX3" s="26"/>
+      <c r="DY3" s="26"/>
+      <c r="DZ3" s="26"/>
+      <c r="EA3" s="26"/>
+      <c r="EB3" s="26"/>
+      <c r="EC3" s="26"/>
+      <c r="ED3" s="26"/>
+      <c r="EE3" s="26"/>
+      <c r="EF3" s="26"/>
+      <c r="EG3" s="26"/>
+      <c r="EH3" s="26"/>
+      <c r="EI3" s="26"/>
+      <c r="EJ3" s="26"/>
+      <c r="EK3" s="26"/>
+      <c r="EL3" s="26"/>
+      <c r="EM3" s="26"/>
+      <c r="EN3" s="26"/>
+      <c r="EO3" s="26"/>
+      <c r="EP3" s="26"/>
+      <c r="EQ3" s="26"/>
+      <c r="ER3" s="26"/>
+      <c r="ES3" s="26"/>
+      <c r="ET3" s="26"/>
+      <c r="EU3" s="26"/>
+      <c r="EV3" s="26"/>
+      <c r="EW3" s="26"/>
+      <c r="EX3" s="26"/>
+      <c r="EY3" s="26"/>
+      <c r="EZ3" s="26"/>
+      <c r="FA3" s="26"/>
+      <c r="FB3" s="26"/>
+      <c r="FC3" s="26"/>
+      <c r="FD3" s="26"/>
+      <c r="FE3" s="26"/>
+      <c r="FF3" s="26"/>
+      <c r="FG3" s="26"/>
+      <c r="FH3" s="26"/>
+      <c r="FI3" s="26"/>
+      <c r="FJ3" s="26"/>
+      <c r="FK3" s="26"/>
+      <c r="FL3" s="26"/>
+      <c r="FM3" s="26"/>
+      <c r="FN3" s="26"/>
+      <c r="FO3" s="26"/>
+      <c r="FP3" s="26"/>
+      <c r="FQ3" s="26"/>
+      <c r="FR3" s="26"/>
+      <c r="FS3" s="26"/>
+      <c r="FT3" s="26"/>
+      <c r="FU3" s="26"/>
+      <c r="FV3" s="26"/>
+      <c r="FW3" s="26"/>
+      <c r="FX3" s="26"/>
+      <c r="FY3" s="26"/>
+      <c r="FZ3" s="26"/>
+      <c r="GA3" s="26"/>
+      <c r="GB3" s="26"/>
+      <c r="GC3" s="26"/>
+      <c r="GD3" s="26"/>
+      <c r="GE3" s="26"/>
+      <c r="GF3" s="26"/>
+      <c r="GG3" s="26"/>
+      <c r="GH3" s="26"/>
+      <c r="GI3" s="26"/>
+      <c r="GJ3" s="26"/>
+      <c r="GK3" s="26"/>
+      <c r="GL3" s="26"/>
+      <c r="GM3" s="26"/>
+      <c r="GN3" s="26"/>
+      <c r="GO3" s="26"/>
+      <c r="GP3" s="26"/>
+      <c r="GQ3" s="26"/>
+      <c r="GR3" s="26"/>
+      <c r="GS3" s="26"/>
+      <c r="GT3" s="26"/>
+      <c r="GU3" s="26"/>
+      <c r="GV3" s="26"/>
+      <c r="GW3" s="26"/>
+      <c r="GX3" s="26"/>
+      <c r="GY3" s="26"/>
+      <c r="GZ3" s="26"/>
+      <c r="HA3" s="26"/>
+      <c r="HB3" s="26"/>
+      <c r="HC3" s="26"/>
+      <c r="HD3" s="26"/>
+      <c r="HE3" s="26"/>
+      <c r="HF3" s="26"/>
+      <c r="HG3" s="26"/>
+      <c r="HH3" s="26"/>
+      <c r="HI3" s="26"/>
+      <c r="HJ3" s="26"/>
+      <c r="HK3" s="26"/>
+      <c r="HL3" s="26"/>
+      <c r="HM3" s="26"/>
+      <c r="HN3" s="26"/>
+      <c r="HO3" s="26"/>
+      <c r="HP3" s="26"/>
+      <c r="HQ3" s="26"/>
+      <c r="HR3" s="26"/>
+      <c r="HS3" s="26"/>
+      <c r="HT3" s="26"/>
+      <c r="HU3" s="26"/>
+      <c r="HV3" s="26"/>
+      <c r="HW3" s="26"/>
+      <c r="HX3" s="26"/>
+      <c r="HY3" s="26"/>
+      <c r="HZ3" s="26"/>
+      <c r="IA3" s="26"/>
+      <c r="IB3" s="26"/>
+      <c r="IC3" s="26"/>
+      <c r="ID3" s="26"/>
+      <c r="IE3" s="26"/>
+      <c r="IF3" s="26"/>
+      <c r="IG3" s="26"/>
+      <c r="IH3" s="26"/>
+      <c r="II3" s="26"/>
+      <c r="IJ3" s="26"/>
+      <c r="IK3" s="26"/>
+      <c r="IL3" s="26"/>
+      <c r="IM3" s="26"/>
+      <c r="IN3" s="26"/>
+      <c r="IO3" s="26"/>
+      <c r="IP3" s="26"/>
+    </row>
+    <row r="4" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+    </row>
+    <row r="5" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+    </row>
+    <row r="6" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+    </row>
+    <row r="7" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+    </row>
+    <row r="8" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+    </row>
+    <row r="9" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+    </row>
+    <row r="10" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+    </row>
+    <row r="11" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+    </row>
+    <row r="12" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+    </row>
+    <row r="13" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+    </row>
+    <row r="14" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+    </row>
+    <row r="15" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+    </row>
+    <row r="16" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+    </row>
+    <row r="17" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+    </row>
+    <row r="18" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+    </row>
+    <row r="19" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+    </row>
+    <row r="20" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+    </row>
+    <row r="21" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+    </row>
+    <row r="22" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+    </row>
+    <row r="23" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="17"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+    </row>
+    <row r="24" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="17"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+    </row>
+    <row r="25" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="17"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+    </row>
+    <row r="26" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="17"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+    </row>
+    <row r="27" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="17"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+    </row>
+    <row r="28" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="17"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+    </row>
+    <row r="29" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="17"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+    </row>
+    <row r="30" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="17"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+    </row>
+    <row r="31" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="17"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+    </row>
+    <row r="32" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="17"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+    </row>
+    <row r="33" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="17"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+    </row>
+    <row r="34" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="17"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+    </row>
+    <row r="35" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="17"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+    </row>
+    <row r="36" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="17"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+    </row>
+    <row r="37" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="17"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+    </row>
+    <row r="38" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="17"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+    </row>
+    <row r="39" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="17"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+    </row>
+    <row r="40" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="17"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+    </row>
+    <row r="41" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="17"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+    </row>
+    <row r="42" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="17"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+    </row>
+    <row r="43" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="17"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+    </row>
+    <row r="44" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="17"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+    </row>
+    <row r="45" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="17"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+    </row>
+    <row r="46" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="17"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+    </row>
+    <row r="47" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="17"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+    </row>
+    <row r="48" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="17"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+    </row>
+    <row r="49" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="17"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+    </row>
+    <row r="50" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="17"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+    </row>
+    <row r="51" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="17"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+    </row>
+    <row r="52" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="17"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+    </row>
+    <row r="53" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="17"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+    </row>
+    <row r="54" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="17"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+    </row>
+    <row r="55" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="17"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+    </row>
+    <row r="56" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="17"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="G6:K6"/>
-  </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
@@ -2167,24 +2306,21 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV29"/>
+  <dimension ref="A1:IP52"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="27.1640625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="27.5" style="23" customWidth="1"/>
-    <col min="3" max="3" width="28.1640625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" style="23" customWidth="1"/>
-    <col min="5" max="5" width="24" style="23" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="23" customWidth="1"/>
-    <col min="7" max="256" width="16.33203125" style="23" customWidth="1"/>
+    <col min="1" max="1" width="26.83203125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="34.83203125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="81.83203125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="42.83203125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="46.83203125" style="18" customWidth="1"/>
+    <col min="6" max="250" width="16.33203125" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:250" ht="31" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
@@ -2192,422 +2328,381 @@
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-    </row>
-    <row r="2" spans="1:11" ht="20.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+    </row>
+    <row r="2" spans="1:250" ht="20.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>8</v>
+      <c r="E2" s="21" t="s">
+        <v>14</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="28"/>
-    </row>
-    <row r="3" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="31"/>
-    </row>
-    <row r="4" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-    </row>
-    <row r="5" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-    </row>
-    <row r="6" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-    </row>
-    <row r="7" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-    </row>
-    <row r="8" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-    </row>
-    <row r="9" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-    </row>
-    <row r="10" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-    </row>
-    <row r="11" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-    </row>
-    <row r="12" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-    </row>
-    <row r="13" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-    </row>
-    <row r="14" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-    </row>
-    <row r="15" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-    </row>
-    <row r="16" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-    </row>
-    <row r="17" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-    </row>
-    <row r="18" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-    </row>
-    <row r="19" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-    </row>
-    <row r="20" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-    </row>
-    <row r="21" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-    </row>
-    <row r="22" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="22"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-    </row>
-    <row r="23" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="22"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-    </row>
-    <row r="24" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="22"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-    </row>
-    <row r="25" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="22"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-    </row>
-    <row r="26" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="22"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-    </row>
-    <row r="27" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="22"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-    </row>
-    <row r="28" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="22"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-    </row>
-    <row r="29" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="22"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
+      <c r="IK2"/>
+      <c r="IL2"/>
+      <c r="IM2"/>
+      <c r="IN2"/>
+      <c r="IO2"/>
+      <c r="IP2"/>
+    </row>
+    <row r="3" spans="1:250" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="19"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+    </row>
+    <row r="4" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+    </row>
+    <row r="5" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+    </row>
+    <row r="6" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+    </row>
+    <row r="7" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+    </row>
+    <row r="11" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+    </row>
+    <row r="13" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+    </row>
+    <row r="15" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+    </row>
+    <row r="16" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+    </row>
+    <row r="17" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+    </row>
+    <row r="18" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+    </row>
+    <row r="19" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+    </row>
+    <row r="21" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+    </row>
+    <row r="22" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="17"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+    </row>
+    <row r="23" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="17"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+    </row>
+    <row r="24" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="17"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+    </row>
+    <row r="25" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="17"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+    </row>
+    <row r="26" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="17"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="17"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+    </row>
+    <row r="28" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="17"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+    </row>
+    <row r="29" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="17"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+    </row>
+    <row r="30" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="17"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+    </row>
+    <row r="31" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="17"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+    </row>
+    <row r="32" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="17"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+    </row>
+    <row r="33" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="17"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+    </row>
+    <row r="34" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="17"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+    </row>
+    <row r="35" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="17"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+    </row>
+    <row r="36" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="17"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+    </row>
+    <row r="37" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="17"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+    </row>
+    <row r="38" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="17"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+    </row>
+    <row r="39" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="17"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+    </row>
+    <row r="40" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="17"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+    </row>
+    <row r="41" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="17"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+    </row>
+    <row r="42" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="17"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+    </row>
+    <row r="43" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="17"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+    </row>
+    <row r="44" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="17"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+    </row>
+    <row r="45" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="17"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+    </row>
+    <row r="46" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="17"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+    </row>
+    <row r="47" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="17"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+    </row>
+    <row r="48" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="17"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+    </row>
+    <row r="49" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="17"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+    </row>
+    <row r="50" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="17"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+    </row>
+    <row r="51" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="17"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+    </row>
+    <row r="52" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="17"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-  </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>

--- a/cmip6/citations/cmip6_miroc_citations.xlsx
+++ b/cmip6/citations/cmip6_miroc_citations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ipsl/Engineering/esdoc/bash/cmip6/citations/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/toshi/Documents/work/project/CMIP6/ES-DOC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3B9249-E2A6-2448-9F22-74A155B1A05C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCF2095-8027-7240-A386-EE25EBF2ECB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>ES-DOC CMIP6 Model Citations</t>
   </si>
@@ -62,31 +62,116 @@
     <t>10.1002/2013JD020445</t>
   </si>
   <si>
+    <t>BibTex</t>
+  </si>
+  <si>
+    <t>http://journal.com/873487234</t>
+  </si>
+  <si>
+    <t>Nativi_2008</t>
+  </si>
+  <si>
+    <t>Long name for internal use (unarchived)</t>
+  </si>
+  <si>
+    <t>SPRINTARS_T</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>10.1029/2000JD900265</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>https://agupubs.onlinelibrary.wiley.com/doi/abs/10.1029/2000JD900265</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
     <t>"@article{
   title = {Unidata's Common Data Model Mapping to the ISO 19123 Data Model},
   journal = {Earth Science Informatics},
   author = {Nativi, Stefano and Caron, John and Domenico, Ben and Bigagli, Lorenzo},
   year = {2008},
 }"</t>
-  </si>
-  <si>
-    <t>BibTex</t>
-  </si>
-  <si>
-    <t>http://journal.com/873487234</t>
-  </si>
-  <si>
-    <t>Nativi_2008</t>
-  </si>
-  <si>
-    <t>Long name for internal use (unarchived)</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>"@article{
+  title = {Global three-dimensional simulation of aerosol optical thickness distribution of various origins},
+  journal = {Journal of Geophysical Research},
+  author = {Takemura, Toshihiko and Okamoto, Hajime and Maruyama, Yoshihiro and Numaguti, Atusi and Higurashi, Akiko and Nakajima, Teruyuki},
+  year = {2000},
+}"</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>10.1175/1520-0442(2002)015&lt;0333:SSAARF&gt;2.0.CO;2</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>https://journals.ametsoc.org/doi/abs/10.1175/1520-0442(2002)015%3C0333%3ASSAARF%3E2.0.CO;2</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>"@article{
+  title = {Single-scattering albedo and radiative forcing of various aerosol species with a global three-dimensional model},
+  journal = {Journal of Climate},
+  author = {Takemura, Toshihiko and Nakajima, Teruyuki and Dubovik, Oleg and Holben, Brent N. and Kinne, Stefan},
+  year = {2002},
+}"</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>SPRINTARS_R</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>SPRINTARS_C</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>10.1029/2004JD005029</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>"@article{
+  title = {Simulation of climate response to aerosol direct and indirect effects with aerosol transport-radiation model},
+  journal = {Journal of Geophysical Research},
+  author = {Takemura, Toshihiko and Nozawa, Toru and Emori, Seita and Nakajima, Takashi Y. and Nakajima, Teruyuki},
+  year = {2005},
+}"</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>https://agupubs.onlinelibrary.wiley.com/doi/full/10.1029/2004JD005029</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>SPRINTARS_M</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>https://www.atmos-chem-phys.net/9/3061/2009/acp-9-3061-2009.html</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>10.5194/acp-9-3061-2009</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>"@article{
+  title = {A simulation of the global distribution and radiative forcing of soil dust aerosols at the Last Glacial Maximum},
+  journal = {Atmospheric Chemistry and Physics},
+  author = {Takemura, Toshihiko and Egashira, Mio and Matsuzawa, Kanako and Ichijo, Hironori and O'ishi, Ryota and Abe-Ouchi, Ayako},
+  year = {2009},
+}"</t>
+    <phoneticPr fontId="11"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -153,6 +238,18 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="A-OTF Futo Go B101 Pr6N Bold"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -293,7 +390,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -376,9 +473,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -1535,9 +1638,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="35.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="180.6640625" style="1" customWidth="1"/>
@@ -1545,7 +1648,7 @@
     <col min="6" max="256" width="8.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="34.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="34.25" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1554,14 +1657,14 @@
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="25.5" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
@@ -1572,14 +1675,14 @@
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="25.5" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -1590,14 +1693,14 @@
       <c r="D5" s="6"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="409" customHeight="1">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="409" customHeight="1">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1605,6 +1708,7 @@
       <c r="E7" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="11"/>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
@@ -1623,9 +1727,11 @@
   </sheetPr>
   <dimension ref="A1:IP56"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="26.83203125" style="10" customWidth="1"/>
     <col min="2" max="2" width="34.83203125" style="10" customWidth="1"/>
@@ -1635,7 +1741,7 @@
     <col min="6" max="250" width="16.33203125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:250" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:250" ht="31" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
@@ -1644,7 +1750,7 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:250" ht="20.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:250" ht="20.75" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>6</v>
       </c>
@@ -1652,27 +1758,27 @@
         <v>8</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:250" s="27" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:250" s="27" customFormat="1" ht="129" customHeight="1">
       <c r="A3" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="26"/>
@@ -1921,371 +2027,371 @@
       <c r="IO3" s="26"/>
       <c r="IP3" s="26"/>
     </row>
-    <row r="4" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:250" ht="20" customHeight="1">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
     </row>
-    <row r="5" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:250" ht="20" customHeight="1">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
     </row>
-    <row r="6" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:250" ht="20" customHeight="1">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
     </row>
-    <row r="7" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:250" ht="20" customHeight="1">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
     </row>
-    <row r="8" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:250" ht="20" customHeight="1">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
     </row>
-    <row r="9" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:250" ht="20" customHeight="1">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
     </row>
-    <row r="10" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:250" ht="20" customHeight="1">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
     </row>
-    <row r="11" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:250" ht="20" customHeight="1">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
     </row>
-    <row r="12" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:250" ht="20" customHeight="1">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
       <c r="E12" s="23"/>
     </row>
-    <row r="13" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:250" ht="20" customHeight="1">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
     </row>
-    <row r="14" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:250" ht="20" customHeight="1">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
     </row>
-    <row r="15" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:250" ht="20" customHeight="1">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
     </row>
-    <row r="16" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:250" ht="20" customHeight="1">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
     </row>
-    <row r="17" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="20" customHeight="1">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
     </row>
-    <row r="18" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="20" customHeight="1">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
       <c r="E18" s="23"/>
     </row>
-    <row r="19" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="20" customHeight="1">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
     </row>
-    <row r="20" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="20" customHeight="1">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
     </row>
-    <row r="21" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="20" customHeight="1">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
     </row>
-    <row r="22" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="20" customHeight="1">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
     </row>
-    <row r="23" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="20" customHeight="1">
       <c r="A23" s="17"/>
       <c r="B23" s="14"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
     </row>
-    <row r="24" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="20" customHeight="1">
       <c r="A24" s="17"/>
       <c r="B24" s="14"/>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
     </row>
-    <row r="25" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="20" customHeight="1">
       <c r="A25" s="17"/>
       <c r="B25" s="14"/>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
     </row>
-    <row r="26" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="20" customHeight="1">
       <c r="A26" s="17"/>
       <c r="B26" s="14"/>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
     </row>
-    <row r="27" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="20" customHeight="1">
       <c r="A27" s="17"/>
       <c r="B27" s="14"/>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
     </row>
-    <row r="28" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="20" customHeight="1">
       <c r="A28" s="17"/>
       <c r="B28" s="14"/>
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
     </row>
-    <row r="29" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="20" customHeight="1">
       <c r="A29" s="17"/>
       <c r="B29" s="14"/>
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
     </row>
-    <row r="30" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="20" customHeight="1">
       <c r="A30" s="17"/>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
     </row>
-    <row r="31" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" ht="20" customHeight="1">
       <c r="A31" s="17"/>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
     </row>
-    <row r="32" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" ht="20" customHeight="1">
       <c r="A32" s="17"/>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
     </row>
-    <row r="33" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" ht="20" customHeight="1">
       <c r="A33" s="17"/>
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
     </row>
-    <row r="34" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" ht="20" customHeight="1">
       <c r="A34" s="17"/>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
     </row>
-    <row r="35" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" ht="20" customHeight="1">
       <c r="A35" s="17"/>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
     </row>
-    <row r="36" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" ht="20" customHeight="1">
       <c r="A36" s="17"/>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
     </row>
-    <row r="37" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" ht="20" customHeight="1">
       <c r="A37" s="17"/>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
       <c r="E37" s="22"/>
     </row>
-    <row r="38" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" ht="20" customHeight="1">
       <c r="A38" s="17"/>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
     </row>
-    <row r="39" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" ht="20" customHeight="1">
       <c r="A39" s="17"/>
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
       <c r="D39" s="22"/>
       <c r="E39" s="22"/>
     </row>
-    <row r="40" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" ht="20" customHeight="1">
       <c r="A40" s="17"/>
       <c r="B40" s="22"/>
       <c r="C40" s="22"/>
       <c r="D40" s="22"/>
       <c r="E40" s="22"/>
     </row>
-    <row r="41" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" ht="20" customHeight="1">
       <c r="A41" s="17"/>
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
       <c r="D41" s="22"/>
       <c r="E41" s="22"/>
     </row>
-    <row r="42" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" ht="20" customHeight="1">
       <c r="A42" s="17"/>
       <c r="B42" s="22"/>
       <c r="C42" s="22"/>
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
     </row>
-    <row r="43" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" ht="20" customHeight="1">
       <c r="A43" s="17"/>
       <c r="B43" s="22"/>
       <c r="C43" s="22"/>
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
     </row>
-    <row r="44" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" ht="20" customHeight="1">
       <c r="A44" s="17"/>
       <c r="B44" s="22"/>
       <c r="C44" s="22"/>
       <c r="D44" s="22"/>
       <c r="E44" s="22"/>
     </row>
-    <row r="45" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" ht="20" customHeight="1">
       <c r="A45" s="17"/>
       <c r="B45" s="22"/>
       <c r="C45" s="22"/>
       <c r="D45" s="22"/>
       <c r="E45" s="22"/>
     </row>
-    <row r="46" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" ht="20" customHeight="1">
       <c r="A46" s="17"/>
       <c r="B46" s="22"/>
       <c r="C46" s="22"/>
       <c r="D46" s="22"/>
       <c r="E46" s="22"/>
     </row>
-    <row r="47" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" ht="20" customHeight="1">
       <c r="A47" s="17"/>
       <c r="B47" s="22"/>
       <c r="C47" s="22"/>
       <c r="D47" s="22"/>
       <c r="E47" s="22"/>
     </row>
-    <row r="48" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" ht="20" customHeight="1">
       <c r="A48" s="17"/>
       <c r="B48" s="22"/>
       <c r="C48" s="22"/>
       <c r="D48" s="22"/>
       <c r="E48" s="22"/>
     </row>
-    <row r="49" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5" ht="20" customHeight="1">
       <c r="A49" s="17"/>
       <c r="B49" s="22"/>
       <c r="C49" s="22"/>
       <c r="D49" s="22"/>
       <c r="E49" s="22"/>
     </row>
-    <row r="50" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" ht="20" customHeight="1">
       <c r="A50" s="17"/>
       <c r="B50" s="22"/>
       <c r="C50" s="22"/>
       <c r="D50" s="22"/>
       <c r="E50" s="22"/>
     </row>
-    <row r="51" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5" ht="20" customHeight="1">
       <c r="A51" s="17"/>
       <c r="B51" s="22"/>
       <c r="C51" s="22"/>
       <c r="D51" s="22"/>
       <c r="E51" s="22"/>
     </row>
-    <row r="52" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" ht="20" customHeight="1">
       <c r="A52" s="17"/>
       <c r="B52" s="22"/>
       <c r="C52" s="22"/>
       <c r="D52" s="22"/>
       <c r="E52" s="22"/>
     </row>
-    <row r="53" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5" ht="20" customHeight="1">
       <c r="A53" s="17"/>
       <c r="B53" s="22"/>
       <c r="C53" s="22"/>
       <c r="D53" s="22"/>
       <c r="E53" s="22"/>
     </row>
-    <row r="54" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5" ht="20" customHeight="1">
       <c r="A54" s="17"/>
       <c r="B54" s="22"/>
       <c r="C54" s="22"/>
       <c r="D54" s="22"/>
       <c r="E54" s="22"/>
     </row>
-    <row r="55" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5" ht="20" customHeight="1">
       <c r="A55" s="17"/>
       <c r="B55" s="22"/>
       <c r="C55" s="22"/>
       <c r="D55" s="22"/>
       <c r="E55" s="22"/>
     </row>
-    <row r="56" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5" ht="20" customHeight="1">
       <c r="A56" s="17"/>
       <c r="B56" s="22"/>
       <c r="C56" s="22"/>
@@ -2293,6 +2399,7 @@
       <c r="E56" s="22"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="11"/>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
@@ -2308,9 +2415,11 @@
   </sheetPr>
   <dimension ref="A1:IP52"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="26.83203125" style="18" customWidth="1"/>
     <col min="2" max="2" width="34.83203125" style="18" customWidth="1"/>
@@ -2320,7 +2429,7 @@
     <col min="6" max="250" width="16.33203125" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:250" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:250" ht="31" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
@@ -2329,7 +2438,7 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:250" ht="20.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:250" ht="20.75" customHeight="1">
       <c r="A2" s="21" t="s">
         <v>6</v>
       </c>
@@ -2337,13 +2446,13 @@
         <v>8</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="IK2"/>
       <c r="IL2"/>
@@ -2352,350 +2461,382 @@
       <c r="IO2"/>
       <c r="IP2"/>
     </row>
-    <row r="3" spans="1:250" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="19"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
+    <row r="3" spans="1:250" ht="136">
+      <c r="A3" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>16</v>
+      </c>
       <c r="E3" s="20"/>
     </row>
-    <row r="4" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
+    <row r="4" spans="1:250" ht="136">
+      <c r="A4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="E4" s="16"/>
     </row>
-    <row r="5" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
+    <row r="5" spans="1:250" ht="136">
+      <c r="A5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="E5" s="16"/>
     </row>
-    <row r="6" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
+    <row r="6" spans="1:250" ht="136">
+      <c r="A6" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>28</v>
+      </c>
       <c r="E6" s="16"/>
     </row>
-    <row r="7" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:250" ht="20" customHeight="1">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
     </row>
-    <row r="8" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:250" ht="20" customHeight="1">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
     </row>
-    <row r="9" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:250" ht="20" customHeight="1">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
     </row>
-    <row r="10" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:250" ht="20" customHeight="1">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
     </row>
-    <row r="11" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:250" ht="20" customHeight="1">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
     </row>
-    <row r="12" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:250" ht="20" customHeight="1">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
     </row>
-    <row r="13" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:250" ht="20" customHeight="1">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
     </row>
-    <row r="14" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:250" ht="20" customHeight="1">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
     </row>
-    <row r="15" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:250" ht="20" customHeight="1">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
     </row>
-    <row r="16" spans="1:250" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:250" ht="20" customHeight="1">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
     </row>
-    <row r="17" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="20" customHeight="1">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
     </row>
-    <row r="18" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="20" customHeight="1">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
     </row>
-    <row r="19" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="20" customHeight="1">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
     </row>
-    <row r="20" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="20" customHeight="1">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
     </row>
-    <row r="21" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="20" customHeight="1">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
     </row>
-    <row r="22" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="20" customHeight="1">
       <c r="A22" s="17"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
     </row>
-    <row r="23" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="20" customHeight="1">
       <c r="A23" s="17"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
     </row>
-    <row r="24" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="20" customHeight="1">
       <c r="A24" s="17"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="20" customHeight="1">
       <c r="A25" s="17"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="20" customHeight="1">
       <c r="A26" s="17"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
     </row>
-    <row r="27" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="20" customHeight="1">
       <c r="A27" s="17"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
     </row>
-    <row r="28" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="20" customHeight="1">
       <c r="A28" s="17"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
     </row>
-    <row r="29" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="20" customHeight="1">
       <c r="A29" s="17"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
     </row>
-    <row r="30" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="20" customHeight="1">
       <c r="A30" s="17"/>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
     </row>
-    <row r="31" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" ht="20" customHeight="1">
       <c r="A31" s="17"/>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
     </row>
-    <row r="32" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" ht="20" customHeight="1">
       <c r="A32" s="17"/>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
     </row>
-    <row r="33" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" ht="20" customHeight="1">
       <c r="A33" s="17"/>
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
     </row>
-    <row r="34" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" ht="20" customHeight="1">
       <c r="A34" s="17"/>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
     </row>
-    <row r="35" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" ht="20" customHeight="1">
       <c r="A35" s="17"/>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
     </row>
-    <row r="36" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" ht="20" customHeight="1">
       <c r="A36" s="17"/>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
     </row>
-    <row r="37" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" ht="20" customHeight="1">
       <c r="A37" s="17"/>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
       <c r="E37" s="22"/>
     </row>
-    <row r="38" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" ht="20" customHeight="1">
       <c r="A38" s="17"/>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
     </row>
-    <row r="39" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" ht="20" customHeight="1">
       <c r="A39" s="17"/>
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
       <c r="D39" s="22"/>
       <c r="E39" s="22"/>
     </row>
-    <row r="40" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" ht="20" customHeight="1">
       <c r="A40" s="17"/>
       <c r="B40" s="22"/>
       <c r="C40" s="22"/>
       <c r="D40" s="22"/>
       <c r="E40" s="22"/>
     </row>
-    <row r="41" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" ht="20" customHeight="1">
       <c r="A41" s="17"/>
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
       <c r="D41" s="22"/>
       <c r="E41" s="22"/>
     </row>
-    <row r="42" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" ht="20" customHeight="1">
       <c r="A42" s="17"/>
       <c r="B42" s="22"/>
       <c r="C42" s="22"/>
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
     </row>
-    <row r="43" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" ht="20" customHeight="1">
       <c r="A43" s="17"/>
       <c r="B43" s="22"/>
       <c r="C43" s="22"/>
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
     </row>
-    <row r="44" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" ht="20" customHeight="1">
       <c r="A44" s="17"/>
       <c r="B44" s="22"/>
       <c r="C44" s="22"/>
       <c r="D44" s="22"/>
       <c r="E44" s="22"/>
     </row>
-    <row r="45" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" ht="20" customHeight="1">
       <c r="A45" s="17"/>
       <c r="B45" s="22"/>
       <c r="C45" s="22"/>
       <c r="D45" s="22"/>
       <c r="E45" s="22"/>
     </row>
-    <row r="46" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" ht="20" customHeight="1">
       <c r="A46" s="17"/>
       <c r="B46" s="22"/>
       <c r="C46" s="22"/>
       <c r="D46" s="22"/>
       <c r="E46" s="22"/>
     </row>
-    <row r="47" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" ht="20" customHeight="1">
       <c r="A47" s="17"/>
       <c r="B47" s="22"/>
       <c r="C47" s="22"/>
       <c r="D47" s="22"/>
       <c r="E47" s="22"/>
     </row>
-    <row r="48" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" ht="20" customHeight="1">
       <c r="A48" s="17"/>
       <c r="B48" s="22"/>
       <c r="C48" s="22"/>
       <c r="D48" s="22"/>
       <c r="E48" s="22"/>
     </row>
-    <row r="49" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5" ht="20" customHeight="1">
       <c r="A49" s="17"/>
       <c r="B49" s="22"/>
       <c r="C49" s="22"/>
       <c r="D49" s="22"/>
       <c r="E49" s="22"/>
     </row>
-    <row r="50" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" ht="20" customHeight="1">
       <c r="A50" s="17"/>
       <c r="B50" s="22"/>
       <c r="C50" s="22"/>
       <c r="D50" s="22"/>
       <c r="E50" s="22"/>
     </row>
-    <row r="51" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5" ht="20" customHeight="1">
       <c r="A51" s="17"/>
       <c r="B51" s="22"/>
       <c r="C51" s="22"/>
       <c r="D51" s="22"/>
       <c r="E51" s="22"/>
     </row>
-    <row r="52" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" ht="20" customHeight="1">
       <c r="A52" s="17"/>
       <c r="B52" s="22"/>
       <c r="C52" s="22"/>
@@ -2703,6 +2844,7 @@
       <c r="E52" s="22"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="11"/>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>

--- a/cmip6/citations/cmip6_miroc_citations.xlsx
+++ b/cmip6/citations/cmip6_miroc_citations.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/toshi/Documents/work/project/CMIP6/ES-DOC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Takahiro\Google ドライブ\ES-DOC\collected\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCF2095-8027-7240-A386-EE25EBF2ECB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21705" windowHeight="12975" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
   <si>
     <t>ES-DOC CMIP6 Model Citations</t>
   </si>
@@ -166,12 +165,101 @@
 }"</t>
     <phoneticPr fontId="11"/>
   </si>
+  <si>
+    <t>Akiyoshi_2009</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>10.1029/2007JD009261</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>"@article{
+  title = {A  CCM  simulation  of  the  breakup of  the  Antarctic  polar  vortex  in  the  years  1980–2004  under  the  CCMVal  scenarios},
+  journal = {J. Geophys. Res.},
+  author = {Akiyoshi, H., Zhou, L. B., Yamashita, Y., Sakamoto, K., Yoshiki, M.,  Nagashima,  T.,  Takahashi,  M.,  Kurokawa,  J.,  Takigawa, M.,  and  Imamura,  T.},
+  year = {2009},
+}"</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>https://agupubs.onlinelibrary.wiley.com/doi/full/10.1029/2007JD009261</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>Watanabe_2011</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>10.5194/gmd-4-845-2011</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>"@article{
+  title = {MIROC-ESM 2010: model description and basic results of CMIP5-20c3m experiments},
+  journal = {Geosci. Model Dev.},
+  author = {Watanabe, S., Hajima, T., Sudo,K., Nagashima, T., Takemura, T., Okajima, H., Nozawa, T., Kawase, H., Abe, M., Yokohata, T., Ise, T., Sato, H., Kato, E., Takata, K., Emori, S., and Kawamiya, M.},
+  year = {2011},
+}"</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>https://www.geosci-model-dev.net/4/845/2011/gmd-4-845-2011.html</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>Morgenstern_2017</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>10.5194/gmd-4-845-2011</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>@Article{gmd-10-639-2017,
+AUTHOR = {Morgenstern, O. and Hegglin, M. I. and Rozanov, E. and O'Connor, F. M. and Abraham, N. L. and Akiyoshi, H. and Archibald, A. T. and Bekki, S. and Butchart, N. and Chipperfield, M. P. and Deushi, M. and Dhomse, S. S. and Garcia, R. R. and Hardiman, S. C. and Horowitz, L. W. and J\"ockel, P. and Josse, B. and Kinnison, D. and Lin, M. and Mancini, E. and Manyin, M. E. and Marchand, M. and Mar\'ecal, V. and Michou, M. and Oman, L. D. and Pitari, G. and Plummer, D. A. and Revell, L. E. and Saint-Martin, D. and Schofield, R. and Stenke, A. and Stone, K. and Sudo, K. and Tanaka, T. Y. and Tilmes, S. and Yamashita, Y. and Yoshida, K. and Zeng, G.},
+TITLE = {Review of the global models used within {phase 1 of} the Chemistry--Climate Model Initiative (CCMI)},
+JOURNAL = {Geoscientific Model Development},
+VOLUME = {10},
+YEAR = {2017},
+NUMBER = {2},
+PAGES = {639--671},
+URL = {https://www.geosci-model-dev.net/10/639/2017/},
+DOI = {10.5194/gmd-10-639-2017}
+}</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>https://www.geosci-model-dev.net/10/639/2017/</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>Sudo_2002</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>10.1029/2001JD001113</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>"@article{
+  title = {CHASER: A global chemical model of the troposphere 1. Model description},
+  journal = {J. Geophys. Res.},
+  author = {Sudo, K., M. Takahashi, J. Kurokawa, and H. Akimoto},
+  year = {2002},
+}"</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>https://agupubs.onlinelibrary.wiley.com/doi/full/10.1029/2001JD001113</t>
+    <phoneticPr fontId="13"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -248,6 +336,20 @@
     <font>
       <sz val="6"/>
       <name val="A-OTF Futo Go B101 Pr6N Bold"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Helvetica Neue"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -385,12 +487,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -479,8 +584,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1635,20 +1744,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="180.6640625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="9.1640625" style="1" customWidth="1"/>
-    <col min="6" max="256" width="8.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="180.7109375" style="1" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="1" customWidth="1"/>
+    <col min="6" max="256" width="8.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="34.25" customHeight="1">
+    <row r="1" spans="1:5" ht="34.35" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1693,14 +1802,14 @@
       <c r="D5" s="6"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" ht="409" customHeight="1">
+    <row r="6" spans="1:5" ht="408.95" customHeight="1">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5" ht="409" customHeight="1">
+    <row r="7" spans="1:5" ht="408.95" customHeight="1">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1710,7 +1819,7 @@
   </sheetData>
   <phoneticPr fontId="11"/>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B5" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -1721,7 +1830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1731,17 +1840,17 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="26.83203125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="34.83203125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="81.83203125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="42.83203125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="46.83203125" style="18" customWidth="1"/>
-    <col min="6" max="250" width="16.33203125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="81.85546875" style="18" customWidth="1"/>
+    <col min="4" max="4" width="42.85546875" style="18" customWidth="1"/>
+    <col min="5" max="5" width="46.85546875" style="18" customWidth="1"/>
+    <col min="6" max="250" width="16.28515625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:250" ht="31" customHeight="1">
+    <row r="1" spans="1:250" ht="30.95" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
@@ -1750,7 +1859,7 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:250" ht="20.75" customHeight="1">
+    <row r="2" spans="1:250" ht="20.85" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>6</v>
       </c>
@@ -2027,371 +2136,371 @@
       <c r="IO3" s="26"/>
       <c r="IP3" s="26"/>
     </row>
-    <row r="4" spans="1:250" ht="20" customHeight="1">
+    <row r="4" spans="1:250" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
     </row>
-    <row r="5" spans="1:250" ht="20" customHeight="1">
+    <row r="5" spans="1:250" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
     </row>
-    <row r="6" spans="1:250" ht="20" customHeight="1">
+    <row r="6" spans="1:250" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
     </row>
-    <row r="7" spans="1:250" ht="20" customHeight="1">
+    <row r="7" spans="1:250" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
     </row>
-    <row r="8" spans="1:250" ht="20" customHeight="1">
+    <row r="8" spans="1:250" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
     </row>
-    <row r="9" spans="1:250" ht="20" customHeight="1">
+    <row r="9" spans="1:250" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
     </row>
-    <row r="10" spans="1:250" ht="20" customHeight="1">
+    <row r="10" spans="1:250" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
     </row>
-    <row r="11" spans="1:250" ht="20" customHeight="1">
+    <row r="11" spans="1:250" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
     </row>
-    <row r="12" spans="1:250" ht="20" customHeight="1">
+    <row r="12" spans="1:250" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
       <c r="E12" s="23"/>
     </row>
-    <row r="13" spans="1:250" ht="20" customHeight="1">
+    <row r="13" spans="1:250" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
     </row>
-    <row r="14" spans="1:250" ht="20" customHeight="1">
+    <row r="14" spans="1:250" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
     </row>
-    <row r="15" spans="1:250" ht="20" customHeight="1">
+    <row r="15" spans="1:250" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
     </row>
-    <row r="16" spans="1:250" ht="20" customHeight="1">
+    <row r="16" spans="1:250" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
     </row>
-    <row r="17" spans="1:5" ht="20" customHeight="1">
+    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
     </row>
-    <row r="18" spans="1:5" ht="20" customHeight="1">
+    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
       <c r="E18" s="23"/>
     </row>
-    <row r="19" spans="1:5" ht="20" customHeight="1">
+    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
     </row>
-    <row r="20" spans="1:5" ht="20" customHeight="1">
+    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
     </row>
-    <row r="21" spans="1:5" ht="20" customHeight="1">
+    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
     </row>
-    <row r="22" spans="1:5" ht="20" customHeight="1">
+    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
     </row>
-    <row r="23" spans="1:5" ht="20" customHeight="1">
+    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="17"/>
       <c r="B23" s="14"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
     </row>
-    <row r="24" spans="1:5" ht="20" customHeight="1">
+    <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="17"/>
       <c r="B24" s="14"/>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
     </row>
-    <row r="25" spans="1:5" ht="20" customHeight="1">
+    <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="17"/>
       <c r="B25" s="14"/>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
     </row>
-    <row r="26" spans="1:5" ht="20" customHeight="1">
+    <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="17"/>
       <c r="B26" s="14"/>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
     </row>
-    <row r="27" spans="1:5" ht="20" customHeight="1">
+    <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="17"/>
       <c r="B27" s="14"/>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
     </row>
-    <row r="28" spans="1:5" ht="20" customHeight="1">
+    <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="17"/>
       <c r="B28" s="14"/>
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
     </row>
-    <row r="29" spans="1:5" ht="20" customHeight="1">
+    <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="17"/>
       <c r="B29" s="14"/>
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
     </row>
-    <row r="30" spans="1:5" ht="20" customHeight="1">
+    <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="17"/>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
     </row>
-    <row r="31" spans="1:5" ht="20" customHeight="1">
+    <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="17"/>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
     </row>
-    <row r="32" spans="1:5" ht="20" customHeight="1">
+    <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="17"/>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
     </row>
-    <row r="33" spans="1:5" ht="20" customHeight="1">
+    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="17"/>
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
     </row>
-    <row r="34" spans="1:5" ht="20" customHeight="1">
+    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="17"/>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
     </row>
-    <row r="35" spans="1:5" ht="20" customHeight="1">
+    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="17"/>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
     </row>
-    <row r="36" spans="1:5" ht="20" customHeight="1">
+    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="17"/>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
     </row>
-    <row r="37" spans="1:5" ht="20" customHeight="1">
+    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="17"/>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
       <c r="E37" s="22"/>
     </row>
-    <row r="38" spans="1:5" ht="20" customHeight="1">
+    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="17"/>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
     </row>
-    <row r="39" spans="1:5" ht="20" customHeight="1">
+    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="17"/>
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
       <c r="D39" s="22"/>
       <c r="E39" s="22"/>
     </row>
-    <row r="40" spans="1:5" ht="20" customHeight="1">
+    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="17"/>
       <c r="B40" s="22"/>
       <c r="C40" s="22"/>
       <c r="D40" s="22"/>
       <c r="E40" s="22"/>
     </row>
-    <row r="41" spans="1:5" ht="20" customHeight="1">
+    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="17"/>
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
       <c r="D41" s="22"/>
       <c r="E41" s="22"/>
     </row>
-    <row r="42" spans="1:5" ht="20" customHeight="1">
+    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="17"/>
       <c r="B42" s="22"/>
       <c r="C42" s="22"/>
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
     </row>
-    <row r="43" spans="1:5" ht="20" customHeight="1">
+    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="17"/>
       <c r="B43" s="22"/>
       <c r="C43" s="22"/>
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
     </row>
-    <row r="44" spans="1:5" ht="20" customHeight="1">
+    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="17"/>
       <c r="B44" s="22"/>
       <c r="C44" s="22"/>
       <c r="D44" s="22"/>
       <c r="E44" s="22"/>
     </row>
-    <row r="45" spans="1:5" ht="20" customHeight="1">
+    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="17"/>
       <c r="B45" s="22"/>
       <c r="C45" s="22"/>
       <c r="D45" s="22"/>
       <c r="E45" s="22"/>
     </row>
-    <row r="46" spans="1:5" ht="20" customHeight="1">
+    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="17"/>
       <c r="B46" s="22"/>
       <c r="C46" s="22"/>
       <c r="D46" s="22"/>
       <c r="E46" s="22"/>
     </row>
-    <row r="47" spans="1:5" ht="20" customHeight="1">
+    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="17"/>
       <c r="B47" s="22"/>
       <c r="C47" s="22"/>
       <c r="D47" s="22"/>
       <c r="E47" s="22"/>
     </row>
-    <row r="48" spans="1:5" ht="20" customHeight="1">
+    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="17"/>
       <c r="B48" s="22"/>
       <c r="C48" s="22"/>
       <c r="D48" s="22"/>
       <c r="E48" s="22"/>
     </row>
-    <row r="49" spans="1:5" ht="20" customHeight="1">
+    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="17"/>
       <c r="B49" s="22"/>
       <c r="C49" s="22"/>
       <c r="D49" s="22"/>
       <c r="E49" s="22"/>
     </row>
-    <row r="50" spans="1:5" ht="20" customHeight="1">
+    <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="17"/>
       <c r="B50" s="22"/>
       <c r="C50" s="22"/>
       <c r="D50" s="22"/>
       <c r="E50" s="22"/>
     </row>
-    <row r="51" spans="1:5" ht="20" customHeight="1">
+    <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="17"/>
       <c r="B51" s="22"/>
       <c r="C51" s="22"/>
       <c r="D51" s="22"/>
       <c r="E51" s="22"/>
     </row>
-    <row r="52" spans="1:5" ht="20" customHeight="1">
+    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="17"/>
       <c r="B52" s="22"/>
       <c r="C52" s="22"/>
       <c r="D52" s="22"/>
       <c r="E52" s="22"/>
     </row>
-    <row r="53" spans="1:5" ht="20" customHeight="1">
+    <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="17"/>
       <c r="B53" s="22"/>
       <c r="C53" s="22"/>
       <c r="D53" s="22"/>
       <c r="E53" s="22"/>
     </row>
-    <row r="54" spans="1:5" ht="20" customHeight="1">
+    <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="17"/>
       <c r="B54" s="22"/>
       <c r="C54" s="22"/>
       <c r="D54" s="22"/>
       <c r="E54" s="22"/>
     </row>
-    <row r="55" spans="1:5" ht="20" customHeight="1">
+    <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="17"/>
       <c r="B55" s="22"/>
       <c r="C55" s="22"/>
       <c r="D55" s="22"/>
       <c r="E55" s="22"/>
     </row>
-    <row r="56" spans="1:5" ht="20" customHeight="1">
+    <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="17"/>
       <c r="B56" s="22"/>
       <c r="C56" s="22"/>
@@ -2409,27 +2518,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IP52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="26.83203125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="34.83203125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="81.83203125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="42.83203125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="46.83203125" style="18" customWidth="1"/>
-    <col min="6" max="250" width="16.33203125" style="18" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" style="18" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="81.85546875" style="18" customWidth="1"/>
+    <col min="4" max="4" width="42.85546875" style="18" customWidth="1"/>
+    <col min="5" max="5" width="46.85546875" style="18" customWidth="1"/>
+    <col min="6" max="250" width="16.28515625" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:250" ht="31" customHeight="1">
+    <row r="1" spans="1:250" ht="30.95" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
@@ -2438,7 +2547,7 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:250" ht="20.75" customHeight="1">
+    <row r="2" spans="1:250" ht="20.85" customHeight="1">
       <c r="A2" s="21" t="s">
         <v>6</v>
       </c>
@@ -2461,7 +2570,7 @@
       <c r="IO2"/>
       <c r="IP2"/>
     </row>
-    <row r="3" spans="1:250" ht="136">
+    <row r="3" spans="1:250" ht="128.25">
       <c r="A3" s="19" t="s">
         <v>14</v>
       </c>
@@ -2476,7 +2585,7 @@
       </c>
       <c r="E3" s="20"/>
     </row>
-    <row r="4" spans="1:250" ht="136">
+    <row r="4" spans="1:250" ht="114">
       <c r="A4" s="15" t="s">
         <v>22</v>
       </c>
@@ -2491,7 +2600,7 @@
       </c>
       <c r="E4" s="16"/>
     </row>
-    <row r="5" spans="1:250" ht="136">
+    <row r="5" spans="1:250" ht="114">
       <c r="A5" s="15" t="s">
         <v>23</v>
       </c>
@@ -2506,7 +2615,7 @@
       </c>
       <c r="E5" s="16"/>
     </row>
-    <row r="6" spans="1:250" ht="136">
+    <row r="6" spans="1:250" ht="114">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
@@ -2521,322 +2630,354 @@
       </c>
       <c r="E6" s="16"/>
     </row>
-    <row r="7" spans="1:250" ht="20" customHeight="1">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-    </row>
-    <row r="8" spans="1:250" ht="20" customHeight="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-    </row>
-    <row r="9" spans="1:250" ht="20" customHeight="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-    </row>
-    <row r="10" spans="1:250" ht="20" customHeight="1">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-    </row>
-    <row r="11" spans="1:250" ht="20" customHeight="1">
+    <row r="7" spans="1:250" ht="139.5" customHeight="1">
+      <c r="A7" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="20"/>
+    </row>
+    <row r="8" spans="1:250" ht="179.25" customHeight="1">
+      <c r="A8" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="23"/>
+    </row>
+    <row r="9" spans="1:250" ht="300" customHeight="1">
+      <c r="A9" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="23"/>
+    </row>
+    <row r="10" spans="1:250" ht="165" customHeight="1">
+      <c r="A10" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="23"/>
+    </row>
+    <row r="11" spans="1:250" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
     </row>
-    <row r="12" spans="1:250" ht="20" customHeight="1">
+    <row r="12" spans="1:250" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
     </row>
-    <row r="13" spans="1:250" ht="20" customHeight="1">
+    <row r="13" spans="1:250" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
     </row>
-    <row r="14" spans="1:250" ht="20" customHeight="1">
+    <row r="14" spans="1:250" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
     </row>
-    <row r="15" spans="1:250" ht="20" customHeight="1">
+    <row r="15" spans="1:250" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
     </row>
-    <row r="16" spans="1:250" ht="20" customHeight="1">
+    <row r="16" spans="1:250" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
     </row>
-    <row r="17" spans="1:5" ht="20" customHeight="1">
+    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
     </row>
-    <row r="18" spans="1:5" ht="20" customHeight="1">
+    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
     </row>
-    <row r="19" spans="1:5" ht="20" customHeight="1">
+    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
     </row>
-    <row r="20" spans="1:5" ht="20" customHeight="1">
+    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
     </row>
-    <row r="21" spans="1:5" ht="20" customHeight="1">
+    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
     </row>
-    <row r="22" spans="1:5" ht="20" customHeight="1">
+    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="17"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
     </row>
-    <row r="23" spans="1:5" ht="20" customHeight="1">
+    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="17"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
     </row>
-    <row r="24" spans="1:5" ht="20" customHeight="1">
+    <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="17"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:5" ht="20" customHeight="1">
+    <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="17"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" ht="20" customHeight="1">
+    <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="17"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
     </row>
-    <row r="27" spans="1:5" ht="20" customHeight="1">
+    <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="17"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
     </row>
-    <row r="28" spans="1:5" ht="20" customHeight="1">
+    <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="17"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
     </row>
-    <row r="29" spans="1:5" ht="20" customHeight="1">
+    <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="17"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
     </row>
-    <row r="30" spans="1:5" ht="20" customHeight="1">
+    <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="17"/>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
     </row>
-    <row r="31" spans="1:5" ht="20" customHeight="1">
+    <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="17"/>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
     </row>
-    <row r="32" spans="1:5" ht="20" customHeight="1">
+    <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="17"/>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
     </row>
-    <row r="33" spans="1:5" ht="20" customHeight="1">
+    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="17"/>
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
     </row>
-    <row r="34" spans="1:5" ht="20" customHeight="1">
+    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="17"/>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
     </row>
-    <row r="35" spans="1:5" ht="20" customHeight="1">
+    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="17"/>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
     </row>
-    <row r="36" spans="1:5" ht="20" customHeight="1">
+    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="17"/>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
     </row>
-    <row r="37" spans="1:5" ht="20" customHeight="1">
+    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="17"/>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
       <c r="E37" s="22"/>
     </row>
-    <row r="38" spans="1:5" ht="20" customHeight="1">
+    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="17"/>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
     </row>
-    <row r="39" spans="1:5" ht="20" customHeight="1">
+    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="17"/>
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
       <c r="D39" s="22"/>
       <c r="E39" s="22"/>
     </row>
-    <row r="40" spans="1:5" ht="20" customHeight="1">
+    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="17"/>
       <c r="B40" s="22"/>
       <c r="C40" s="22"/>
       <c r="D40" s="22"/>
       <c r="E40" s="22"/>
     </row>
-    <row r="41" spans="1:5" ht="20" customHeight="1">
+    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="17"/>
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
       <c r="D41" s="22"/>
       <c r="E41" s="22"/>
     </row>
-    <row r="42" spans="1:5" ht="20" customHeight="1">
+    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="17"/>
       <c r="B42" s="22"/>
       <c r="C42" s="22"/>
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
     </row>
-    <row r="43" spans="1:5" ht="20" customHeight="1">
+    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="17"/>
       <c r="B43" s="22"/>
       <c r="C43" s="22"/>
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
     </row>
-    <row r="44" spans="1:5" ht="20" customHeight="1">
+    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="17"/>
       <c r="B44" s="22"/>
       <c r="C44" s="22"/>
       <c r="D44" s="22"/>
       <c r="E44" s="22"/>
     </row>
-    <row r="45" spans="1:5" ht="20" customHeight="1">
+    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="17"/>
       <c r="B45" s="22"/>
       <c r="C45" s="22"/>
       <c r="D45" s="22"/>
       <c r="E45" s="22"/>
     </row>
-    <row r="46" spans="1:5" ht="20" customHeight="1">
+    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="17"/>
       <c r="B46" s="22"/>
       <c r="C46" s="22"/>
       <c r="D46" s="22"/>
       <c r="E46" s="22"/>
     </row>
-    <row r="47" spans="1:5" ht="20" customHeight="1">
+    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="17"/>
       <c r="B47" s="22"/>
       <c r="C47" s="22"/>
       <c r="D47" s="22"/>
       <c r="E47" s="22"/>
     </row>
-    <row r="48" spans="1:5" ht="20" customHeight="1">
+    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="17"/>
       <c r="B48" s="22"/>
       <c r="C48" s="22"/>
       <c r="D48" s="22"/>
       <c r="E48" s="22"/>
     </row>
-    <row r="49" spans="1:5" ht="20" customHeight="1">
+    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="17"/>
       <c r="B49" s="22"/>
       <c r="C49" s="22"/>
       <c r="D49" s="22"/>
       <c r="E49" s="22"/>
     </row>
-    <row r="50" spans="1:5" ht="20" customHeight="1">
+    <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="17"/>
       <c r="B50" s="22"/>
       <c r="C50" s="22"/>
       <c r="D50" s="22"/>
       <c r="E50" s="22"/>
     </row>
-    <row r="51" spans="1:5" ht="20" customHeight="1">
+    <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="17"/>
       <c r="B51" s="22"/>
       <c r="C51" s="22"/>
       <c r="D51" s="22"/>
       <c r="E51" s="22"/>
     </row>
-    <row r="52" spans="1:5" ht="20" customHeight="1">
+    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="17"/>
       <c r="B52" s="22"/>
       <c r="C52" s="22"/>
@@ -2845,6 +2986,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="11"/>
+  <hyperlinks>
+    <hyperlink ref="D7" r:id="rId1"/>
+    <hyperlink ref="D8" r:id="rId2"/>
+    <hyperlink ref="D9" r:id="rId3"/>
+    <hyperlink ref="D10" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>

--- a/cmip6/citations/cmip6_miroc_citations.xlsx
+++ b/cmip6/citations/cmip6_miroc_citations.xlsx
@@ -16,12 +16,15 @@
     <sheet name="Example" sheetId="2" r:id="rId2"/>
     <sheet name="Citations" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Citations!$A$1:$E$52</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="83">
   <si>
     <t>ES-DOC CMIP6 Model Citations</t>
   </si>
@@ -192,15 +195,6 @@
   </si>
   <si>
     <t>10.5194/gmd-4-845-2011</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>"@article{
-  title = {MIROC-ESM 2010: model description and basic results of CMIP5-20c3m experiments},
-  journal = {Geosci. Model Dev.},
-  author = {Watanabe, S., Hajima, T., Sudo,K., Nagashima, T., Takemura, T., Okajima, H., Nozawa, T., Kawase, H., Abe, M., Yokohata, T., Ise, T., Sato, H., Kato, E., Takata, K., Emori, S., and Kawamiya, M.},
-  year = {2011},
-}"</t>
     <phoneticPr fontId="13"/>
   </si>
   <si>
@@ -254,12 +248,210 @@
     <t>https://agupubs.onlinelibrary.wiley.com/doi/full/10.1029/2001JD001113</t>
     <phoneticPr fontId="13"/>
   </si>
+  <si>
+    <t>Ngo_Duc_2007</t>
+  </si>
+  <si>
+    <t>10.5194/hessd-4-4389-2007</t>
+  </si>
+  <si>
+    <t>@Article{
+AUTHOR = {Ngo-Duc, T. and Oki, T. and Kanae, S.},
+TITLE = {A variable streamflow velocity method for global river routing model: model description and preliminary results},
+JOURNAL = {Hydrology and Earth System Sciences Discussions},
+VOLUME = {4},
+YEAR = {2007},
+PAGES = {4389--4414},
+}</t>
+  </si>
+  <si>
+    <t>https://www.hydrol-earth-syst-sci-discuss.net/hessd-2007-0182/</t>
+  </si>
+  <si>
+    <t>Nitta_2014</t>
+  </si>
+  <si>
+    <t>10.1175/JCLI-D-13-00310.1</t>
+  </si>
+  <si>
+    <t>@article{
+author = {Nitta, T. and Yoshimura, K. and Takata, K. and O’ishi, R. and Sueyoshi, T. and Kanae, S. and Oki, T. and Abe-Ouchi, A. and Liston, G. E.},
+title = {Representing Variability in Subgrid Snow Cover and Snow Depth in a Global Land Model: Offline Validation},
+journal = {Journal of Climate},
+volume = {27},
+number = {9},
+pages = {3318-3330},
+year = {2014},
+}</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1175/JCLI-D-13-00310.1</t>
+  </si>
+  <si>
+    <t>Nitta_2017</t>
+  </si>
+  <si>
+    <t>10.1175/JHM-D-16-0105.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@article{
+author = {Nitta, T. and Yoshimura, K. and Abe-Ouchi, A.},
+title = {Impact of Arctic Wetlands on the Climate System: Model Sensitivity Simulations with the MIROC5 AGCM and a Snow-Fed Wetland Scheme},
+journal = {Journal of Hydrometeorology},
+volume = {18},
+number = {11},
+pages = {2923-2936},
+year = {2017},
+}
+</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1175/JHM-D-16-0105.1</t>
+  </si>
+  <si>
+    <t>Oki_1998</t>
+  </si>
+  <si>
+    <t>10.1175/1087-3562(1998)002&lt;0001:DOTRIP&gt;2.3.CO;2</t>
+  </si>
+  <si>
+    <t>@article{
+author = {Oki, T. and Sud, Y. C.},
+title = {Design of Total Runoff Integrating Pathways (TRIP)—A Global River Channel Network},
+journal = {Earth Interactions},
+volume = {2},
+number = {1},
+pages = {1-37},
+year = {1998},
+}</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1175/1087-3562(1998)002&lt;0001:DOTRIP&gt;2.3.CO;2</t>
+  </si>
+  <si>
+    <t>Takata_2003</t>
+  </si>
+  <si>
+    <t>10.1016/S0921-8181(03)00030-4</t>
+  </si>
+  <si>
+    <t>@article{
+title = {Development of the minimal advanced treatments of surface interaction and runoff},
+journal = {Global and Planetary Change},
+volume = {38},
+number = {1},
+pages = {209 - 222},
+year = {2003},
+author = {Takata, K. and Emori, S. and Watanabe, T.},
+}</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/article/pii/S0921818103000304</t>
+  </si>
+  <si>
+    <t>Watanabe_1994</t>
+  </si>
+  <si>
+    <t>10.1007/BF00712521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Article{
+author="Watanabe, T.",
+title="Bulk parameterization for a vegetated surface and its application to a simulation of nocturnal drainage flow",
+journal="Boundary-Layer Meteorology",
+year="1994",
+volume="70",
+number="1",
+pages="13--35",
+}
+</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/BF00712521</t>
+  </si>
+  <si>
+    <t>Watanabe_1995</t>
+  </si>
+  <si>
+    <t>10.2480/agrmet.51.57</t>
+  </si>
+  <si>
+    <t>@article{
+  title={A Simple Model of Shortwave-Radiation Transport within Canopy},
+  author={Watanabe, T. and Ohtani, Y.},
+  journal={Journal of Agricultural Meteorology},
+  volume={51},
+  number={1},
+  pages={57-60},
+  year={1995},
+}</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.2480/agrmet.51.57</t>
+  </si>
+  <si>
+    <t>Yamazaki_2009</t>
+  </si>
+  <si>
+    <t>10.5194/hess-13-2241-2009</t>
+  </si>
+  <si>
+    <t>@Article{
+AUTHOR = {Yamazaki, D. and Oki, T. and Kanae, S.},
+TITLE = {Deriving a global river network map and its sub-grid topographic characteristics from a fine-resolution flow direction map},
+JOURNAL = {Hydrology and Earth System Sciences},
+VOLUME = {13},
+YEAR = {2009},
+NUMBER = {11},
+PAGES = {2241--2251},
+}</t>
+  </si>
+  <si>
+    <t>https://www.hydrol-earth-syst-sci.net/13/2241/2009/</t>
+  </si>
+  <si>
+    <t>Watanabe_2010</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>10.1175/2010JCLI3679.1</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t xml:space="preserve">@article{
+author = {Watanabe, Masahiro and Suzuki, Tatsuo and O’ishi, Ryouta and Komuro, Yoshiki and Watanabe, Shingo and Emori, Seita and Takemura, Toshihiko and Chikira, Minoru and Ogura, Tomoo and Sekiguchi, Miho and Takata, Kumiko and Yamazaki, Dai and Yokohata, Tokuta and Nozawa, Toru and Hasumi, Hiroyasu and Tatebe, Hiroaki and Kimoto, Masahide},
+title = {Improved Climate Simulation by MIROC5: Mean States, Variability, and Climate Sensitivity},
+journal = {Journal of Climate},
+year = {2010},
+volume = {23},
+number = {23},
+pages = {6312-6335},
+}
+</t>
+  </si>
+  <si>
+    <t>https://journals.ametsoc.org/doi/abs/10.1175/2010JCLI3679.1</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>@Article{
+AUTHOR = {Watanabe, S. and Hajima, T. and Sudo, K. and Nagashima, T. and Takemura, T. and Okajima, H. and Nozawa, T. and Kawase, H. and Abe, M. and Yokohata, T. and Ise, T. and Sato, H. and Kato, E. and Takata, K. and Emori, S. and Kawamiya, M.},
+TITLE = {MIROC-ESM 2010: model description and basic results of CMIP5-20c3m experiments},
+JOURNAL = {Geoscientific Model Development},
+VOLUME = {4},
+YEAR = {2011},
+NUMBER = {4},
+PAGES = {845--872},
+URL = {https://www.geosci-model-dev.net/4/845/2011/},
+DOI = {10.5194/gmd-4-845-2011}
+}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -350,6 +542,12 @@
     <font>
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Akanesyotai-boku-"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -495,7 +693,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -585,6 +783,18 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2524,8 +2734,8 @@
   </sheetPr>
   <dimension ref="A1:IP52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -2652,192 +2862,509 @@
       <c r="B8" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="30" t="s">
         <v>37</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>38</v>
       </c>
       <c r="E8" s="23"/>
     </row>
     <row r="9" spans="1:250" ht="300" customHeight="1">
       <c r="A9" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="C9" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="D9" s="30" t="s">
         <v>41</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>42</v>
       </c>
       <c r="E9" s="23"/>
     </row>
     <row r="10" spans="1:250" ht="165" customHeight="1">
       <c r="A10" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="C10" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="D10" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="E10" s="23"/>
+    </row>
+    <row r="11" spans="1:250" ht="132" customHeight="1">
+      <c r="A11" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="23"/>
-    </row>
-    <row r="11" spans="1:250" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-    </row>
-    <row r="12" spans="1:250" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-    </row>
-    <row r="13" spans="1:250" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-    </row>
-    <row r="14" spans="1:250" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-    </row>
-    <row r="15" spans="1:250" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-    </row>
-    <row r="16" spans="1:250" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-    </row>
-    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-    </row>
-    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-    </row>
-    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="20"/>
+    </row>
+    <row r="12" spans="1:250" ht="161.1" customHeight="1">
+      <c r="A12" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="23"/>
+    </row>
+    <row r="13" spans="1:250" ht="141.94999999999999" customHeight="1">
+      <c r="A13" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="23"/>
+    </row>
+    <row r="14" spans="1:250" ht="122.1" customHeight="1">
+      <c r="A14" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="23"/>
+    </row>
+    <row r="15" spans="1:250" ht="135.94999999999999" customHeight="1">
+      <c r="A15" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="23"/>
+    </row>
+    <row r="16" spans="1:250" ht="144.94999999999999" customHeight="1">
+      <c r="A16" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="23"/>
+    </row>
+    <row r="17" spans="1:250" ht="138.94999999999999" customHeight="1">
+      <c r="A17" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="23"/>
+    </row>
+    <row r="18" spans="1:250" ht="143.1" customHeight="1">
+      <c r="A18" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="23"/>
+    </row>
+    <row r="19" spans="1:250" ht="180">
+      <c r="A19" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="23"/>
+    </row>
+    <row r="20" spans="1:250" ht="20.100000000000001" customHeight="1">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+      <c r="X20"/>
+      <c r="Y20"/>
+      <c r="Z20"/>
+      <c r="AA20"/>
+      <c r="AB20"/>
+      <c r="AC20"/>
+      <c r="AD20"/>
+      <c r="AE20"/>
+      <c r="AF20"/>
+      <c r="AG20"/>
+      <c r="AH20"/>
+      <c r="AI20"/>
+      <c r="AJ20"/>
+      <c r="AK20"/>
+      <c r="AL20"/>
+      <c r="AM20"/>
+      <c r="AN20"/>
+      <c r="AO20"/>
+      <c r="AP20"/>
+      <c r="AQ20"/>
+      <c r="AR20"/>
+      <c r="AS20"/>
+      <c r="AT20"/>
+      <c r="AU20"/>
+      <c r="AV20"/>
+      <c r="AW20"/>
+      <c r="AX20"/>
+      <c r="AY20"/>
+      <c r="AZ20"/>
+      <c r="BA20"/>
+      <c r="BB20"/>
+      <c r="BC20"/>
+      <c r="BD20"/>
+      <c r="BE20"/>
+      <c r="BF20"/>
+      <c r="BG20"/>
+      <c r="BH20"/>
+      <c r="BI20"/>
+      <c r="BJ20"/>
+      <c r="BK20"/>
+      <c r="BL20"/>
+      <c r="BM20"/>
+      <c r="BN20"/>
+      <c r="BO20"/>
+      <c r="BP20"/>
+      <c r="BQ20"/>
+      <c r="BR20"/>
+      <c r="BS20"/>
+      <c r="BT20"/>
+      <c r="BU20"/>
+      <c r="BV20"/>
+      <c r="BW20"/>
+      <c r="BX20"/>
+      <c r="BY20"/>
+      <c r="BZ20"/>
+      <c r="CA20"/>
+      <c r="CB20"/>
+      <c r="CC20"/>
+      <c r="CD20"/>
+      <c r="CE20"/>
+      <c r="CF20"/>
+      <c r="CG20"/>
+      <c r="CH20"/>
+      <c r="CI20"/>
+      <c r="CJ20"/>
+      <c r="CK20"/>
+      <c r="CL20"/>
+      <c r="CM20"/>
+      <c r="CN20"/>
+      <c r="CO20"/>
+      <c r="CP20"/>
+      <c r="CQ20"/>
+      <c r="CR20"/>
+      <c r="CS20"/>
+      <c r="CT20"/>
+      <c r="CU20"/>
+      <c r="CV20"/>
+      <c r="CW20"/>
+      <c r="CX20"/>
+      <c r="CY20"/>
+      <c r="CZ20"/>
+      <c r="DA20"/>
+      <c r="DB20"/>
+      <c r="DC20"/>
+      <c r="DD20"/>
+      <c r="DE20"/>
+      <c r="DF20"/>
+      <c r="DG20"/>
+      <c r="DH20"/>
+      <c r="DI20"/>
+      <c r="DJ20"/>
+      <c r="DK20"/>
+      <c r="DL20"/>
+      <c r="DM20"/>
+      <c r="DN20"/>
+      <c r="DO20"/>
+      <c r="DP20"/>
+      <c r="DQ20"/>
+      <c r="DR20"/>
+      <c r="DS20"/>
+      <c r="DT20"/>
+      <c r="DU20"/>
+      <c r="DV20"/>
+      <c r="DW20"/>
+      <c r="DX20"/>
+      <c r="DY20"/>
+      <c r="DZ20"/>
+      <c r="EA20"/>
+      <c r="EB20"/>
+      <c r="EC20"/>
+      <c r="ED20"/>
+      <c r="EE20"/>
+      <c r="EF20"/>
+      <c r="EG20"/>
+      <c r="EH20"/>
+      <c r="EI20"/>
+      <c r="EJ20"/>
+      <c r="EK20"/>
+      <c r="EL20"/>
+      <c r="EM20"/>
+      <c r="EN20"/>
+      <c r="EO20"/>
+      <c r="EP20"/>
+      <c r="EQ20"/>
+      <c r="ER20"/>
+      <c r="ES20"/>
+      <c r="ET20"/>
+      <c r="EU20"/>
+      <c r="EV20"/>
+      <c r="EW20"/>
+      <c r="EX20"/>
+      <c r="EY20"/>
+      <c r="EZ20"/>
+      <c r="FA20"/>
+      <c r="FB20"/>
+      <c r="FC20"/>
+      <c r="FD20"/>
+      <c r="FE20"/>
+      <c r="FF20"/>
+      <c r="FG20"/>
+      <c r="FH20"/>
+      <c r="FI20"/>
+      <c r="FJ20"/>
+      <c r="FK20"/>
+      <c r="FL20"/>
+      <c r="FM20"/>
+      <c r="FN20"/>
+      <c r="FO20"/>
+      <c r="FP20"/>
+      <c r="FQ20"/>
+      <c r="FR20"/>
+      <c r="FS20"/>
+      <c r="FT20"/>
+      <c r="FU20"/>
+      <c r="FV20"/>
+      <c r="FW20"/>
+      <c r="FX20"/>
+      <c r="FY20"/>
+      <c r="FZ20"/>
+      <c r="GA20"/>
+      <c r="GB20"/>
+      <c r="GC20"/>
+      <c r="GD20"/>
+      <c r="GE20"/>
+      <c r="GF20"/>
+      <c r="GG20"/>
+      <c r="GH20"/>
+      <c r="GI20"/>
+      <c r="GJ20"/>
+      <c r="GK20"/>
+      <c r="GL20"/>
+      <c r="GM20"/>
+      <c r="GN20"/>
+      <c r="GO20"/>
+      <c r="GP20"/>
+      <c r="GQ20"/>
+      <c r="GR20"/>
+      <c r="GS20"/>
+      <c r="GT20"/>
+      <c r="GU20"/>
+      <c r="GV20"/>
+      <c r="GW20"/>
+      <c r="GX20"/>
+      <c r="GY20"/>
+      <c r="GZ20"/>
+      <c r="HA20"/>
+      <c r="HB20"/>
+      <c r="HC20"/>
+      <c r="HD20"/>
+      <c r="HE20"/>
+      <c r="HF20"/>
+      <c r="HG20"/>
+      <c r="HH20"/>
+      <c r="HI20"/>
+      <c r="HJ20"/>
+      <c r="HK20"/>
+      <c r="HL20"/>
+      <c r="HM20"/>
+      <c r="HN20"/>
+      <c r="HO20"/>
+      <c r="HP20"/>
+      <c r="HQ20"/>
+      <c r="HR20"/>
+      <c r="HS20"/>
+      <c r="HT20"/>
+      <c r="HU20"/>
+      <c r="HV20"/>
+      <c r="HW20"/>
+      <c r="HX20"/>
+      <c r="HY20"/>
+      <c r="HZ20"/>
+      <c r="IA20"/>
+      <c r="IB20"/>
+      <c r="IC20"/>
+      <c r="ID20"/>
+      <c r="IE20"/>
+      <c r="IF20"/>
+      <c r="IG20"/>
+      <c r="IH20"/>
+      <c r="II20"/>
+      <c r="IJ20"/>
+      <c r="IK20"/>
+      <c r="IL20"/>
+      <c r="IM20"/>
+      <c r="IN20"/>
+      <c r="IO20"/>
+      <c r="IP20"/>
+    </row>
+    <row r="21" spans="1:250" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
     </row>
-    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:250" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="17"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
     </row>
-    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:250" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="17"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
     </row>
-    <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:250" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="17"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:250" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="17"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:250" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="17"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
     </row>
-    <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:250" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="17"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
     </row>
-    <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:250" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="17"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
     </row>
-    <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:250" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="17"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
     </row>
-    <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:250" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="17"/>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
     </row>
-    <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:250" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="17"/>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
     </row>
-    <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:250" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="17"/>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
@@ -2985,12 +3512,22 @@
       <c r="E52" s="22"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E52"/>
   <phoneticPr fontId="11"/>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1"/>
     <hyperlink ref="D8" r:id="rId2"/>
     <hyperlink ref="D9" r:id="rId3"/>
     <hyperlink ref="D10" r:id="rId4"/>
+    <hyperlink ref="D11" r:id="rId5"/>
+    <hyperlink ref="D12" r:id="rId6"/>
+    <hyperlink ref="D13" r:id="rId7"/>
+    <hyperlink ref="D14" r:id="rId8"/>
+    <hyperlink ref="D15" r:id="rId9"/>
+    <hyperlink ref="D17" r:id="rId10"/>
+    <hyperlink ref="D16" r:id="rId11"/>
+    <hyperlink ref="D18" r:id="rId12"/>
+    <hyperlink ref="D19" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup orientation="portrait"/>

--- a/cmip6/citations/cmip6_miroc_citations.xlsx
+++ b/cmip6/citations/cmip6_miroc_citations.xlsx
@@ -19,12 +19,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Citations!$A$1:$E$52</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="91">
   <si>
     <t>ES-DOC CMIP6 Model Citations</t>
   </si>
@@ -446,12 +446,36 @@
 DOI = {10.5194/gmd-4-845-2011}
 }</t>
   </si>
+  <si>
+    <t>Hajima_in.prep</t>
+  </si>
+  <si>
+    <t>Not yet available</t>
+  </si>
+  <si>
+    <t>Ito_2016</t>
+  </si>
+  <si>
+    <t>10.1016/j.polar.2015.11.002</t>
+  </si>
+  <si>
+    <t>Iti_Oikawa_2002</t>
+  </si>
+  <si>
+    <t>10.1016/S0304-3800(01)00473-2</t>
+  </si>
+  <si>
+    <t>Ito_Inatomi_2012, Ito_2016, Ito_Oikawa_2002</t>
+  </si>
+  <si>
+    <t>10.5194/bg-9-759-2012</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -551,8 +575,34 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -569,6 +619,12 @@
       <patternFill patternType="solid">
         <fgColor indexed="12"/>
         <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -685,15 +741,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -797,10 +859,27 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+    <cellStyle name="ハイパーリンク 2" xfId="3"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -2734,8 +2813,8 @@
   </sheetPr>
   <dimension ref="A1:IP52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -3036,9 +3115,15 @@
       <c r="E19" s="23"/>
     </row>
     <row r="20" spans="1:250" ht="20.100000000000001" customHeight="1">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20"/>
+      <c r="A20" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>84</v>
+      </c>
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20"/>
@@ -3288,23 +3373,35 @@
       <c r="IP20"/>
     </row>
     <row r="21" spans="1:250" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
+      <c r="A21" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="39"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
     </row>
     <row r="22" spans="1:250" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="17"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
+      <c r="A22" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="39"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
     </row>
     <row r="23" spans="1:250" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="17"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
+      <c r="A23" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="39"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
     </row>

--- a/cmip6/citations/cmip6_miroc_citations.xlsx
+++ b/cmip6/citations/cmip6_miroc_citations.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Takahiro\Google ドライブ\ES-DOC\collected\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkhr_i\OneDrive\仕事\ES-DOC\github\cmip6\citations\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_AFA243876C9FB2F842DF8CEB25D441FEE69D2868" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7D4DAA9E-BA87-4CA0-A2A2-FD62EA4E7832}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21705" windowHeight="12975" activeTab="2"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="145">
   <si>
     <t>ES-DOC CMIP6 Model Citations</t>
   </si>
@@ -470,12 +471,349 @@
   <si>
     <t>10.5194/bg-9-759-2012</t>
   </si>
+  <si>
+    <t>Tatebe_2019</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>10.5194/gmd-12-2727-2019</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"@article{
+author = {Tatebe, Hiroaki and Ogura, Tomoo and Nitta, Tomoko and Komuro, Yoshiki and Ogochi, Koji and Takemura, Toshihiko and Sudo, Kengo and Sekiguchi, Miho and Abe, Manabu and Saito, Fuyuki and Chikira, Minoru and Watanabe, Shingo and Mori, Masato and Hirota, Nagio and Kawatani, Yoshio and Mochizuki, Takashi and Yoshimura, Kei and Takata, Kumiko and O'ishi, Ryouta and Yamazaki, Dai and Suzuki, Tatsuo and Kurogi, Masao and Kataoka, Takahito and Watanabe, Masahiro and Kimoto, Masahide},
+title = {Description and basic evaluation of simulated mean state, internal variability, and climate sensitivity in MIROC6},
+journal = {Geoscientific Model Development},
+year = {2019},
+volume = {12},
+pages = {2727-2765},
+}"
+</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>https://www.geosci-model-dev.net/12/2727/2019/gmd-12-2727-2019.html</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>K-1_2004</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"@article{
+author = {K-1 model developers},
+editor = {Hiroyasu, Hasumi and Seita, Emori},
+title = {K-1 Coupled GCM (MIROC) Description},
+journal = {K-1 Technical Report},
+year = {2004},
+volume = {1},
+pages = {1-34},
+}"
+</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>https://ccsr.aori.u-tokyo.ac.jp/~hasumi/miroc_description.pdf</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Chikira_2010</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>10.1175/2010JAS3316.1</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"@article{
+author = {Chikira, Minoru and Sugiyama, Masahiro},
+title = {A cumulus parameterization with state-dependent entrainment rate. Part I: Description and sensitivity to temperature and humidity profiles},
+journal = {Journal of the atmospheric sciences},
+year = {2010},
+volume = {67},
+pages = {2171-2193},
+}"
+</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>https://journals.ametsoc.org/doi/full/10.1175/2010JAS3316.1</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Nakanishi_2001</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>10.1023/A:1018915827400</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"@article{
+author = {Nakanishi, Mikio},
+title = {Improvement of the Mellor-Yamada turbulence closure model based on Large-Eddy Simulation data},
+journal = {Boundary-Layer Meteorology},
+year = {2001},
+volume = {99},
+pages = {349-378},
+}"
+</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1023/A%3A1018915827400</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Nakanishi_2004</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>10.1023/B:BOUN.0000020164.04146.98</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"@article{
+author = {Nakanishi, Mikio and Niino, Hiroshi},
+title = {An improved Mellor-Yamada Level-3 model with condensation physics: its design and verification},
+journal = {Boundary-Layer Meteorology},
+year = {2004},
+volume = {112},
+pages = {1-31},
+}"
+</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1023/B%3ABOUN.0000020164.04146.98</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Park_2009</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>10.1175/2008JCLI2557.1</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"@article{
+author = {Park, Sungsu and Bretherton, Christopher  S.},
+title = {The University of Washington shallow convection and moist turbulence schemes and their impact on climate simulations with the Community Atmosphere Model},
+journal = {Journal of Climate},
+year = {2009},
+volume = {22},
+pages = {3449-3469},
+}"
+</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>https://journals.ametsoc.org/doi/full/10.1175/2008JCLI2557.1</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Wilson_1999</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"@article{
+author = {Wilson, Damian R. and Ballard, Susan P.},
+title = {A microphysically based precipitation scheme for the UK Meteorological Office Unified Model},
+journal = {Quarterly Journal of the Royal Meteorological Society},
+year = {1999},
+volume = {125},
+pages = {1607-1636},
+}"
+</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Berry_1967</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"@article{
+author = {Berry, E. X.},
+title = {Cloud droplet growth by collection},
+journal = {Journal of the Atmospheric Sciences},
+year = {1967},
+volume = {24},
+pages = {688-701},
+}"
+</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>https://journals.ametsoc.org/doi/pdf/10.1175/1520-0469%281967%29024%3C0688%3ACDGBC%3E2.0.CO%3B2</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Watanabe_2009</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>10.1007/s00382-008-0489-0</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"@article{
+author = {Watanabe, Masahiro and Emori, S. and Satoh, M. and Miura, H.},
+title = {A PDF-based hybrid prognostic cloud scheme for general circulation models},
+journal = {Climate Dynamics},
+year = {2009},
+volume = {33},
+pages = {795-816},
+}"
+</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s00382-008-0489-0</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Bodas-Salcedo_2011</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>10.1175/2011BAMS2856.1</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"@article{
+author = {Bodas-Salcedo, A. and Webb, M. J. and Bony, S. and Chepfer, H. and Dufresne, J.-L. and Klein, S. A. and Zhang, Y. and Marchand, R. and Haynes, J. M. and Pincus, R. and John, V. O.},
+title = {COSP Satellite simulation software for model assessment},
+journal = {Bulletin of the American Meteorological Society},
+year = {2011},
+volume = {92},
+pages = {1023-1043},
+}"
+</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>https://journals.ametsoc.org/doi/pdf/10.1175/2011BAMS2856.1</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>McFarlane_1987</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"@article{
+author = {McFarlane, N. A.},
+title = {The effect of orographically excited gravity wave drag on the general circulation of the lower stratosphere and troposphere},     
+journal = {Journal of the Atmospheric Sciences},
+year = {1987},
+volume = {44},
+pages = {1775-1800},
+}"
+</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>https://journals.ametsoc.org/doi/pdf/10.1175/1520-0469%281987%29044%3C1775%3ATEOOEG%3E2.0.CO%3B2</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Watanabe_2011</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"@article{
+author = {Watanabe, S. and Hajima, T. and Sudo, K. and Nagashima, T. and Takemura, T. and Okajima, H. and Nozawa, T. and Kawase, H. and Abe, M. and Yokohata, T. and Ise, T. and Sato, H. and Kato, E. and Takata, K. and Emori, S. and Kawamiya, M.},
+title = {MIROC-ESM 2010: model description and basic results of CMIP5-20c3m experiments},
+journal = {Geoscientific Model Development},
+year = {2011},
+volume = {4},
+pages = {845-872},
+}"
+</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>https://www.geosci-model-dev.net/4/845/2011/gmd-4-845-2011.html</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Watanabe_2008</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>10.2151/sola.2008-016</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"@article{
+author = {Watanabe, Shingo},
+title = {Constraints on a non-orographic gravity wave drag parameterization using a gravity wave resolving general circulation model},     
+journal = {Scientific Online Letters on the Atmosphere},
+year = {2008},
+volume = {4},
+pages = {61-64},
+}"
+</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>https://www.jstage.jst.go.jp/article/sola/4/0/4_0_61/_pdf/-char/en</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Hines_1997a</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>10.1016/S1364-6826(96)00079-X</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"@article{
+author = {Hines, Colin O.},
+title = {Doppler-spread parameterization of gravity-wave momentum deposition in the middle atmosphere. Part 1: Basic formulation},     
+journal = {Journal of Atmospheric and Solar-Terrestrial Physics},
+year = {1997},
+volume = {59},
+pages = {371-386},
+}"
+</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S136468269600079X</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Hines_1997b</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>10.1016/S1364-6826(96)00080-6</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"@article{
+author = {Hines, Colin O.},
+title = {Doppler-spread parameterization of gravity-wave momentum deposition in the middle atmosphere. Part 2: Broad and quasi monochromatic spectra, and implementation},     
+journal = {Journal of Atmospheric and Solar-Terrestrial Physics},
+year = {1997},
+volume = {59},
+pages = {387-400},
+}"
+</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S1364682696000806</t>
+    <phoneticPr fontId="11"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -598,6 +936,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Cambria"/>
       <family val="1"/>
     </font>
@@ -755,7 +1099,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -874,12 +1218,27 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
-    <cellStyle name="ハイパーリンク 2" xfId="3"/>
+    <cellStyle name="ハイパーリンク 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="2"/>
+    <cellStyle name="標準 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -2033,20 +2392,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="180.7109375" style="1" customWidth="1"/>
-    <col min="3" max="5" width="9.140625" style="1" customWidth="1"/>
-    <col min="6" max="256" width="8.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="35.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="180.69921875" style="1" customWidth="1"/>
+    <col min="3" max="5" width="9.09765625" style="1" customWidth="1"/>
+    <col min="6" max="256" width="8.8984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="34.35" customHeight="1">
+    <row r="1" spans="1:5" ht="34.4" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2091,14 +2450,14 @@
       <c r="D5" s="6"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" ht="408.95" customHeight="1">
+    <row r="6" spans="1:5" ht="409" customHeight="1">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5" ht="408.95" customHeight="1">
+    <row r="7" spans="1:5" ht="409" customHeight="1">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -2108,7 +2467,7 @@
   </sheetData>
   <phoneticPr fontId="11"/>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -2119,7 +2478,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2129,17 +2488,17 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.296875" defaultRowHeight="20.149999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="34.85546875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="81.85546875" style="18" customWidth="1"/>
-    <col min="4" max="4" width="42.85546875" style="18" customWidth="1"/>
-    <col min="5" max="5" width="46.85546875" style="18" customWidth="1"/>
-    <col min="6" max="250" width="16.28515625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="26.8984375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="34.8984375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="81.8984375" style="18" customWidth="1"/>
+    <col min="4" max="4" width="42.8984375" style="18" customWidth="1"/>
+    <col min="5" max="5" width="46.8984375" style="18" customWidth="1"/>
+    <col min="6" max="250" width="16.296875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:250" ht="30.95" customHeight="1">
+    <row r="1" spans="1:250" ht="31" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
@@ -2148,7 +2507,7 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:250" ht="20.85" customHeight="1">
+    <row r="2" spans="1:250" ht="20.9" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>6</v>
       </c>
@@ -2425,371 +2784,371 @@
       <c r="IO3" s="26"/>
       <c r="IP3" s="26"/>
     </row>
-    <row r="4" spans="1:250" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:250" ht="20.149999999999999" customHeight="1">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
     </row>
-    <row r="5" spans="1:250" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:250" ht="20.149999999999999" customHeight="1">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
     </row>
-    <row r="6" spans="1:250" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:250" ht="20.149999999999999" customHeight="1">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
     </row>
-    <row r="7" spans="1:250" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:250" ht="20.149999999999999" customHeight="1">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
     </row>
-    <row r="8" spans="1:250" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:250" ht="20.149999999999999" customHeight="1">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
     </row>
-    <row r="9" spans="1:250" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:250" ht="20.149999999999999" customHeight="1">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
     </row>
-    <row r="10" spans="1:250" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:250" ht="20.149999999999999" customHeight="1">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
     </row>
-    <row r="11" spans="1:250" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:250" ht="20.149999999999999" customHeight="1">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
     </row>
-    <row r="12" spans="1:250" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:250" ht="20.149999999999999" customHeight="1">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
       <c r="E12" s="23"/>
     </row>
-    <row r="13" spans="1:250" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:250" ht="20.149999999999999" customHeight="1">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
     </row>
-    <row r="14" spans="1:250" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:250" ht="20.149999999999999" customHeight="1">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
     </row>
-    <row r="15" spans="1:250" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:250" ht="20.149999999999999" customHeight="1">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
     </row>
-    <row r="16" spans="1:250" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:250" ht="20.149999999999999" customHeight="1">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
     </row>
-    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
     </row>
-    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
       <c r="E18" s="23"/>
     </row>
-    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
     </row>
-    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
     </row>
-    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
     </row>
-    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
     </row>
-    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A23" s="17"/>
       <c r="B23" s="14"/>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
     </row>
-    <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A24" s="17"/>
       <c r="B24" s="14"/>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
     </row>
-    <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A25" s="17"/>
       <c r="B25" s="14"/>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
     </row>
-    <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A26" s="17"/>
       <c r="B26" s="14"/>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
     </row>
-    <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A27" s="17"/>
       <c r="B27" s="14"/>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
     </row>
-    <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A28" s="17"/>
       <c r="B28" s="14"/>
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
     </row>
-    <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A29" s="17"/>
       <c r="B29" s="14"/>
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
     </row>
-    <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A30" s="17"/>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
     </row>
-    <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A31" s="17"/>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
     </row>
-    <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A32" s="17"/>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
     </row>
-    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A33" s="17"/>
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
     </row>
-    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A34" s="17"/>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
     </row>
-    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="35" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A35" s="17"/>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
     </row>
-    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A36" s="17"/>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
     </row>
-    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A37" s="17"/>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
       <c r="E37" s="22"/>
     </row>
-    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A38" s="17"/>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
     </row>
-    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A39" s="17"/>
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
       <c r="D39" s="22"/>
       <c r="E39" s="22"/>
     </row>
-    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A40" s="17"/>
       <c r="B40" s="22"/>
       <c r="C40" s="22"/>
       <c r="D40" s="22"/>
       <c r="E40" s="22"/>
     </row>
-    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A41" s="17"/>
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
       <c r="D41" s="22"/>
       <c r="E41" s="22"/>
     </row>
-    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="42" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A42" s="17"/>
       <c r="B42" s="22"/>
       <c r="C42" s="22"/>
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
     </row>
-    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="43" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A43" s="17"/>
       <c r="B43" s="22"/>
       <c r="C43" s="22"/>
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
     </row>
-    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="44" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A44" s="17"/>
       <c r="B44" s="22"/>
       <c r="C44" s="22"/>
       <c r="D44" s="22"/>
       <c r="E44" s="22"/>
     </row>
-    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="45" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A45" s="17"/>
       <c r="B45" s="22"/>
       <c r="C45" s="22"/>
       <c r="D45" s="22"/>
       <c r="E45" s="22"/>
     </row>
-    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="46" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A46" s="17"/>
       <c r="B46" s="22"/>
       <c r="C46" s="22"/>
       <c r="D46" s="22"/>
       <c r="E46" s="22"/>
     </row>
-    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="47" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A47" s="17"/>
       <c r="B47" s="22"/>
       <c r="C47" s="22"/>
       <c r="D47" s="22"/>
       <c r="E47" s="22"/>
     </row>
-    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="48" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A48" s="17"/>
       <c r="B48" s="22"/>
       <c r="C48" s="22"/>
       <c r="D48" s="22"/>
       <c r="E48" s="22"/>
     </row>
-    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="49" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A49" s="17"/>
       <c r="B49" s="22"/>
       <c r="C49" s="22"/>
       <c r="D49" s="22"/>
       <c r="E49" s="22"/>
     </row>
-    <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="50" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A50" s="17"/>
       <c r="B50" s="22"/>
       <c r="C50" s="22"/>
       <c r="D50" s="22"/>
       <c r="E50" s="22"/>
     </row>
-    <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="51" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A51" s="17"/>
       <c r="B51" s="22"/>
       <c r="C51" s="22"/>
       <c r="D51" s="22"/>
       <c r="E51" s="22"/>
     </row>
-    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="52" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A52" s="17"/>
       <c r="B52" s="22"/>
       <c r="C52" s="22"/>
       <c r="D52" s="22"/>
       <c r="E52" s="22"/>
     </row>
-    <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="53" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A53" s="17"/>
       <c r="B53" s="22"/>
       <c r="C53" s="22"/>
       <c r="D53" s="22"/>
       <c r="E53" s="22"/>
     </row>
-    <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="54" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A54" s="17"/>
       <c r="B54" s="22"/>
       <c r="C54" s="22"/>
       <c r="D54" s="22"/>
       <c r="E54" s="22"/>
     </row>
-    <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="55" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A55" s="17"/>
       <c r="B55" s="22"/>
       <c r="C55" s="22"/>
       <c r="D55" s="22"/>
       <c r="E55" s="22"/>
     </row>
-    <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="56" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A56" s="17"/>
       <c r="B56" s="22"/>
       <c r="C56" s="22"/>
@@ -2807,27 +3166,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IP52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.296875" defaultRowHeight="20.149999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" style="18" customWidth="1"/>
-    <col min="2" max="2" width="34.85546875" style="18" customWidth="1"/>
-    <col min="3" max="3" width="81.85546875" style="18" customWidth="1"/>
-    <col min="4" max="4" width="42.85546875" style="18" customWidth="1"/>
-    <col min="5" max="5" width="46.85546875" style="18" customWidth="1"/>
-    <col min="6" max="250" width="16.28515625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="26.8984375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="34.8984375" style="18" customWidth="1"/>
+    <col min="3" max="3" width="81.8984375" style="18" customWidth="1"/>
+    <col min="4" max="4" width="42.8984375" style="18" customWidth="1"/>
+    <col min="5" max="5" width="46.8984375" style="18" customWidth="1"/>
+    <col min="6" max="250" width="16.296875" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:250" ht="30.95" customHeight="1">
+    <row r="1" spans="1:250" ht="31" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
@@ -2836,7 +3195,7 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:250" ht="20.85" customHeight="1">
+    <row r="2" spans="1:250" ht="20.9" customHeight="1">
       <c r="A2" s="21" t="s">
         <v>6</v>
       </c>
@@ -2859,7 +3218,7 @@
       <c r="IO2"/>
       <c r="IP2"/>
     </row>
-    <row r="3" spans="1:250" ht="128.25">
+    <row r="3" spans="1:250" ht="126">
       <c r="A3" s="19" t="s">
         <v>14</v>
       </c>
@@ -2874,7 +3233,7 @@
       </c>
       <c r="E3" s="20"/>
     </row>
-    <row r="4" spans="1:250" ht="114">
+    <row r="4" spans="1:250" ht="112">
       <c r="A4" s="15" t="s">
         <v>22</v>
       </c>
@@ -2889,7 +3248,7 @@
       </c>
       <c r="E4" s="16"/>
     </row>
-    <row r="5" spans="1:250" ht="114">
+    <row r="5" spans="1:250" ht="112">
       <c r="A5" s="15" t="s">
         <v>23</v>
       </c>
@@ -2904,7 +3263,7 @@
       </c>
       <c r="E5" s="16"/>
     </row>
-    <row r="6" spans="1:250" ht="114">
+    <row r="6" spans="1:250" ht="126">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
@@ -2994,7 +3353,7 @@
       </c>
       <c r="E11" s="20"/>
     </row>
-    <row r="12" spans="1:250" ht="161.1" customHeight="1">
+    <row r="12" spans="1:250" ht="161.15" customHeight="1">
       <c r="A12" s="15" t="s">
         <v>50</v>
       </c>
@@ -3009,7 +3368,7 @@
       </c>
       <c r="E12" s="23"/>
     </row>
-    <row r="13" spans="1:250" ht="141.94999999999999" customHeight="1">
+    <row r="13" spans="1:250" ht="142" customHeight="1">
       <c r="A13" s="15" t="s">
         <v>54</v>
       </c>
@@ -3024,7 +3383,7 @@
       </c>
       <c r="E13" s="23"/>
     </row>
-    <row r="14" spans="1:250" ht="122.1" customHeight="1">
+    <row r="14" spans="1:250" ht="122.15" customHeight="1">
       <c r="A14" s="15" t="s">
         <v>58</v>
       </c>
@@ -3039,7 +3398,7 @@
       </c>
       <c r="E14" s="23"/>
     </row>
-    <row r="15" spans="1:250" ht="135.94999999999999" customHeight="1">
+    <row r="15" spans="1:250" ht="136" customHeight="1">
       <c r="A15" s="15" t="s">
         <v>62</v>
       </c>
@@ -3054,7 +3413,7 @@
       </c>
       <c r="E15" s="23"/>
     </row>
-    <row r="16" spans="1:250" ht="144.94999999999999" customHeight="1">
+    <row r="16" spans="1:250" ht="145" customHeight="1">
       <c r="A16" s="15" t="s">
         <v>66</v>
       </c>
@@ -3069,7 +3428,7 @@
       </c>
       <c r="E16" s="23"/>
     </row>
-    <row r="17" spans="1:250" ht="138.94999999999999" customHeight="1">
+    <row r="17" spans="1:250" ht="139" customHeight="1">
       <c r="A17" s="15" t="s">
         <v>70</v>
       </c>
@@ -3084,7 +3443,7 @@
       </c>
       <c r="E17" s="23"/>
     </row>
-    <row r="18" spans="1:250" ht="143.1" customHeight="1">
+    <row r="18" spans="1:250" ht="143.15" customHeight="1">
       <c r="A18" s="15" t="s">
         <v>74</v>
       </c>
@@ -3114,7 +3473,7 @@
       </c>
       <c r="E19" s="23"/>
     </row>
-    <row r="20" spans="1:250" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:250" ht="20.149999999999999" customHeight="1">
       <c r="A20" s="35" t="s">
         <v>83</v>
       </c>
@@ -3372,7 +3731,7 @@
       <c r="IO20"/>
       <c r="IP20"/>
     </row>
-    <row r="21" spans="1:250" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:250" ht="20.149999999999999" customHeight="1">
       <c r="A21" s="35" t="s">
         <v>85</v>
       </c>
@@ -3383,7 +3742,7 @@
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
     </row>
-    <row r="22" spans="1:250" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:250" ht="20.149999999999999" customHeight="1">
       <c r="A22" s="35" t="s">
         <v>87</v>
       </c>
@@ -3394,7 +3753,7 @@
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
     </row>
-    <row r="23" spans="1:250" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:250" ht="20.149999999999999" customHeight="1">
       <c r="A23" s="35" t="s">
         <v>89</v>
       </c>
@@ -3405,203 +3764,3988 @@
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
     </row>
-    <row r="24" spans="1:250" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="17"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-    </row>
-    <row r="25" spans="1:250" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="17"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-    </row>
-    <row r="26" spans="1:250" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="17"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-    </row>
-    <row r="27" spans="1:250" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="17"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-    </row>
-    <row r="28" spans="1:250" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="17"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-    </row>
-    <row r="29" spans="1:250" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="17"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-    </row>
-    <row r="30" spans="1:250" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="17"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-    </row>
-    <row r="31" spans="1:250" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="17"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-    </row>
-    <row r="32" spans="1:250" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="17"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-    </row>
-    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="17"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-    </row>
-    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="17"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-    </row>
-    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="17"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-    </row>
-    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="17"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-    </row>
-    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="17"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-    </row>
-    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="17"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-    </row>
-    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:250" s="44" customFormat="1" ht="183.5" customHeight="1">
+      <c r="A24" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="42"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="43"/>
+      <c r="S24" s="43"/>
+      <c r="T24" s="43"/>
+      <c r="U24" s="43"/>
+      <c r="V24" s="43"/>
+      <c r="W24" s="43"/>
+      <c r="X24" s="43"/>
+      <c r="Y24" s="43"/>
+      <c r="Z24" s="43"/>
+      <c r="AA24" s="43"/>
+      <c r="AB24" s="43"/>
+      <c r="AC24" s="43"/>
+      <c r="AD24" s="43"/>
+      <c r="AE24" s="43"/>
+      <c r="AF24" s="43"/>
+      <c r="AG24" s="43"/>
+      <c r="AH24" s="43"/>
+      <c r="AI24" s="43"/>
+      <c r="AJ24" s="43"/>
+      <c r="AK24" s="43"/>
+      <c r="AL24" s="43"/>
+      <c r="AM24" s="43"/>
+      <c r="AN24" s="43"/>
+      <c r="AO24" s="43"/>
+      <c r="AP24" s="43"/>
+      <c r="AQ24" s="43"/>
+      <c r="AR24" s="43"/>
+      <c r="AS24" s="43"/>
+      <c r="AT24" s="43"/>
+      <c r="AU24" s="43"/>
+      <c r="AV24" s="43"/>
+      <c r="AW24" s="43"/>
+      <c r="AX24" s="43"/>
+      <c r="AY24" s="43"/>
+      <c r="AZ24" s="43"/>
+      <c r="BA24" s="43"/>
+      <c r="BB24" s="43"/>
+      <c r="BC24" s="43"/>
+      <c r="BD24" s="43"/>
+      <c r="BE24" s="43"/>
+      <c r="BF24" s="43"/>
+      <c r="BG24" s="43"/>
+      <c r="BH24" s="43"/>
+      <c r="BI24" s="43"/>
+      <c r="BJ24" s="43"/>
+      <c r="BK24" s="43"/>
+      <c r="BL24" s="43"/>
+      <c r="BM24" s="43"/>
+      <c r="BN24" s="43"/>
+      <c r="BO24" s="43"/>
+      <c r="BP24" s="43"/>
+      <c r="BQ24" s="43"/>
+      <c r="BR24" s="43"/>
+      <c r="BS24" s="43"/>
+      <c r="BT24" s="43"/>
+      <c r="BU24" s="43"/>
+      <c r="BV24" s="43"/>
+      <c r="BW24" s="43"/>
+      <c r="BX24" s="43"/>
+      <c r="BY24" s="43"/>
+      <c r="BZ24" s="43"/>
+      <c r="CA24" s="43"/>
+      <c r="CB24" s="43"/>
+      <c r="CC24" s="43"/>
+      <c r="CD24" s="43"/>
+      <c r="CE24" s="43"/>
+      <c r="CF24" s="43"/>
+      <c r="CG24" s="43"/>
+      <c r="CH24" s="43"/>
+      <c r="CI24" s="43"/>
+      <c r="CJ24" s="43"/>
+      <c r="CK24" s="43"/>
+      <c r="CL24" s="43"/>
+      <c r="CM24" s="43"/>
+      <c r="CN24" s="43"/>
+      <c r="CO24" s="43"/>
+      <c r="CP24" s="43"/>
+      <c r="CQ24" s="43"/>
+      <c r="CR24" s="43"/>
+      <c r="CS24" s="43"/>
+      <c r="CT24" s="43"/>
+      <c r="CU24" s="43"/>
+      <c r="CV24" s="43"/>
+      <c r="CW24" s="43"/>
+      <c r="CX24" s="43"/>
+      <c r="CY24" s="43"/>
+      <c r="CZ24" s="43"/>
+      <c r="DA24" s="43"/>
+      <c r="DB24" s="43"/>
+      <c r="DC24" s="43"/>
+      <c r="DD24" s="43"/>
+      <c r="DE24" s="43"/>
+      <c r="DF24" s="43"/>
+      <c r="DG24" s="43"/>
+      <c r="DH24" s="43"/>
+      <c r="DI24" s="43"/>
+      <c r="DJ24" s="43"/>
+      <c r="DK24" s="43"/>
+      <c r="DL24" s="43"/>
+      <c r="DM24" s="43"/>
+      <c r="DN24" s="43"/>
+      <c r="DO24" s="43"/>
+      <c r="DP24" s="43"/>
+      <c r="DQ24" s="43"/>
+      <c r="DR24" s="43"/>
+      <c r="DS24" s="43"/>
+      <c r="DT24" s="43"/>
+      <c r="DU24" s="43"/>
+      <c r="DV24" s="43"/>
+      <c r="DW24" s="43"/>
+      <c r="DX24" s="43"/>
+      <c r="DY24" s="43"/>
+      <c r="DZ24" s="43"/>
+      <c r="EA24" s="43"/>
+      <c r="EB24" s="43"/>
+      <c r="EC24" s="43"/>
+      <c r="ED24" s="43"/>
+      <c r="EE24" s="43"/>
+      <c r="EF24" s="43"/>
+      <c r="EG24" s="43"/>
+      <c r="EH24" s="43"/>
+      <c r="EI24" s="43"/>
+      <c r="EJ24" s="43"/>
+      <c r="EK24" s="43"/>
+      <c r="EL24" s="43"/>
+      <c r="EM24" s="43"/>
+      <c r="EN24" s="43"/>
+      <c r="EO24" s="43"/>
+      <c r="EP24" s="43"/>
+      <c r="EQ24" s="43"/>
+      <c r="ER24" s="43"/>
+      <c r="ES24" s="43"/>
+      <c r="ET24" s="43"/>
+      <c r="EU24" s="43"/>
+      <c r="EV24" s="43"/>
+      <c r="EW24" s="43"/>
+      <c r="EX24" s="43"/>
+      <c r="EY24" s="43"/>
+      <c r="EZ24" s="43"/>
+      <c r="FA24" s="43"/>
+      <c r="FB24" s="43"/>
+      <c r="FC24" s="43"/>
+      <c r="FD24" s="43"/>
+      <c r="FE24" s="43"/>
+      <c r="FF24" s="43"/>
+      <c r="FG24" s="43"/>
+      <c r="FH24" s="43"/>
+      <c r="FI24" s="43"/>
+      <c r="FJ24" s="43"/>
+      <c r="FK24" s="43"/>
+      <c r="FL24" s="43"/>
+      <c r="FM24" s="43"/>
+      <c r="FN24" s="43"/>
+      <c r="FO24" s="43"/>
+      <c r="FP24" s="43"/>
+      <c r="FQ24" s="43"/>
+      <c r="FR24" s="43"/>
+      <c r="FS24" s="43"/>
+      <c r="FT24" s="43"/>
+      <c r="FU24" s="43"/>
+      <c r="FV24" s="43"/>
+      <c r="FW24" s="43"/>
+      <c r="FX24" s="43"/>
+      <c r="FY24" s="43"/>
+      <c r="FZ24" s="43"/>
+      <c r="GA24" s="43"/>
+      <c r="GB24" s="43"/>
+      <c r="GC24" s="43"/>
+      <c r="GD24" s="43"/>
+      <c r="GE24" s="43"/>
+      <c r="GF24" s="43"/>
+      <c r="GG24" s="43"/>
+      <c r="GH24" s="43"/>
+      <c r="GI24" s="43"/>
+      <c r="GJ24" s="43"/>
+      <c r="GK24" s="43"/>
+      <c r="GL24" s="43"/>
+      <c r="GM24" s="43"/>
+      <c r="GN24" s="43"/>
+      <c r="GO24" s="43"/>
+      <c r="GP24" s="43"/>
+      <c r="GQ24" s="43"/>
+      <c r="GR24" s="43"/>
+      <c r="GS24" s="43"/>
+      <c r="GT24" s="43"/>
+      <c r="GU24" s="43"/>
+      <c r="GV24" s="43"/>
+      <c r="GW24" s="43"/>
+      <c r="GX24" s="43"/>
+      <c r="GY24" s="43"/>
+      <c r="GZ24" s="43"/>
+      <c r="HA24" s="43"/>
+      <c r="HB24" s="43"/>
+      <c r="HC24" s="43"/>
+      <c r="HD24" s="43"/>
+      <c r="HE24" s="43"/>
+      <c r="HF24" s="43"/>
+      <c r="HG24" s="43"/>
+      <c r="HH24" s="43"/>
+      <c r="HI24" s="43"/>
+      <c r="HJ24" s="43"/>
+      <c r="HK24" s="43"/>
+      <c r="HL24" s="43"/>
+      <c r="HM24" s="43"/>
+      <c r="HN24" s="43"/>
+      <c r="HO24" s="43"/>
+      <c r="HP24" s="43"/>
+      <c r="HQ24" s="43"/>
+      <c r="HR24" s="43"/>
+      <c r="HS24" s="43"/>
+      <c r="HT24" s="43"/>
+      <c r="HU24" s="43"/>
+      <c r="HV24" s="43"/>
+      <c r="HW24" s="43"/>
+      <c r="HX24" s="43"/>
+      <c r="HY24" s="43"/>
+      <c r="HZ24" s="43"/>
+      <c r="IA24" s="43"/>
+      <c r="IB24" s="43"/>
+      <c r="IC24" s="43"/>
+      <c r="ID24" s="43"/>
+      <c r="IE24" s="43"/>
+      <c r="IF24" s="43"/>
+      <c r="IG24" s="43"/>
+      <c r="IH24" s="43"/>
+      <c r="II24" s="43"/>
+      <c r="IJ24" s="43"/>
+      <c r="IK24" s="43"/>
+      <c r="IL24" s="43"/>
+      <c r="IM24" s="43"/>
+      <c r="IN24" s="43"/>
+      <c r="IO24" s="43"/>
+      <c r="IP24" s="43"/>
+    </row>
+    <row r="25" spans="1:250" s="44" customFormat="1" ht="121" customHeight="1">
+      <c r="A25" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="42"/>
+      <c r="C25" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="42"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="43"/>
+      <c r="T25" s="43"/>
+      <c r="U25" s="43"/>
+      <c r="V25" s="43"/>
+      <c r="W25" s="43"/>
+      <c r="X25" s="43"/>
+      <c r="Y25" s="43"/>
+      <c r="Z25" s="43"/>
+      <c r="AA25" s="43"/>
+      <c r="AB25" s="43"/>
+      <c r="AC25" s="43"/>
+      <c r="AD25" s="43"/>
+      <c r="AE25" s="43"/>
+      <c r="AF25" s="43"/>
+      <c r="AG25" s="43"/>
+      <c r="AH25" s="43"/>
+      <c r="AI25" s="43"/>
+      <c r="AJ25" s="43"/>
+      <c r="AK25" s="43"/>
+      <c r="AL25" s="43"/>
+      <c r="AM25" s="43"/>
+      <c r="AN25" s="43"/>
+      <c r="AO25" s="43"/>
+      <c r="AP25" s="43"/>
+      <c r="AQ25" s="43"/>
+      <c r="AR25" s="43"/>
+      <c r="AS25" s="43"/>
+      <c r="AT25" s="43"/>
+      <c r="AU25" s="43"/>
+      <c r="AV25" s="43"/>
+      <c r="AW25" s="43"/>
+      <c r="AX25" s="43"/>
+      <c r="AY25" s="43"/>
+      <c r="AZ25" s="43"/>
+      <c r="BA25" s="43"/>
+      <c r="BB25" s="43"/>
+      <c r="BC25" s="43"/>
+      <c r="BD25" s="43"/>
+      <c r="BE25" s="43"/>
+      <c r="BF25" s="43"/>
+      <c r="BG25" s="43"/>
+      <c r="BH25" s="43"/>
+      <c r="BI25" s="43"/>
+      <c r="BJ25" s="43"/>
+      <c r="BK25" s="43"/>
+      <c r="BL25" s="43"/>
+      <c r="BM25" s="43"/>
+      <c r="BN25" s="43"/>
+      <c r="BO25" s="43"/>
+      <c r="BP25" s="43"/>
+      <c r="BQ25" s="43"/>
+      <c r="BR25" s="43"/>
+      <c r="BS25" s="43"/>
+      <c r="BT25" s="43"/>
+      <c r="BU25" s="43"/>
+      <c r="BV25" s="43"/>
+      <c r="BW25" s="43"/>
+      <c r="BX25" s="43"/>
+      <c r="BY25" s="43"/>
+      <c r="BZ25" s="43"/>
+      <c r="CA25" s="43"/>
+      <c r="CB25" s="43"/>
+      <c r="CC25" s="43"/>
+      <c r="CD25" s="43"/>
+      <c r="CE25" s="43"/>
+      <c r="CF25" s="43"/>
+      <c r="CG25" s="43"/>
+      <c r="CH25" s="43"/>
+      <c r="CI25" s="43"/>
+      <c r="CJ25" s="43"/>
+      <c r="CK25" s="43"/>
+      <c r="CL25" s="43"/>
+      <c r="CM25" s="43"/>
+      <c r="CN25" s="43"/>
+      <c r="CO25" s="43"/>
+      <c r="CP25" s="43"/>
+      <c r="CQ25" s="43"/>
+      <c r="CR25" s="43"/>
+      <c r="CS25" s="43"/>
+      <c r="CT25" s="43"/>
+      <c r="CU25" s="43"/>
+      <c r="CV25" s="43"/>
+      <c r="CW25" s="43"/>
+      <c r="CX25" s="43"/>
+      <c r="CY25" s="43"/>
+      <c r="CZ25" s="43"/>
+      <c r="DA25" s="43"/>
+      <c r="DB25" s="43"/>
+      <c r="DC25" s="43"/>
+      <c r="DD25" s="43"/>
+      <c r="DE25" s="43"/>
+      <c r="DF25" s="43"/>
+      <c r="DG25" s="43"/>
+      <c r="DH25" s="43"/>
+      <c r="DI25" s="43"/>
+      <c r="DJ25" s="43"/>
+      <c r="DK25" s="43"/>
+      <c r="DL25" s="43"/>
+      <c r="DM25" s="43"/>
+      <c r="DN25" s="43"/>
+      <c r="DO25" s="43"/>
+      <c r="DP25" s="43"/>
+      <c r="DQ25" s="43"/>
+      <c r="DR25" s="43"/>
+      <c r="DS25" s="43"/>
+      <c r="DT25" s="43"/>
+      <c r="DU25" s="43"/>
+      <c r="DV25" s="43"/>
+      <c r="DW25" s="43"/>
+      <c r="DX25" s="43"/>
+      <c r="DY25" s="43"/>
+      <c r="DZ25" s="43"/>
+      <c r="EA25" s="43"/>
+      <c r="EB25" s="43"/>
+      <c r="EC25" s="43"/>
+      <c r="ED25" s="43"/>
+      <c r="EE25" s="43"/>
+      <c r="EF25" s="43"/>
+      <c r="EG25" s="43"/>
+      <c r="EH25" s="43"/>
+      <c r="EI25" s="43"/>
+      <c r="EJ25" s="43"/>
+      <c r="EK25" s="43"/>
+      <c r="EL25" s="43"/>
+      <c r="EM25" s="43"/>
+      <c r="EN25" s="43"/>
+      <c r="EO25" s="43"/>
+      <c r="EP25" s="43"/>
+      <c r="EQ25" s="43"/>
+      <c r="ER25" s="43"/>
+      <c r="ES25" s="43"/>
+      <c r="ET25" s="43"/>
+      <c r="EU25" s="43"/>
+      <c r="EV25" s="43"/>
+      <c r="EW25" s="43"/>
+      <c r="EX25" s="43"/>
+      <c r="EY25" s="43"/>
+      <c r="EZ25" s="43"/>
+      <c r="FA25" s="43"/>
+      <c r="FB25" s="43"/>
+      <c r="FC25" s="43"/>
+      <c r="FD25" s="43"/>
+      <c r="FE25" s="43"/>
+      <c r="FF25" s="43"/>
+      <c r="FG25" s="43"/>
+      <c r="FH25" s="43"/>
+      <c r="FI25" s="43"/>
+      <c r="FJ25" s="43"/>
+      <c r="FK25" s="43"/>
+      <c r="FL25" s="43"/>
+      <c r="FM25" s="43"/>
+      <c r="FN25" s="43"/>
+      <c r="FO25" s="43"/>
+      <c r="FP25" s="43"/>
+      <c r="FQ25" s="43"/>
+      <c r="FR25" s="43"/>
+      <c r="FS25" s="43"/>
+      <c r="FT25" s="43"/>
+      <c r="FU25" s="43"/>
+      <c r="FV25" s="43"/>
+      <c r="FW25" s="43"/>
+      <c r="FX25" s="43"/>
+      <c r="FY25" s="43"/>
+      <c r="FZ25" s="43"/>
+      <c r="GA25" s="43"/>
+      <c r="GB25" s="43"/>
+      <c r="GC25" s="43"/>
+      <c r="GD25" s="43"/>
+      <c r="GE25" s="43"/>
+      <c r="GF25" s="43"/>
+      <c r="GG25" s="43"/>
+      <c r="GH25" s="43"/>
+      <c r="GI25" s="43"/>
+      <c r="GJ25" s="43"/>
+      <c r="GK25" s="43"/>
+      <c r="GL25" s="43"/>
+      <c r="GM25" s="43"/>
+      <c r="GN25" s="43"/>
+      <c r="GO25" s="43"/>
+      <c r="GP25" s="43"/>
+      <c r="GQ25" s="43"/>
+      <c r="GR25" s="43"/>
+      <c r="GS25" s="43"/>
+      <c r="GT25" s="43"/>
+      <c r="GU25" s="43"/>
+      <c r="GV25" s="43"/>
+      <c r="GW25" s="43"/>
+      <c r="GX25" s="43"/>
+      <c r="GY25" s="43"/>
+      <c r="GZ25" s="43"/>
+      <c r="HA25" s="43"/>
+      <c r="HB25" s="43"/>
+      <c r="HC25" s="43"/>
+      <c r="HD25" s="43"/>
+      <c r="HE25" s="43"/>
+      <c r="HF25" s="43"/>
+      <c r="HG25" s="43"/>
+      <c r="HH25" s="43"/>
+      <c r="HI25" s="43"/>
+      <c r="HJ25" s="43"/>
+      <c r="HK25" s="43"/>
+      <c r="HL25" s="43"/>
+      <c r="HM25" s="43"/>
+      <c r="HN25" s="43"/>
+      <c r="HO25" s="43"/>
+      <c r="HP25" s="43"/>
+      <c r="HQ25" s="43"/>
+      <c r="HR25" s="43"/>
+      <c r="HS25" s="43"/>
+      <c r="HT25" s="43"/>
+      <c r="HU25" s="43"/>
+      <c r="HV25" s="43"/>
+      <c r="HW25" s="43"/>
+      <c r="HX25" s="43"/>
+      <c r="HY25" s="43"/>
+      <c r="HZ25" s="43"/>
+      <c r="IA25" s="43"/>
+      <c r="IB25" s="43"/>
+      <c r="IC25" s="43"/>
+      <c r="ID25" s="43"/>
+      <c r="IE25" s="43"/>
+      <c r="IF25" s="43"/>
+      <c r="IG25" s="43"/>
+      <c r="IH25" s="43"/>
+      <c r="II25" s="43"/>
+      <c r="IJ25" s="43"/>
+      <c r="IK25" s="43"/>
+      <c r="IL25" s="43"/>
+      <c r="IM25" s="43"/>
+      <c r="IN25" s="43"/>
+      <c r="IO25" s="43"/>
+      <c r="IP25" s="43"/>
+    </row>
+    <row r="26" spans="1:250" s="44" customFormat="1" ht="120.5" customHeight="1">
+      <c r="A26" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" s="42"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="43"/>
+      <c r="T26" s="43"/>
+      <c r="U26" s="43"/>
+      <c r="V26" s="43"/>
+      <c r="W26" s="43"/>
+      <c r="X26" s="43"/>
+      <c r="Y26" s="43"/>
+      <c r="Z26" s="43"/>
+      <c r="AA26" s="43"/>
+      <c r="AB26" s="43"/>
+      <c r="AC26" s="43"/>
+      <c r="AD26" s="43"/>
+      <c r="AE26" s="43"/>
+      <c r="AF26" s="43"/>
+      <c r="AG26" s="43"/>
+      <c r="AH26" s="43"/>
+      <c r="AI26" s="43"/>
+      <c r="AJ26" s="43"/>
+      <c r="AK26" s="43"/>
+      <c r="AL26" s="43"/>
+      <c r="AM26" s="43"/>
+      <c r="AN26" s="43"/>
+      <c r="AO26" s="43"/>
+      <c r="AP26" s="43"/>
+      <c r="AQ26" s="43"/>
+      <c r="AR26" s="43"/>
+      <c r="AS26" s="43"/>
+      <c r="AT26" s="43"/>
+      <c r="AU26" s="43"/>
+      <c r="AV26" s="43"/>
+      <c r="AW26" s="43"/>
+      <c r="AX26" s="43"/>
+      <c r="AY26" s="43"/>
+      <c r="AZ26" s="43"/>
+      <c r="BA26" s="43"/>
+      <c r="BB26" s="43"/>
+      <c r="BC26" s="43"/>
+      <c r="BD26" s="43"/>
+      <c r="BE26" s="43"/>
+      <c r="BF26" s="43"/>
+      <c r="BG26" s="43"/>
+      <c r="BH26" s="43"/>
+      <c r="BI26" s="43"/>
+      <c r="BJ26" s="43"/>
+      <c r="BK26" s="43"/>
+      <c r="BL26" s="43"/>
+      <c r="BM26" s="43"/>
+      <c r="BN26" s="43"/>
+      <c r="BO26" s="43"/>
+      <c r="BP26" s="43"/>
+      <c r="BQ26" s="43"/>
+      <c r="BR26" s="43"/>
+      <c r="BS26" s="43"/>
+      <c r="BT26" s="43"/>
+      <c r="BU26" s="43"/>
+      <c r="BV26" s="43"/>
+      <c r="BW26" s="43"/>
+      <c r="BX26" s="43"/>
+      <c r="BY26" s="43"/>
+      <c r="BZ26" s="43"/>
+      <c r="CA26" s="43"/>
+      <c r="CB26" s="43"/>
+      <c r="CC26" s="43"/>
+      <c r="CD26" s="43"/>
+      <c r="CE26" s="43"/>
+      <c r="CF26" s="43"/>
+      <c r="CG26" s="43"/>
+      <c r="CH26" s="43"/>
+      <c r="CI26" s="43"/>
+      <c r="CJ26" s="43"/>
+      <c r="CK26" s="43"/>
+      <c r="CL26" s="43"/>
+      <c r="CM26" s="43"/>
+      <c r="CN26" s="43"/>
+      <c r="CO26" s="43"/>
+      <c r="CP26" s="43"/>
+      <c r="CQ26" s="43"/>
+      <c r="CR26" s="43"/>
+      <c r="CS26" s="43"/>
+      <c r="CT26" s="43"/>
+      <c r="CU26" s="43"/>
+      <c r="CV26" s="43"/>
+      <c r="CW26" s="43"/>
+      <c r="CX26" s="43"/>
+      <c r="CY26" s="43"/>
+      <c r="CZ26" s="43"/>
+      <c r="DA26" s="43"/>
+      <c r="DB26" s="43"/>
+      <c r="DC26" s="43"/>
+      <c r="DD26" s="43"/>
+      <c r="DE26" s="43"/>
+      <c r="DF26" s="43"/>
+      <c r="DG26" s="43"/>
+      <c r="DH26" s="43"/>
+      <c r="DI26" s="43"/>
+      <c r="DJ26" s="43"/>
+      <c r="DK26" s="43"/>
+      <c r="DL26" s="43"/>
+      <c r="DM26" s="43"/>
+      <c r="DN26" s="43"/>
+      <c r="DO26" s="43"/>
+      <c r="DP26" s="43"/>
+      <c r="DQ26" s="43"/>
+      <c r="DR26" s="43"/>
+      <c r="DS26" s="43"/>
+      <c r="DT26" s="43"/>
+      <c r="DU26" s="43"/>
+      <c r="DV26" s="43"/>
+      <c r="DW26" s="43"/>
+      <c r="DX26" s="43"/>
+      <c r="DY26" s="43"/>
+      <c r="DZ26" s="43"/>
+      <c r="EA26" s="43"/>
+      <c r="EB26" s="43"/>
+      <c r="EC26" s="43"/>
+      <c r="ED26" s="43"/>
+      <c r="EE26" s="43"/>
+      <c r="EF26" s="43"/>
+      <c r="EG26" s="43"/>
+      <c r="EH26" s="43"/>
+      <c r="EI26" s="43"/>
+      <c r="EJ26" s="43"/>
+      <c r="EK26" s="43"/>
+      <c r="EL26" s="43"/>
+      <c r="EM26" s="43"/>
+      <c r="EN26" s="43"/>
+      <c r="EO26" s="43"/>
+      <c r="EP26" s="43"/>
+      <c r="EQ26" s="43"/>
+      <c r="ER26" s="43"/>
+      <c r="ES26" s="43"/>
+      <c r="ET26" s="43"/>
+      <c r="EU26" s="43"/>
+      <c r="EV26" s="43"/>
+      <c r="EW26" s="43"/>
+      <c r="EX26" s="43"/>
+      <c r="EY26" s="43"/>
+      <c r="EZ26" s="43"/>
+      <c r="FA26" s="43"/>
+      <c r="FB26" s="43"/>
+      <c r="FC26" s="43"/>
+      <c r="FD26" s="43"/>
+      <c r="FE26" s="43"/>
+      <c r="FF26" s="43"/>
+      <c r="FG26" s="43"/>
+      <c r="FH26" s="43"/>
+      <c r="FI26" s="43"/>
+      <c r="FJ26" s="43"/>
+      <c r="FK26" s="43"/>
+      <c r="FL26" s="43"/>
+      <c r="FM26" s="43"/>
+      <c r="FN26" s="43"/>
+      <c r="FO26" s="43"/>
+      <c r="FP26" s="43"/>
+      <c r="FQ26" s="43"/>
+      <c r="FR26" s="43"/>
+      <c r="FS26" s="43"/>
+      <c r="FT26" s="43"/>
+      <c r="FU26" s="43"/>
+      <c r="FV26" s="43"/>
+      <c r="FW26" s="43"/>
+      <c r="FX26" s="43"/>
+      <c r="FY26" s="43"/>
+      <c r="FZ26" s="43"/>
+      <c r="GA26" s="43"/>
+      <c r="GB26" s="43"/>
+      <c r="GC26" s="43"/>
+      <c r="GD26" s="43"/>
+      <c r="GE26" s="43"/>
+      <c r="GF26" s="43"/>
+      <c r="GG26" s="43"/>
+      <c r="GH26" s="43"/>
+      <c r="GI26" s="43"/>
+      <c r="GJ26" s="43"/>
+      <c r="GK26" s="43"/>
+      <c r="GL26" s="43"/>
+      <c r="GM26" s="43"/>
+      <c r="GN26" s="43"/>
+      <c r="GO26" s="43"/>
+      <c r="GP26" s="43"/>
+      <c r="GQ26" s="43"/>
+      <c r="GR26" s="43"/>
+      <c r="GS26" s="43"/>
+      <c r="GT26" s="43"/>
+      <c r="GU26" s="43"/>
+      <c r="GV26" s="43"/>
+      <c r="GW26" s="43"/>
+      <c r="GX26" s="43"/>
+      <c r="GY26" s="43"/>
+      <c r="GZ26" s="43"/>
+      <c r="HA26" s="43"/>
+      <c r="HB26" s="43"/>
+      <c r="HC26" s="43"/>
+      <c r="HD26" s="43"/>
+      <c r="HE26" s="43"/>
+      <c r="HF26" s="43"/>
+      <c r="HG26" s="43"/>
+      <c r="HH26" s="43"/>
+      <c r="HI26" s="43"/>
+      <c r="HJ26" s="43"/>
+      <c r="HK26" s="43"/>
+      <c r="HL26" s="43"/>
+      <c r="HM26" s="43"/>
+      <c r="HN26" s="43"/>
+      <c r="HO26" s="43"/>
+      <c r="HP26" s="43"/>
+      <c r="HQ26" s="43"/>
+      <c r="HR26" s="43"/>
+      <c r="HS26" s="43"/>
+      <c r="HT26" s="43"/>
+      <c r="HU26" s="43"/>
+      <c r="HV26" s="43"/>
+      <c r="HW26" s="43"/>
+      <c r="HX26" s="43"/>
+      <c r="HY26" s="43"/>
+      <c r="HZ26" s="43"/>
+      <c r="IA26" s="43"/>
+      <c r="IB26" s="43"/>
+      <c r="IC26" s="43"/>
+      <c r="ID26" s="43"/>
+      <c r="IE26" s="43"/>
+      <c r="IF26" s="43"/>
+      <c r="IG26" s="43"/>
+      <c r="IH26" s="43"/>
+      <c r="II26" s="43"/>
+      <c r="IJ26" s="43"/>
+      <c r="IK26" s="43"/>
+      <c r="IL26" s="43"/>
+      <c r="IM26" s="43"/>
+      <c r="IN26" s="43"/>
+      <c r="IO26" s="43"/>
+      <c r="IP26" s="43"/>
+    </row>
+    <row r="27" spans="1:250" s="44" customFormat="1" ht="121.5" customHeight="1">
+      <c r="A27" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" s="42"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="43"/>
+      <c r="V27" s="43"/>
+      <c r="W27" s="43"/>
+      <c r="X27" s="43"/>
+      <c r="Y27" s="43"/>
+      <c r="Z27" s="43"/>
+      <c r="AA27" s="43"/>
+      <c r="AB27" s="43"/>
+      <c r="AC27" s="43"/>
+      <c r="AD27" s="43"/>
+      <c r="AE27" s="43"/>
+      <c r="AF27" s="43"/>
+      <c r="AG27" s="43"/>
+      <c r="AH27" s="43"/>
+      <c r="AI27" s="43"/>
+      <c r="AJ27" s="43"/>
+      <c r="AK27" s="43"/>
+      <c r="AL27" s="43"/>
+      <c r="AM27" s="43"/>
+      <c r="AN27" s="43"/>
+      <c r="AO27" s="43"/>
+      <c r="AP27" s="43"/>
+      <c r="AQ27" s="43"/>
+      <c r="AR27" s="43"/>
+      <c r="AS27" s="43"/>
+      <c r="AT27" s="43"/>
+      <c r="AU27" s="43"/>
+      <c r="AV27" s="43"/>
+      <c r="AW27" s="43"/>
+      <c r="AX27" s="43"/>
+      <c r="AY27" s="43"/>
+      <c r="AZ27" s="43"/>
+      <c r="BA27" s="43"/>
+      <c r="BB27" s="43"/>
+      <c r="BC27" s="43"/>
+      <c r="BD27" s="43"/>
+      <c r="BE27" s="43"/>
+      <c r="BF27" s="43"/>
+      <c r="BG27" s="43"/>
+      <c r="BH27" s="43"/>
+      <c r="BI27" s="43"/>
+      <c r="BJ27" s="43"/>
+      <c r="BK27" s="43"/>
+      <c r="BL27" s="43"/>
+      <c r="BM27" s="43"/>
+      <c r="BN27" s="43"/>
+      <c r="BO27" s="43"/>
+      <c r="BP27" s="43"/>
+      <c r="BQ27" s="43"/>
+      <c r="BR27" s="43"/>
+      <c r="BS27" s="43"/>
+      <c r="BT27" s="43"/>
+      <c r="BU27" s="43"/>
+      <c r="BV27" s="43"/>
+      <c r="BW27" s="43"/>
+      <c r="BX27" s="43"/>
+      <c r="BY27" s="43"/>
+      <c r="BZ27" s="43"/>
+      <c r="CA27" s="43"/>
+      <c r="CB27" s="43"/>
+      <c r="CC27" s="43"/>
+      <c r="CD27" s="43"/>
+      <c r="CE27" s="43"/>
+      <c r="CF27" s="43"/>
+      <c r="CG27" s="43"/>
+      <c r="CH27" s="43"/>
+      <c r="CI27" s="43"/>
+      <c r="CJ27" s="43"/>
+      <c r="CK27" s="43"/>
+      <c r="CL27" s="43"/>
+      <c r="CM27" s="43"/>
+      <c r="CN27" s="43"/>
+      <c r="CO27" s="43"/>
+      <c r="CP27" s="43"/>
+      <c r="CQ27" s="43"/>
+      <c r="CR27" s="43"/>
+      <c r="CS27" s="43"/>
+      <c r="CT27" s="43"/>
+      <c r="CU27" s="43"/>
+      <c r="CV27" s="43"/>
+      <c r="CW27" s="43"/>
+      <c r="CX27" s="43"/>
+      <c r="CY27" s="43"/>
+      <c r="CZ27" s="43"/>
+      <c r="DA27" s="43"/>
+      <c r="DB27" s="43"/>
+      <c r="DC27" s="43"/>
+      <c r="DD27" s="43"/>
+      <c r="DE27" s="43"/>
+      <c r="DF27" s="43"/>
+      <c r="DG27" s="43"/>
+      <c r="DH27" s="43"/>
+      <c r="DI27" s="43"/>
+      <c r="DJ27" s="43"/>
+      <c r="DK27" s="43"/>
+      <c r="DL27" s="43"/>
+      <c r="DM27" s="43"/>
+      <c r="DN27" s="43"/>
+      <c r="DO27" s="43"/>
+      <c r="DP27" s="43"/>
+      <c r="DQ27" s="43"/>
+      <c r="DR27" s="43"/>
+      <c r="DS27" s="43"/>
+      <c r="DT27" s="43"/>
+      <c r="DU27" s="43"/>
+      <c r="DV27" s="43"/>
+      <c r="DW27" s="43"/>
+      <c r="DX27" s="43"/>
+      <c r="DY27" s="43"/>
+      <c r="DZ27" s="43"/>
+      <c r="EA27" s="43"/>
+      <c r="EB27" s="43"/>
+      <c r="EC27" s="43"/>
+      <c r="ED27" s="43"/>
+      <c r="EE27" s="43"/>
+      <c r="EF27" s="43"/>
+      <c r="EG27" s="43"/>
+      <c r="EH27" s="43"/>
+      <c r="EI27" s="43"/>
+      <c r="EJ27" s="43"/>
+      <c r="EK27" s="43"/>
+      <c r="EL27" s="43"/>
+      <c r="EM27" s="43"/>
+      <c r="EN27" s="43"/>
+      <c r="EO27" s="43"/>
+      <c r="EP27" s="43"/>
+      <c r="EQ27" s="43"/>
+      <c r="ER27" s="43"/>
+      <c r="ES27" s="43"/>
+      <c r="ET27" s="43"/>
+      <c r="EU27" s="43"/>
+      <c r="EV27" s="43"/>
+      <c r="EW27" s="43"/>
+      <c r="EX27" s="43"/>
+      <c r="EY27" s="43"/>
+      <c r="EZ27" s="43"/>
+      <c r="FA27" s="43"/>
+      <c r="FB27" s="43"/>
+      <c r="FC27" s="43"/>
+      <c r="FD27" s="43"/>
+      <c r="FE27" s="43"/>
+      <c r="FF27" s="43"/>
+      <c r="FG27" s="43"/>
+      <c r="FH27" s="43"/>
+      <c r="FI27" s="43"/>
+      <c r="FJ27" s="43"/>
+      <c r="FK27" s="43"/>
+      <c r="FL27" s="43"/>
+      <c r="FM27" s="43"/>
+      <c r="FN27" s="43"/>
+      <c r="FO27" s="43"/>
+      <c r="FP27" s="43"/>
+      <c r="FQ27" s="43"/>
+      <c r="FR27" s="43"/>
+      <c r="FS27" s="43"/>
+      <c r="FT27" s="43"/>
+      <c r="FU27" s="43"/>
+      <c r="FV27" s="43"/>
+      <c r="FW27" s="43"/>
+      <c r="FX27" s="43"/>
+      <c r="FY27" s="43"/>
+      <c r="FZ27" s="43"/>
+      <c r="GA27" s="43"/>
+      <c r="GB27" s="43"/>
+      <c r="GC27" s="43"/>
+      <c r="GD27" s="43"/>
+      <c r="GE27" s="43"/>
+      <c r="GF27" s="43"/>
+      <c r="GG27" s="43"/>
+      <c r="GH27" s="43"/>
+      <c r="GI27" s="43"/>
+      <c r="GJ27" s="43"/>
+      <c r="GK27" s="43"/>
+      <c r="GL27" s="43"/>
+      <c r="GM27" s="43"/>
+      <c r="GN27" s="43"/>
+      <c r="GO27" s="43"/>
+      <c r="GP27" s="43"/>
+      <c r="GQ27" s="43"/>
+      <c r="GR27" s="43"/>
+      <c r="GS27" s="43"/>
+      <c r="GT27" s="43"/>
+      <c r="GU27" s="43"/>
+      <c r="GV27" s="43"/>
+      <c r="GW27" s="43"/>
+      <c r="GX27" s="43"/>
+      <c r="GY27" s="43"/>
+      <c r="GZ27" s="43"/>
+      <c r="HA27" s="43"/>
+      <c r="HB27" s="43"/>
+      <c r="HC27" s="43"/>
+      <c r="HD27" s="43"/>
+      <c r="HE27" s="43"/>
+      <c r="HF27" s="43"/>
+      <c r="HG27" s="43"/>
+      <c r="HH27" s="43"/>
+      <c r="HI27" s="43"/>
+      <c r="HJ27" s="43"/>
+      <c r="HK27" s="43"/>
+      <c r="HL27" s="43"/>
+      <c r="HM27" s="43"/>
+      <c r="HN27" s="43"/>
+      <c r="HO27" s="43"/>
+      <c r="HP27" s="43"/>
+      <c r="HQ27" s="43"/>
+      <c r="HR27" s="43"/>
+      <c r="HS27" s="43"/>
+      <c r="HT27" s="43"/>
+      <c r="HU27" s="43"/>
+      <c r="HV27" s="43"/>
+      <c r="HW27" s="43"/>
+      <c r="HX27" s="43"/>
+      <c r="HY27" s="43"/>
+      <c r="HZ27" s="43"/>
+      <c r="IA27" s="43"/>
+      <c r="IB27" s="43"/>
+      <c r="IC27" s="43"/>
+      <c r="ID27" s="43"/>
+      <c r="IE27" s="43"/>
+      <c r="IF27" s="43"/>
+      <c r="IG27" s="43"/>
+      <c r="IH27" s="43"/>
+      <c r="II27" s="43"/>
+      <c r="IJ27" s="43"/>
+      <c r="IK27" s="43"/>
+      <c r="IL27" s="43"/>
+      <c r="IM27" s="43"/>
+      <c r="IN27" s="43"/>
+      <c r="IO27" s="43"/>
+      <c r="IP27" s="43"/>
+    </row>
+    <row r="28" spans="1:250" s="44" customFormat="1" ht="121.5" customHeight="1">
+      <c r="A28" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" s="42"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="43"/>
+      <c r="R28" s="43"/>
+      <c r="S28" s="43"/>
+      <c r="T28" s="43"/>
+      <c r="U28" s="43"/>
+      <c r="V28" s="43"/>
+      <c r="W28" s="43"/>
+      <c r="X28" s="43"/>
+      <c r="Y28" s="43"/>
+      <c r="Z28" s="43"/>
+      <c r="AA28" s="43"/>
+      <c r="AB28" s="43"/>
+      <c r="AC28" s="43"/>
+      <c r="AD28" s="43"/>
+      <c r="AE28" s="43"/>
+      <c r="AF28" s="43"/>
+      <c r="AG28" s="43"/>
+      <c r="AH28" s="43"/>
+      <c r="AI28" s="43"/>
+      <c r="AJ28" s="43"/>
+      <c r="AK28" s="43"/>
+      <c r="AL28" s="43"/>
+      <c r="AM28" s="43"/>
+      <c r="AN28" s="43"/>
+      <c r="AO28" s="43"/>
+      <c r="AP28" s="43"/>
+      <c r="AQ28" s="43"/>
+      <c r="AR28" s="43"/>
+      <c r="AS28" s="43"/>
+      <c r="AT28" s="43"/>
+      <c r="AU28" s="43"/>
+      <c r="AV28" s="43"/>
+      <c r="AW28" s="43"/>
+      <c r="AX28" s="43"/>
+      <c r="AY28" s="43"/>
+      <c r="AZ28" s="43"/>
+      <c r="BA28" s="43"/>
+      <c r="BB28" s="43"/>
+      <c r="BC28" s="43"/>
+      <c r="BD28" s="43"/>
+      <c r="BE28" s="43"/>
+      <c r="BF28" s="43"/>
+      <c r="BG28" s="43"/>
+      <c r="BH28" s="43"/>
+      <c r="BI28" s="43"/>
+      <c r="BJ28" s="43"/>
+      <c r="BK28" s="43"/>
+      <c r="BL28" s="43"/>
+      <c r="BM28" s="43"/>
+      <c r="BN28" s="43"/>
+      <c r="BO28" s="43"/>
+      <c r="BP28" s="43"/>
+      <c r="BQ28" s="43"/>
+      <c r="BR28" s="43"/>
+      <c r="BS28" s="43"/>
+      <c r="BT28" s="43"/>
+      <c r="BU28" s="43"/>
+      <c r="BV28" s="43"/>
+      <c r="BW28" s="43"/>
+      <c r="BX28" s="43"/>
+      <c r="BY28" s="43"/>
+      <c r="BZ28" s="43"/>
+      <c r="CA28" s="43"/>
+      <c r="CB28" s="43"/>
+      <c r="CC28" s="43"/>
+      <c r="CD28" s="43"/>
+      <c r="CE28" s="43"/>
+      <c r="CF28" s="43"/>
+      <c r="CG28" s="43"/>
+      <c r="CH28" s="43"/>
+      <c r="CI28" s="43"/>
+      <c r="CJ28" s="43"/>
+      <c r="CK28" s="43"/>
+      <c r="CL28" s="43"/>
+      <c r="CM28" s="43"/>
+      <c r="CN28" s="43"/>
+      <c r="CO28" s="43"/>
+      <c r="CP28" s="43"/>
+      <c r="CQ28" s="43"/>
+      <c r="CR28" s="43"/>
+      <c r="CS28" s="43"/>
+      <c r="CT28" s="43"/>
+      <c r="CU28" s="43"/>
+      <c r="CV28" s="43"/>
+      <c r="CW28" s="43"/>
+      <c r="CX28" s="43"/>
+      <c r="CY28" s="43"/>
+      <c r="CZ28" s="43"/>
+      <c r="DA28" s="43"/>
+      <c r="DB28" s="43"/>
+      <c r="DC28" s="43"/>
+      <c r="DD28" s="43"/>
+      <c r="DE28" s="43"/>
+      <c r="DF28" s="43"/>
+      <c r="DG28" s="43"/>
+      <c r="DH28" s="43"/>
+      <c r="DI28" s="43"/>
+      <c r="DJ28" s="43"/>
+      <c r="DK28" s="43"/>
+      <c r="DL28" s="43"/>
+      <c r="DM28" s="43"/>
+      <c r="DN28" s="43"/>
+      <c r="DO28" s="43"/>
+      <c r="DP28" s="43"/>
+      <c r="DQ28" s="43"/>
+      <c r="DR28" s="43"/>
+      <c r="DS28" s="43"/>
+      <c r="DT28" s="43"/>
+      <c r="DU28" s="43"/>
+      <c r="DV28" s="43"/>
+      <c r="DW28" s="43"/>
+      <c r="DX28" s="43"/>
+      <c r="DY28" s="43"/>
+      <c r="DZ28" s="43"/>
+      <c r="EA28" s="43"/>
+      <c r="EB28" s="43"/>
+      <c r="EC28" s="43"/>
+      <c r="ED28" s="43"/>
+      <c r="EE28" s="43"/>
+      <c r="EF28" s="43"/>
+      <c r="EG28" s="43"/>
+      <c r="EH28" s="43"/>
+      <c r="EI28" s="43"/>
+      <c r="EJ28" s="43"/>
+      <c r="EK28" s="43"/>
+      <c r="EL28" s="43"/>
+      <c r="EM28" s="43"/>
+      <c r="EN28" s="43"/>
+      <c r="EO28" s="43"/>
+      <c r="EP28" s="43"/>
+      <c r="EQ28" s="43"/>
+      <c r="ER28" s="43"/>
+      <c r="ES28" s="43"/>
+      <c r="ET28" s="43"/>
+      <c r="EU28" s="43"/>
+      <c r="EV28" s="43"/>
+      <c r="EW28" s="43"/>
+      <c r="EX28" s="43"/>
+      <c r="EY28" s="43"/>
+      <c r="EZ28" s="43"/>
+      <c r="FA28" s="43"/>
+      <c r="FB28" s="43"/>
+      <c r="FC28" s="43"/>
+      <c r="FD28" s="43"/>
+      <c r="FE28" s="43"/>
+      <c r="FF28" s="43"/>
+      <c r="FG28" s="43"/>
+      <c r="FH28" s="43"/>
+      <c r="FI28" s="43"/>
+      <c r="FJ28" s="43"/>
+      <c r="FK28" s="43"/>
+      <c r="FL28" s="43"/>
+      <c r="FM28" s="43"/>
+      <c r="FN28" s="43"/>
+      <c r="FO28" s="43"/>
+      <c r="FP28" s="43"/>
+      <c r="FQ28" s="43"/>
+      <c r="FR28" s="43"/>
+      <c r="FS28" s="43"/>
+      <c r="FT28" s="43"/>
+      <c r="FU28" s="43"/>
+      <c r="FV28" s="43"/>
+      <c r="FW28" s="43"/>
+      <c r="FX28" s="43"/>
+      <c r="FY28" s="43"/>
+      <c r="FZ28" s="43"/>
+      <c r="GA28" s="43"/>
+      <c r="GB28" s="43"/>
+      <c r="GC28" s="43"/>
+      <c r="GD28" s="43"/>
+      <c r="GE28" s="43"/>
+      <c r="GF28" s="43"/>
+      <c r="GG28" s="43"/>
+      <c r="GH28" s="43"/>
+      <c r="GI28" s="43"/>
+      <c r="GJ28" s="43"/>
+      <c r="GK28" s="43"/>
+      <c r="GL28" s="43"/>
+      <c r="GM28" s="43"/>
+      <c r="GN28" s="43"/>
+      <c r="GO28" s="43"/>
+      <c r="GP28" s="43"/>
+      <c r="GQ28" s="43"/>
+      <c r="GR28" s="43"/>
+      <c r="GS28" s="43"/>
+      <c r="GT28" s="43"/>
+      <c r="GU28" s="43"/>
+      <c r="GV28" s="43"/>
+      <c r="GW28" s="43"/>
+      <c r="GX28" s="43"/>
+      <c r="GY28" s="43"/>
+      <c r="GZ28" s="43"/>
+      <c r="HA28" s="43"/>
+      <c r="HB28" s="43"/>
+      <c r="HC28" s="43"/>
+      <c r="HD28" s="43"/>
+      <c r="HE28" s="43"/>
+      <c r="HF28" s="43"/>
+      <c r="HG28" s="43"/>
+      <c r="HH28" s="43"/>
+      <c r="HI28" s="43"/>
+      <c r="HJ28" s="43"/>
+      <c r="HK28" s="43"/>
+      <c r="HL28" s="43"/>
+      <c r="HM28" s="43"/>
+      <c r="HN28" s="43"/>
+      <c r="HO28" s="43"/>
+      <c r="HP28" s="43"/>
+      <c r="HQ28" s="43"/>
+      <c r="HR28" s="43"/>
+      <c r="HS28" s="43"/>
+      <c r="HT28" s="43"/>
+      <c r="HU28" s="43"/>
+      <c r="HV28" s="43"/>
+      <c r="HW28" s="43"/>
+      <c r="HX28" s="43"/>
+      <c r="HY28" s="43"/>
+      <c r="HZ28" s="43"/>
+      <c r="IA28" s="43"/>
+      <c r="IB28" s="43"/>
+      <c r="IC28" s="43"/>
+      <c r="ID28" s="43"/>
+      <c r="IE28" s="43"/>
+      <c r="IF28" s="43"/>
+      <c r="IG28" s="43"/>
+      <c r="IH28" s="43"/>
+      <c r="II28" s="43"/>
+      <c r="IJ28" s="43"/>
+      <c r="IK28" s="43"/>
+      <c r="IL28" s="43"/>
+      <c r="IM28" s="43"/>
+      <c r="IN28" s="43"/>
+      <c r="IO28" s="43"/>
+      <c r="IP28" s="43"/>
+    </row>
+    <row r="29" spans="1:250" s="44" customFormat="1" ht="121.5" customHeight="1">
+      <c r="A29" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="E29" s="42"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="43"/>
+      <c r="T29" s="43"/>
+      <c r="U29" s="43"/>
+      <c r="V29" s="43"/>
+      <c r="W29" s="43"/>
+      <c r="X29" s="43"/>
+      <c r="Y29" s="43"/>
+      <c r="Z29" s="43"/>
+      <c r="AA29" s="43"/>
+      <c r="AB29" s="43"/>
+      <c r="AC29" s="43"/>
+      <c r="AD29" s="43"/>
+      <c r="AE29" s="43"/>
+      <c r="AF29" s="43"/>
+      <c r="AG29" s="43"/>
+      <c r="AH29" s="43"/>
+      <c r="AI29" s="43"/>
+      <c r="AJ29" s="43"/>
+      <c r="AK29" s="43"/>
+      <c r="AL29" s="43"/>
+      <c r="AM29" s="43"/>
+      <c r="AN29" s="43"/>
+      <c r="AO29" s="43"/>
+      <c r="AP29" s="43"/>
+      <c r="AQ29" s="43"/>
+      <c r="AR29" s="43"/>
+      <c r="AS29" s="43"/>
+      <c r="AT29" s="43"/>
+      <c r="AU29" s="43"/>
+      <c r="AV29" s="43"/>
+      <c r="AW29" s="43"/>
+      <c r="AX29" s="43"/>
+      <c r="AY29" s="43"/>
+      <c r="AZ29" s="43"/>
+      <c r="BA29" s="43"/>
+      <c r="BB29" s="43"/>
+      <c r="BC29" s="43"/>
+      <c r="BD29" s="43"/>
+      <c r="BE29" s="43"/>
+      <c r="BF29" s="43"/>
+      <c r="BG29" s="43"/>
+      <c r="BH29" s="43"/>
+      <c r="BI29" s="43"/>
+      <c r="BJ29" s="43"/>
+      <c r="BK29" s="43"/>
+      <c r="BL29" s="43"/>
+      <c r="BM29" s="43"/>
+      <c r="BN29" s="43"/>
+      <c r="BO29" s="43"/>
+      <c r="BP29" s="43"/>
+      <c r="BQ29" s="43"/>
+      <c r="BR29" s="43"/>
+      <c r="BS29" s="43"/>
+      <c r="BT29" s="43"/>
+      <c r="BU29" s="43"/>
+      <c r="BV29" s="43"/>
+      <c r="BW29" s="43"/>
+      <c r="BX29" s="43"/>
+      <c r="BY29" s="43"/>
+      <c r="BZ29" s="43"/>
+      <c r="CA29" s="43"/>
+      <c r="CB29" s="43"/>
+      <c r="CC29" s="43"/>
+      <c r="CD29" s="43"/>
+      <c r="CE29" s="43"/>
+      <c r="CF29" s="43"/>
+      <c r="CG29" s="43"/>
+      <c r="CH29" s="43"/>
+      <c r="CI29" s="43"/>
+      <c r="CJ29" s="43"/>
+      <c r="CK29" s="43"/>
+      <c r="CL29" s="43"/>
+      <c r="CM29" s="43"/>
+      <c r="CN29" s="43"/>
+      <c r="CO29" s="43"/>
+      <c r="CP29" s="43"/>
+      <c r="CQ29" s="43"/>
+      <c r="CR29" s="43"/>
+      <c r="CS29" s="43"/>
+      <c r="CT29" s="43"/>
+      <c r="CU29" s="43"/>
+      <c r="CV29" s="43"/>
+      <c r="CW29" s="43"/>
+      <c r="CX29" s="43"/>
+      <c r="CY29" s="43"/>
+      <c r="CZ29" s="43"/>
+      <c r="DA29" s="43"/>
+      <c r="DB29" s="43"/>
+      <c r="DC29" s="43"/>
+      <c r="DD29" s="43"/>
+      <c r="DE29" s="43"/>
+      <c r="DF29" s="43"/>
+      <c r="DG29" s="43"/>
+      <c r="DH29" s="43"/>
+      <c r="DI29" s="43"/>
+      <c r="DJ29" s="43"/>
+      <c r="DK29" s="43"/>
+      <c r="DL29" s="43"/>
+      <c r="DM29" s="43"/>
+      <c r="DN29" s="43"/>
+      <c r="DO29" s="43"/>
+      <c r="DP29" s="43"/>
+      <c r="DQ29" s="43"/>
+      <c r="DR29" s="43"/>
+      <c r="DS29" s="43"/>
+      <c r="DT29" s="43"/>
+      <c r="DU29" s="43"/>
+      <c r="DV29" s="43"/>
+      <c r="DW29" s="43"/>
+      <c r="DX29" s="43"/>
+      <c r="DY29" s="43"/>
+      <c r="DZ29" s="43"/>
+      <c r="EA29" s="43"/>
+      <c r="EB29" s="43"/>
+      <c r="EC29" s="43"/>
+      <c r="ED29" s="43"/>
+      <c r="EE29" s="43"/>
+      <c r="EF29" s="43"/>
+      <c r="EG29" s="43"/>
+      <c r="EH29" s="43"/>
+      <c r="EI29" s="43"/>
+      <c r="EJ29" s="43"/>
+      <c r="EK29" s="43"/>
+      <c r="EL29" s="43"/>
+      <c r="EM29" s="43"/>
+      <c r="EN29" s="43"/>
+      <c r="EO29" s="43"/>
+      <c r="EP29" s="43"/>
+      <c r="EQ29" s="43"/>
+      <c r="ER29" s="43"/>
+      <c r="ES29" s="43"/>
+      <c r="ET29" s="43"/>
+      <c r="EU29" s="43"/>
+      <c r="EV29" s="43"/>
+      <c r="EW29" s="43"/>
+      <c r="EX29" s="43"/>
+      <c r="EY29" s="43"/>
+      <c r="EZ29" s="43"/>
+      <c r="FA29" s="43"/>
+      <c r="FB29" s="43"/>
+      <c r="FC29" s="43"/>
+      <c r="FD29" s="43"/>
+      <c r="FE29" s="43"/>
+      <c r="FF29" s="43"/>
+      <c r="FG29" s="43"/>
+      <c r="FH29" s="43"/>
+      <c r="FI29" s="43"/>
+      <c r="FJ29" s="43"/>
+      <c r="FK29" s="43"/>
+      <c r="FL29" s="43"/>
+      <c r="FM29" s="43"/>
+      <c r="FN29" s="43"/>
+      <c r="FO29" s="43"/>
+      <c r="FP29" s="43"/>
+      <c r="FQ29" s="43"/>
+      <c r="FR29" s="43"/>
+      <c r="FS29" s="43"/>
+      <c r="FT29" s="43"/>
+      <c r="FU29" s="43"/>
+      <c r="FV29" s="43"/>
+      <c r="FW29" s="43"/>
+      <c r="FX29" s="43"/>
+      <c r="FY29" s="43"/>
+      <c r="FZ29" s="43"/>
+      <c r="GA29" s="43"/>
+      <c r="GB29" s="43"/>
+      <c r="GC29" s="43"/>
+      <c r="GD29" s="43"/>
+      <c r="GE29" s="43"/>
+      <c r="GF29" s="43"/>
+      <c r="GG29" s="43"/>
+      <c r="GH29" s="43"/>
+      <c r="GI29" s="43"/>
+      <c r="GJ29" s="43"/>
+      <c r="GK29" s="43"/>
+      <c r="GL29" s="43"/>
+      <c r="GM29" s="43"/>
+      <c r="GN29" s="43"/>
+      <c r="GO29" s="43"/>
+      <c r="GP29" s="43"/>
+      <c r="GQ29" s="43"/>
+      <c r="GR29" s="43"/>
+      <c r="GS29" s="43"/>
+      <c r="GT29" s="43"/>
+      <c r="GU29" s="43"/>
+      <c r="GV29" s="43"/>
+      <c r="GW29" s="43"/>
+      <c r="GX29" s="43"/>
+      <c r="GY29" s="43"/>
+      <c r="GZ29" s="43"/>
+      <c r="HA29" s="43"/>
+      <c r="HB29" s="43"/>
+      <c r="HC29" s="43"/>
+      <c r="HD29" s="43"/>
+      <c r="HE29" s="43"/>
+      <c r="HF29" s="43"/>
+      <c r="HG29" s="43"/>
+      <c r="HH29" s="43"/>
+      <c r="HI29" s="43"/>
+      <c r="HJ29" s="43"/>
+      <c r="HK29" s="43"/>
+      <c r="HL29" s="43"/>
+      <c r="HM29" s="43"/>
+      <c r="HN29" s="43"/>
+      <c r="HO29" s="43"/>
+      <c r="HP29" s="43"/>
+      <c r="HQ29" s="43"/>
+      <c r="HR29" s="43"/>
+      <c r="HS29" s="43"/>
+      <c r="HT29" s="43"/>
+      <c r="HU29" s="43"/>
+      <c r="HV29" s="43"/>
+      <c r="HW29" s="43"/>
+      <c r="HX29" s="43"/>
+      <c r="HY29" s="43"/>
+      <c r="HZ29" s="43"/>
+      <c r="IA29" s="43"/>
+      <c r="IB29" s="43"/>
+      <c r="IC29" s="43"/>
+      <c r="ID29" s="43"/>
+      <c r="IE29" s="43"/>
+      <c r="IF29" s="43"/>
+      <c r="IG29" s="43"/>
+      <c r="IH29" s="43"/>
+      <c r="II29" s="43"/>
+      <c r="IJ29" s="43"/>
+      <c r="IK29" s="43"/>
+      <c r="IL29" s="43"/>
+      <c r="IM29" s="43"/>
+      <c r="IN29" s="43"/>
+      <c r="IO29" s="43"/>
+      <c r="IP29" s="43"/>
+    </row>
+    <row r="30" spans="1:250" s="44" customFormat="1" ht="106.5" customHeight="1">
+      <c r="A30" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="42"/>
+      <c r="C30" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="43"/>
+      <c r="T30" s="43"/>
+      <c r="U30" s="43"/>
+      <c r="V30" s="43"/>
+      <c r="W30" s="43"/>
+      <c r="X30" s="43"/>
+      <c r="Y30" s="43"/>
+      <c r="Z30" s="43"/>
+      <c r="AA30" s="43"/>
+      <c r="AB30" s="43"/>
+      <c r="AC30" s="43"/>
+      <c r="AD30" s="43"/>
+      <c r="AE30" s="43"/>
+      <c r="AF30" s="43"/>
+      <c r="AG30" s="43"/>
+      <c r="AH30" s="43"/>
+      <c r="AI30" s="43"/>
+      <c r="AJ30" s="43"/>
+      <c r="AK30" s="43"/>
+      <c r="AL30" s="43"/>
+      <c r="AM30" s="43"/>
+      <c r="AN30" s="43"/>
+      <c r="AO30" s="43"/>
+      <c r="AP30" s="43"/>
+      <c r="AQ30" s="43"/>
+      <c r="AR30" s="43"/>
+      <c r="AS30" s="43"/>
+      <c r="AT30" s="43"/>
+      <c r="AU30" s="43"/>
+      <c r="AV30" s="43"/>
+      <c r="AW30" s="43"/>
+      <c r="AX30" s="43"/>
+      <c r="AY30" s="43"/>
+      <c r="AZ30" s="43"/>
+      <c r="BA30" s="43"/>
+      <c r="BB30" s="43"/>
+      <c r="BC30" s="43"/>
+      <c r="BD30" s="43"/>
+      <c r="BE30" s="43"/>
+      <c r="BF30" s="43"/>
+      <c r="BG30" s="43"/>
+      <c r="BH30" s="43"/>
+      <c r="BI30" s="43"/>
+      <c r="BJ30" s="43"/>
+      <c r="BK30" s="43"/>
+      <c r="BL30" s="43"/>
+      <c r="BM30" s="43"/>
+      <c r="BN30" s="43"/>
+      <c r="BO30" s="43"/>
+      <c r="BP30" s="43"/>
+      <c r="BQ30" s="43"/>
+      <c r="BR30" s="43"/>
+      <c r="BS30" s="43"/>
+      <c r="BT30" s="43"/>
+      <c r="BU30" s="43"/>
+      <c r="BV30" s="43"/>
+      <c r="BW30" s="43"/>
+      <c r="BX30" s="43"/>
+      <c r="BY30" s="43"/>
+      <c r="BZ30" s="43"/>
+      <c r="CA30" s="43"/>
+      <c r="CB30" s="43"/>
+      <c r="CC30" s="43"/>
+      <c r="CD30" s="43"/>
+      <c r="CE30" s="43"/>
+      <c r="CF30" s="43"/>
+      <c r="CG30" s="43"/>
+      <c r="CH30" s="43"/>
+      <c r="CI30" s="43"/>
+      <c r="CJ30" s="43"/>
+      <c r="CK30" s="43"/>
+      <c r="CL30" s="43"/>
+      <c r="CM30" s="43"/>
+      <c r="CN30" s="43"/>
+      <c r="CO30" s="43"/>
+      <c r="CP30" s="43"/>
+      <c r="CQ30" s="43"/>
+      <c r="CR30" s="43"/>
+      <c r="CS30" s="43"/>
+      <c r="CT30" s="43"/>
+      <c r="CU30" s="43"/>
+      <c r="CV30" s="43"/>
+      <c r="CW30" s="43"/>
+      <c r="CX30" s="43"/>
+      <c r="CY30" s="43"/>
+      <c r="CZ30" s="43"/>
+      <c r="DA30" s="43"/>
+      <c r="DB30" s="43"/>
+      <c r="DC30" s="43"/>
+      <c r="DD30" s="43"/>
+      <c r="DE30" s="43"/>
+      <c r="DF30" s="43"/>
+      <c r="DG30" s="43"/>
+      <c r="DH30" s="43"/>
+      <c r="DI30" s="43"/>
+      <c r="DJ30" s="43"/>
+      <c r="DK30" s="43"/>
+      <c r="DL30" s="43"/>
+      <c r="DM30" s="43"/>
+      <c r="DN30" s="43"/>
+      <c r="DO30" s="43"/>
+      <c r="DP30" s="43"/>
+      <c r="DQ30" s="43"/>
+      <c r="DR30" s="43"/>
+      <c r="DS30" s="43"/>
+      <c r="DT30" s="43"/>
+      <c r="DU30" s="43"/>
+      <c r="DV30" s="43"/>
+      <c r="DW30" s="43"/>
+      <c r="DX30" s="43"/>
+      <c r="DY30" s="43"/>
+      <c r="DZ30" s="43"/>
+      <c r="EA30" s="43"/>
+      <c r="EB30" s="43"/>
+      <c r="EC30" s="43"/>
+      <c r="ED30" s="43"/>
+      <c r="EE30" s="43"/>
+      <c r="EF30" s="43"/>
+      <c r="EG30" s="43"/>
+      <c r="EH30" s="43"/>
+      <c r="EI30" s="43"/>
+      <c r="EJ30" s="43"/>
+      <c r="EK30" s="43"/>
+      <c r="EL30" s="43"/>
+      <c r="EM30" s="43"/>
+      <c r="EN30" s="43"/>
+      <c r="EO30" s="43"/>
+      <c r="EP30" s="43"/>
+      <c r="EQ30" s="43"/>
+      <c r="ER30" s="43"/>
+      <c r="ES30" s="43"/>
+      <c r="ET30" s="43"/>
+      <c r="EU30" s="43"/>
+      <c r="EV30" s="43"/>
+      <c r="EW30" s="43"/>
+      <c r="EX30" s="43"/>
+      <c r="EY30" s="43"/>
+      <c r="EZ30" s="43"/>
+      <c r="FA30" s="43"/>
+      <c r="FB30" s="43"/>
+      <c r="FC30" s="43"/>
+      <c r="FD30" s="43"/>
+      <c r="FE30" s="43"/>
+      <c r="FF30" s="43"/>
+      <c r="FG30" s="43"/>
+      <c r="FH30" s="43"/>
+      <c r="FI30" s="43"/>
+      <c r="FJ30" s="43"/>
+      <c r="FK30" s="43"/>
+      <c r="FL30" s="43"/>
+      <c r="FM30" s="43"/>
+      <c r="FN30" s="43"/>
+      <c r="FO30" s="43"/>
+      <c r="FP30" s="43"/>
+      <c r="FQ30" s="43"/>
+      <c r="FR30" s="43"/>
+      <c r="FS30" s="43"/>
+      <c r="FT30" s="43"/>
+      <c r="FU30" s="43"/>
+      <c r="FV30" s="43"/>
+      <c r="FW30" s="43"/>
+      <c r="FX30" s="43"/>
+      <c r="FY30" s="43"/>
+      <c r="FZ30" s="43"/>
+      <c r="GA30" s="43"/>
+      <c r="GB30" s="43"/>
+      <c r="GC30" s="43"/>
+      <c r="GD30" s="43"/>
+      <c r="GE30" s="43"/>
+      <c r="GF30" s="43"/>
+      <c r="GG30" s="43"/>
+      <c r="GH30" s="43"/>
+      <c r="GI30" s="43"/>
+      <c r="GJ30" s="43"/>
+      <c r="GK30" s="43"/>
+      <c r="GL30" s="43"/>
+      <c r="GM30" s="43"/>
+      <c r="GN30" s="43"/>
+      <c r="GO30" s="43"/>
+      <c r="GP30" s="43"/>
+      <c r="GQ30" s="43"/>
+      <c r="GR30" s="43"/>
+      <c r="GS30" s="43"/>
+      <c r="GT30" s="43"/>
+      <c r="GU30" s="43"/>
+      <c r="GV30" s="43"/>
+      <c r="GW30" s="43"/>
+      <c r="GX30" s="43"/>
+      <c r="GY30" s="43"/>
+      <c r="GZ30" s="43"/>
+      <c r="HA30" s="43"/>
+      <c r="HB30" s="43"/>
+      <c r="HC30" s="43"/>
+      <c r="HD30" s="43"/>
+      <c r="HE30" s="43"/>
+      <c r="HF30" s="43"/>
+      <c r="HG30" s="43"/>
+      <c r="HH30" s="43"/>
+      <c r="HI30" s="43"/>
+      <c r="HJ30" s="43"/>
+      <c r="HK30" s="43"/>
+      <c r="HL30" s="43"/>
+      <c r="HM30" s="43"/>
+      <c r="HN30" s="43"/>
+      <c r="HO30" s="43"/>
+      <c r="HP30" s="43"/>
+      <c r="HQ30" s="43"/>
+      <c r="HR30" s="43"/>
+      <c r="HS30" s="43"/>
+      <c r="HT30" s="43"/>
+      <c r="HU30" s="43"/>
+      <c r="HV30" s="43"/>
+      <c r="HW30" s="43"/>
+      <c r="HX30" s="43"/>
+      <c r="HY30" s="43"/>
+      <c r="HZ30" s="43"/>
+      <c r="IA30" s="43"/>
+      <c r="IB30" s="43"/>
+      <c r="IC30" s="43"/>
+      <c r="ID30" s="43"/>
+      <c r="IE30" s="43"/>
+      <c r="IF30" s="43"/>
+      <c r="IG30" s="43"/>
+      <c r="IH30" s="43"/>
+      <c r="II30" s="43"/>
+      <c r="IJ30" s="43"/>
+      <c r="IK30" s="43"/>
+      <c r="IL30" s="43"/>
+      <c r="IM30" s="43"/>
+      <c r="IN30" s="43"/>
+      <c r="IO30" s="43"/>
+      <c r="IP30" s="43"/>
+    </row>
+    <row r="31" spans="1:250" s="44" customFormat="1" ht="108.5" customHeight="1">
+      <c r="A31" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" s="42"/>
+      <c r="C31" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" s="42"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="43"/>
+      <c r="R31" s="43"/>
+      <c r="S31" s="43"/>
+      <c r="T31" s="43"/>
+      <c r="U31" s="43"/>
+      <c r="V31" s="43"/>
+      <c r="W31" s="43"/>
+      <c r="X31" s="43"/>
+      <c r="Y31" s="43"/>
+      <c r="Z31" s="43"/>
+      <c r="AA31" s="43"/>
+      <c r="AB31" s="43"/>
+      <c r="AC31" s="43"/>
+      <c r="AD31" s="43"/>
+      <c r="AE31" s="43"/>
+      <c r="AF31" s="43"/>
+      <c r="AG31" s="43"/>
+      <c r="AH31" s="43"/>
+      <c r="AI31" s="43"/>
+      <c r="AJ31" s="43"/>
+      <c r="AK31" s="43"/>
+      <c r="AL31" s="43"/>
+      <c r="AM31" s="43"/>
+      <c r="AN31" s="43"/>
+      <c r="AO31" s="43"/>
+      <c r="AP31" s="43"/>
+      <c r="AQ31" s="43"/>
+      <c r="AR31" s="43"/>
+      <c r="AS31" s="43"/>
+      <c r="AT31" s="43"/>
+      <c r="AU31" s="43"/>
+      <c r="AV31" s="43"/>
+      <c r="AW31" s="43"/>
+      <c r="AX31" s="43"/>
+      <c r="AY31" s="43"/>
+      <c r="AZ31" s="43"/>
+      <c r="BA31" s="43"/>
+      <c r="BB31" s="43"/>
+      <c r="BC31" s="43"/>
+      <c r="BD31" s="43"/>
+      <c r="BE31" s="43"/>
+      <c r="BF31" s="43"/>
+      <c r="BG31" s="43"/>
+      <c r="BH31" s="43"/>
+      <c r="BI31" s="43"/>
+      <c r="BJ31" s="43"/>
+      <c r="BK31" s="43"/>
+      <c r="BL31" s="43"/>
+      <c r="BM31" s="43"/>
+      <c r="BN31" s="43"/>
+      <c r="BO31" s="43"/>
+      <c r="BP31" s="43"/>
+      <c r="BQ31" s="43"/>
+      <c r="BR31" s="43"/>
+      <c r="BS31" s="43"/>
+      <c r="BT31" s="43"/>
+      <c r="BU31" s="43"/>
+      <c r="BV31" s="43"/>
+      <c r="BW31" s="43"/>
+      <c r="BX31" s="43"/>
+      <c r="BY31" s="43"/>
+      <c r="BZ31" s="43"/>
+      <c r="CA31" s="43"/>
+      <c r="CB31" s="43"/>
+      <c r="CC31" s="43"/>
+      <c r="CD31" s="43"/>
+      <c r="CE31" s="43"/>
+      <c r="CF31" s="43"/>
+      <c r="CG31" s="43"/>
+      <c r="CH31" s="43"/>
+      <c r="CI31" s="43"/>
+      <c r="CJ31" s="43"/>
+      <c r="CK31" s="43"/>
+      <c r="CL31" s="43"/>
+      <c r="CM31" s="43"/>
+      <c r="CN31" s="43"/>
+      <c r="CO31" s="43"/>
+      <c r="CP31" s="43"/>
+      <c r="CQ31" s="43"/>
+      <c r="CR31" s="43"/>
+      <c r="CS31" s="43"/>
+      <c r="CT31" s="43"/>
+      <c r="CU31" s="43"/>
+      <c r="CV31" s="43"/>
+      <c r="CW31" s="43"/>
+      <c r="CX31" s="43"/>
+      <c r="CY31" s="43"/>
+      <c r="CZ31" s="43"/>
+      <c r="DA31" s="43"/>
+      <c r="DB31" s="43"/>
+      <c r="DC31" s="43"/>
+      <c r="DD31" s="43"/>
+      <c r="DE31" s="43"/>
+      <c r="DF31" s="43"/>
+      <c r="DG31" s="43"/>
+      <c r="DH31" s="43"/>
+      <c r="DI31" s="43"/>
+      <c r="DJ31" s="43"/>
+      <c r="DK31" s="43"/>
+      <c r="DL31" s="43"/>
+      <c r="DM31" s="43"/>
+      <c r="DN31" s="43"/>
+      <c r="DO31" s="43"/>
+      <c r="DP31" s="43"/>
+      <c r="DQ31" s="43"/>
+      <c r="DR31" s="43"/>
+      <c r="DS31" s="43"/>
+      <c r="DT31" s="43"/>
+      <c r="DU31" s="43"/>
+      <c r="DV31" s="43"/>
+      <c r="DW31" s="43"/>
+      <c r="DX31" s="43"/>
+      <c r="DY31" s="43"/>
+      <c r="DZ31" s="43"/>
+      <c r="EA31" s="43"/>
+      <c r="EB31" s="43"/>
+      <c r="EC31" s="43"/>
+      <c r="ED31" s="43"/>
+      <c r="EE31" s="43"/>
+      <c r="EF31" s="43"/>
+      <c r="EG31" s="43"/>
+      <c r="EH31" s="43"/>
+      <c r="EI31" s="43"/>
+      <c r="EJ31" s="43"/>
+      <c r="EK31" s="43"/>
+      <c r="EL31" s="43"/>
+      <c r="EM31" s="43"/>
+      <c r="EN31" s="43"/>
+      <c r="EO31" s="43"/>
+      <c r="EP31" s="43"/>
+      <c r="EQ31" s="43"/>
+      <c r="ER31" s="43"/>
+      <c r="ES31" s="43"/>
+      <c r="ET31" s="43"/>
+      <c r="EU31" s="43"/>
+      <c r="EV31" s="43"/>
+      <c r="EW31" s="43"/>
+      <c r="EX31" s="43"/>
+      <c r="EY31" s="43"/>
+      <c r="EZ31" s="43"/>
+      <c r="FA31" s="43"/>
+      <c r="FB31" s="43"/>
+      <c r="FC31" s="43"/>
+      <c r="FD31" s="43"/>
+      <c r="FE31" s="43"/>
+      <c r="FF31" s="43"/>
+      <c r="FG31" s="43"/>
+      <c r="FH31" s="43"/>
+      <c r="FI31" s="43"/>
+      <c r="FJ31" s="43"/>
+      <c r="FK31" s="43"/>
+      <c r="FL31" s="43"/>
+      <c r="FM31" s="43"/>
+      <c r="FN31" s="43"/>
+      <c r="FO31" s="43"/>
+      <c r="FP31" s="43"/>
+      <c r="FQ31" s="43"/>
+      <c r="FR31" s="43"/>
+      <c r="FS31" s="43"/>
+      <c r="FT31" s="43"/>
+      <c r="FU31" s="43"/>
+      <c r="FV31" s="43"/>
+      <c r="FW31" s="43"/>
+      <c r="FX31" s="43"/>
+      <c r="FY31" s="43"/>
+      <c r="FZ31" s="43"/>
+      <c r="GA31" s="43"/>
+      <c r="GB31" s="43"/>
+      <c r="GC31" s="43"/>
+      <c r="GD31" s="43"/>
+      <c r="GE31" s="43"/>
+      <c r="GF31" s="43"/>
+      <c r="GG31" s="43"/>
+      <c r="GH31" s="43"/>
+      <c r="GI31" s="43"/>
+      <c r="GJ31" s="43"/>
+      <c r="GK31" s="43"/>
+      <c r="GL31" s="43"/>
+      <c r="GM31" s="43"/>
+      <c r="GN31" s="43"/>
+      <c r="GO31" s="43"/>
+      <c r="GP31" s="43"/>
+      <c r="GQ31" s="43"/>
+      <c r="GR31" s="43"/>
+      <c r="GS31" s="43"/>
+      <c r="GT31" s="43"/>
+      <c r="GU31" s="43"/>
+      <c r="GV31" s="43"/>
+      <c r="GW31" s="43"/>
+      <c r="GX31" s="43"/>
+      <c r="GY31" s="43"/>
+      <c r="GZ31" s="43"/>
+      <c r="HA31" s="43"/>
+      <c r="HB31" s="43"/>
+      <c r="HC31" s="43"/>
+      <c r="HD31" s="43"/>
+      <c r="HE31" s="43"/>
+      <c r="HF31" s="43"/>
+      <c r="HG31" s="43"/>
+      <c r="HH31" s="43"/>
+      <c r="HI31" s="43"/>
+      <c r="HJ31" s="43"/>
+      <c r="HK31" s="43"/>
+      <c r="HL31" s="43"/>
+      <c r="HM31" s="43"/>
+      <c r="HN31" s="43"/>
+      <c r="HO31" s="43"/>
+      <c r="HP31" s="43"/>
+      <c r="HQ31" s="43"/>
+      <c r="HR31" s="43"/>
+      <c r="HS31" s="43"/>
+      <c r="HT31" s="43"/>
+      <c r="HU31" s="43"/>
+      <c r="HV31" s="43"/>
+      <c r="HW31" s="43"/>
+      <c r="HX31" s="43"/>
+      <c r="HY31" s="43"/>
+      <c r="HZ31" s="43"/>
+      <c r="IA31" s="43"/>
+      <c r="IB31" s="43"/>
+      <c r="IC31" s="43"/>
+      <c r="ID31" s="43"/>
+      <c r="IE31" s="43"/>
+      <c r="IF31" s="43"/>
+      <c r="IG31" s="43"/>
+      <c r="IH31" s="43"/>
+      <c r="II31" s="43"/>
+      <c r="IJ31" s="43"/>
+      <c r="IK31" s="43"/>
+      <c r="IL31" s="43"/>
+      <c r="IM31" s="43"/>
+      <c r="IN31" s="43"/>
+      <c r="IO31" s="43"/>
+      <c r="IP31" s="43"/>
+    </row>
+    <row r="32" spans="1:250" s="44" customFormat="1" ht="108" customHeight="1">
+      <c r="A32" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="E32" s="42"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="43"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="43"/>
+      <c r="T32" s="43"/>
+      <c r="U32" s="43"/>
+      <c r="V32" s="43"/>
+      <c r="W32" s="43"/>
+      <c r="X32" s="43"/>
+      <c r="Y32" s="43"/>
+      <c r="Z32" s="43"/>
+      <c r="AA32" s="43"/>
+      <c r="AB32" s="43"/>
+      <c r="AC32" s="43"/>
+      <c r="AD32" s="43"/>
+      <c r="AE32" s="43"/>
+      <c r="AF32" s="43"/>
+      <c r="AG32" s="43"/>
+      <c r="AH32" s="43"/>
+      <c r="AI32" s="43"/>
+      <c r="AJ32" s="43"/>
+      <c r="AK32" s="43"/>
+      <c r="AL32" s="43"/>
+      <c r="AM32" s="43"/>
+      <c r="AN32" s="43"/>
+      <c r="AO32" s="43"/>
+      <c r="AP32" s="43"/>
+      <c r="AQ32" s="43"/>
+      <c r="AR32" s="43"/>
+      <c r="AS32" s="43"/>
+      <c r="AT32" s="43"/>
+      <c r="AU32" s="43"/>
+      <c r="AV32" s="43"/>
+      <c r="AW32" s="43"/>
+      <c r="AX32" s="43"/>
+      <c r="AY32" s="43"/>
+      <c r="AZ32" s="43"/>
+      <c r="BA32" s="43"/>
+      <c r="BB32" s="43"/>
+      <c r="BC32" s="43"/>
+      <c r="BD32" s="43"/>
+      <c r="BE32" s="43"/>
+      <c r="BF32" s="43"/>
+      <c r="BG32" s="43"/>
+      <c r="BH32" s="43"/>
+      <c r="BI32" s="43"/>
+      <c r="BJ32" s="43"/>
+      <c r="BK32" s="43"/>
+      <c r="BL32" s="43"/>
+      <c r="BM32" s="43"/>
+      <c r="BN32" s="43"/>
+      <c r="BO32" s="43"/>
+      <c r="BP32" s="43"/>
+      <c r="BQ32" s="43"/>
+      <c r="BR32" s="43"/>
+      <c r="BS32" s="43"/>
+      <c r="BT32" s="43"/>
+      <c r="BU32" s="43"/>
+      <c r="BV32" s="43"/>
+      <c r="BW32" s="43"/>
+      <c r="BX32" s="43"/>
+      <c r="BY32" s="43"/>
+      <c r="BZ32" s="43"/>
+      <c r="CA32" s="43"/>
+      <c r="CB32" s="43"/>
+      <c r="CC32" s="43"/>
+      <c r="CD32" s="43"/>
+      <c r="CE32" s="43"/>
+      <c r="CF32" s="43"/>
+      <c r="CG32" s="43"/>
+      <c r="CH32" s="43"/>
+      <c r="CI32" s="43"/>
+      <c r="CJ32" s="43"/>
+      <c r="CK32" s="43"/>
+      <c r="CL32" s="43"/>
+      <c r="CM32" s="43"/>
+      <c r="CN32" s="43"/>
+      <c r="CO32" s="43"/>
+      <c r="CP32" s="43"/>
+      <c r="CQ32" s="43"/>
+      <c r="CR32" s="43"/>
+      <c r="CS32" s="43"/>
+      <c r="CT32" s="43"/>
+      <c r="CU32" s="43"/>
+      <c r="CV32" s="43"/>
+      <c r="CW32" s="43"/>
+      <c r="CX32" s="43"/>
+      <c r="CY32" s="43"/>
+      <c r="CZ32" s="43"/>
+      <c r="DA32" s="43"/>
+      <c r="DB32" s="43"/>
+      <c r="DC32" s="43"/>
+      <c r="DD32" s="43"/>
+      <c r="DE32" s="43"/>
+      <c r="DF32" s="43"/>
+      <c r="DG32" s="43"/>
+      <c r="DH32" s="43"/>
+      <c r="DI32" s="43"/>
+      <c r="DJ32" s="43"/>
+      <c r="DK32" s="43"/>
+      <c r="DL32" s="43"/>
+      <c r="DM32" s="43"/>
+      <c r="DN32" s="43"/>
+      <c r="DO32" s="43"/>
+      <c r="DP32" s="43"/>
+      <c r="DQ32" s="43"/>
+      <c r="DR32" s="43"/>
+      <c r="DS32" s="43"/>
+      <c r="DT32" s="43"/>
+      <c r="DU32" s="43"/>
+      <c r="DV32" s="43"/>
+      <c r="DW32" s="43"/>
+      <c r="DX32" s="43"/>
+      <c r="DY32" s="43"/>
+      <c r="DZ32" s="43"/>
+      <c r="EA32" s="43"/>
+      <c r="EB32" s="43"/>
+      <c r="EC32" s="43"/>
+      <c r="ED32" s="43"/>
+      <c r="EE32" s="43"/>
+      <c r="EF32" s="43"/>
+      <c r="EG32" s="43"/>
+      <c r="EH32" s="43"/>
+      <c r="EI32" s="43"/>
+      <c r="EJ32" s="43"/>
+      <c r="EK32" s="43"/>
+      <c r="EL32" s="43"/>
+      <c r="EM32" s="43"/>
+      <c r="EN32" s="43"/>
+      <c r="EO32" s="43"/>
+      <c r="EP32" s="43"/>
+      <c r="EQ32" s="43"/>
+      <c r="ER32" s="43"/>
+      <c r="ES32" s="43"/>
+      <c r="ET32" s="43"/>
+      <c r="EU32" s="43"/>
+      <c r="EV32" s="43"/>
+      <c r="EW32" s="43"/>
+      <c r="EX32" s="43"/>
+      <c r="EY32" s="43"/>
+      <c r="EZ32" s="43"/>
+      <c r="FA32" s="43"/>
+      <c r="FB32" s="43"/>
+      <c r="FC32" s="43"/>
+      <c r="FD32" s="43"/>
+      <c r="FE32" s="43"/>
+      <c r="FF32" s="43"/>
+      <c r="FG32" s="43"/>
+      <c r="FH32" s="43"/>
+      <c r="FI32" s="43"/>
+      <c r="FJ32" s="43"/>
+      <c r="FK32" s="43"/>
+      <c r="FL32" s="43"/>
+      <c r="FM32" s="43"/>
+      <c r="FN32" s="43"/>
+      <c r="FO32" s="43"/>
+      <c r="FP32" s="43"/>
+      <c r="FQ32" s="43"/>
+      <c r="FR32" s="43"/>
+      <c r="FS32" s="43"/>
+      <c r="FT32" s="43"/>
+      <c r="FU32" s="43"/>
+      <c r="FV32" s="43"/>
+      <c r="FW32" s="43"/>
+      <c r="FX32" s="43"/>
+      <c r="FY32" s="43"/>
+      <c r="FZ32" s="43"/>
+      <c r="GA32" s="43"/>
+      <c r="GB32" s="43"/>
+      <c r="GC32" s="43"/>
+      <c r="GD32" s="43"/>
+      <c r="GE32" s="43"/>
+      <c r="GF32" s="43"/>
+      <c r="GG32" s="43"/>
+      <c r="GH32" s="43"/>
+      <c r="GI32" s="43"/>
+      <c r="GJ32" s="43"/>
+      <c r="GK32" s="43"/>
+      <c r="GL32" s="43"/>
+      <c r="GM32" s="43"/>
+      <c r="GN32" s="43"/>
+      <c r="GO32" s="43"/>
+      <c r="GP32" s="43"/>
+      <c r="GQ32" s="43"/>
+      <c r="GR32" s="43"/>
+      <c r="GS32" s="43"/>
+      <c r="GT32" s="43"/>
+      <c r="GU32" s="43"/>
+      <c r="GV32" s="43"/>
+      <c r="GW32" s="43"/>
+      <c r="GX32" s="43"/>
+      <c r="GY32" s="43"/>
+      <c r="GZ32" s="43"/>
+      <c r="HA32" s="43"/>
+      <c r="HB32" s="43"/>
+      <c r="HC32" s="43"/>
+      <c r="HD32" s="43"/>
+      <c r="HE32" s="43"/>
+      <c r="HF32" s="43"/>
+      <c r="HG32" s="43"/>
+      <c r="HH32" s="43"/>
+      <c r="HI32" s="43"/>
+      <c r="HJ32" s="43"/>
+      <c r="HK32" s="43"/>
+      <c r="HL32" s="43"/>
+      <c r="HM32" s="43"/>
+      <c r="HN32" s="43"/>
+      <c r="HO32" s="43"/>
+      <c r="HP32" s="43"/>
+      <c r="HQ32" s="43"/>
+      <c r="HR32" s="43"/>
+      <c r="HS32" s="43"/>
+      <c r="HT32" s="43"/>
+      <c r="HU32" s="43"/>
+      <c r="HV32" s="43"/>
+      <c r="HW32" s="43"/>
+      <c r="HX32" s="43"/>
+      <c r="HY32" s="43"/>
+      <c r="HZ32" s="43"/>
+      <c r="IA32" s="43"/>
+      <c r="IB32" s="43"/>
+      <c r="IC32" s="43"/>
+      <c r="ID32" s="43"/>
+      <c r="IE32" s="43"/>
+      <c r="IF32" s="43"/>
+      <c r="IG32" s="43"/>
+      <c r="IH32" s="43"/>
+      <c r="II32" s="43"/>
+      <c r="IJ32" s="43"/>
+      <c r="IK32" s="43"/>
+      <c r="IL32" s="43"/>
+      <c r="IM32" s="43"/>
+      <c r="IN32" s="43"/>
+      <c r="IO32" s="43"/>
+      <c r="IP32" s="43"/>
+    </row>
+    <row r="33" spans="1:250" s="44" customFormat="1" ht="112" customHeight="1">
+      <c r="A33" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="E33" s="42"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="43"/>
+      <c r="R33" s="43"/>
+      <c r="S33" s="43"/>
+      <c r="T33" s="43"/>
+      <c r="U33" s="43"/>
+      <c r="V33" s="43"/>
+      <c r="W33" s="43"/>
+      <c r="X33" s="43"/>
+      <c r="Y33" s="43"/>
+      <c r="Z33" s="43"/>
+      <c r="AA33" s="43"/>
+      <c r="AB33" s="43"/>
+      <c r="AC33" s="43"/>
+      <c r="AD33" s="43"/>
+      <c r="AE33" s="43"/>
+      <c r="AF33" s="43"/>
+      <c r="AG33" s="43"/>
+      <c r="AH33" s="43"/>
+      <c r="AI33" s="43"/>
+      <c r="AJ33" s="43"/>
+      <c r="AK33" s="43"/>
+      <c r="AL33" s="43"/>
+      <c r="AM33" s="43"/>
+      <c r="AN33" s="43"/>
+      <c r="AO33" s="43"/>
+      <c r="AP33" s="43"/>
+      <c r="AQ33" s="43"/>
+      <c r="AR33" s="43"/>
+      <c r="AS33" s="43"/>
+      <c r="AT33" s="43"/>
+      <c r="AU33" s="43"/>
+      <c r="AV33" s="43"/>
+      <c r="AW33" s="43"/>
+      <c r="AX33" s="43"/>
+      <c r="AY33" s="43"/>
+      <c r="AZ33" s="43"/>
+      <c r="BA33" s="43"/>
+      <c r="BB33" s="43"/>
+      <c r="BC33" s="43"/>
+      <c r="BD33" s="43"/>
+      <c r="BE33" s="43"/>
+      <c r="BF33" s="43"/>
+      <c r="BG33" s="43"/>
+      <c r="BH33" s="43"/>
+      <c r="BI33" s="43"/>
+      <c r="BJ33" s="43"/>
+      <c r="BK33" s="43"/>
+      <c r="BL33" s="43"/>
+      <c r="BM33" s="43"/>
+      <c r="BN33" s="43"/>
+      <c r="BO33" s="43"/>
+      <c r="BP33" s="43"/>
+      <c r="BQ33" s="43"/>
+      <c r="BR33" s="43"/>
+      <c r="BS33" s="43"/>
+      <c r="BT33" s="43"/>
+      <c r="BU33" s="43"/>
+      <c r="BV33" s="43"/>
+      <c r="BW33" s="43"/>
+      <c r="BX33" s="43"/>
+      <c r="BY33" s="43"/>
+      <c r="BZ33" s="43"/>
+      <c r="CA33" s="43"/>
+      <c r="CB33" s="43"/>
+      <c r="CC33" s="43"/>
+      <c r="CD33" s="43"/>
+      <c r="CE33" s="43"/>
+      <c r="CF33" s="43"/>
+      <c r="CG33" s="43"/>
+      <c r="CH33" s="43"/>
+      <c r="CI33" s="43"/>
+      <c r="CJ33" s="43"/>
+      <c r="CK33" s="43"/>
+      <c r="CL33" s="43"/>
+      <c r="CM33" s="43"/>
+      <c r="CN33" s="43"/>
+      <c r="CO33" s="43"/>
+      <c r="CP33" s="43"/>
+      <c r="CQ33" s="43"/>
+      <c r="CR33" s="43"/>
+      <c r="CS33" s="43"/>
+      <c r="CT33" s="43"/>
+      <c r="CU33" s="43"/>
+      <c r="CV33" s="43"/>
+      <c r="CW33" s="43"/>
+      <c r="CX33" s="43"/>
+      <c r="CY33" s="43"/>
+      <c r="CZ33" s="43"/>
+      <c r="DA33" s="43"/>
+      <c r="DB33" s="43"/>
+      <c r="DC33" s="43"/>
+      <c r="DD33" s="43"/>
+      <c r="DE33" s="43"/>
+      <c r="DF33" s="43"/>
+      <c r="DG33" s="43"/>
+      <c r="DH33" s="43"/>
+      <c r="DI33" s="43"/>
+      <c r="DJ33" s="43"/>
+      <c r="DK33" s="43"/>
+      <c r="DL33" s="43"/>
+      <c r="DM33" s="43"/>
+      <c r="DN33" s="43"/>
+      <c r="DO33" s="43"/>
+      <c r="DP33" s="43"/>
+      <c r="DQ33" s="43"/>
+      <c r="DR33" s="43"/>
+      <c r="DS33" s="43"/>
+      <c r="DT33" s="43"/>
+      <c r="DU33" s="43"/>
+      <c r="DV33" s="43"/>
+      <c r="DW33" s="43"/>
+      <c r="DX33" s="43"/>
+      <c r="DY33" s="43"/>
+      <c r="DZ33" s="43"/>
+      <c r="EA33" s="43"/>
+      <c r="EB33" s="43"/>
+      <c r="EC33" s="43"/>
+      <c r="ED33" s="43"/>
+      <c r="EE33" s="43"/>
+      <c r="EF33" s="43"/>
+      <c r="EG33" s="43"/>
+      <c r="EH33" s="43"/>
+      <c r="EI33" s="43"/>
+      <c r="EJ33" s="43"/>
+      <c r="EK33" s="43"/>
+      <c r="EL33" s="43"/>
+      <c r="EM33" s="43"/>
+      <c r="EN33" s="43"/>
+      <c r="EO33" s="43"/>
+      <c r="EP33" s="43"/>
+      <c r="EQ33" s="43"/>
+      <c r="ER33" s="43"/>
+      <c r="ES33" s="43"/>
+      <c r="ET33" s="43"/>
+      <c r="EU33" s="43"/>
+      <c r="EV33" s="43"/>
+      <c r="EW33" s="43"/>
+      <c r="EX33" s="43"/>
+      <c r="EY33" s="43"/>
+      <c r="EZ33" s="43"/>
+      <c r="FA33" s="43"/>
+      <c r="FB33" s="43"/>
+      <c r="FC33" s="43"/>
+      <c r="FD33" s="43"/>
+      <c r="FE33" s="43"/>
+      <c r="FF33" s="43"/>
+      <c r="FG33" s="43"/>
+      <c r="FH33" s="43"/>
+      <c r="FI33" s="43"/>
+      <c r="FJ33" s="43"/>
+      <c r="FK33" s="43"/>
+      <c r="FL33" s="43"/>
+      <c r="FM33" s="43"/>
+      <c r="FN33" s="43"/>
+      <c r="FO33" s="43"/>
+      <c r="FP33" s="43"/>
+      <c r="FQ33" s="43"/>
+      <c r="FR33" s="43"/>
+      <c r="FS33" s="43"/>
+      <c r="FT33" s="43"/>
+      <c r="FU33" s="43"/>
+      <c r="FV33" s="43"/>
+      <c r="FW33" s="43"/>
+      <c r="FX33" s="43"/>
+      <c r="FY33" s="43"/>
+      <c r="FZ33" s="43"/>
+      <c r="GA33" s="43"/>
+      <c r="GB33" s="43"/>
+      <c r="GC33" s="43"/>
+      <c r="GD33" s="43"/>
+      <c r="GE33" s="43"/>
+      <c r="GF33" s="43"/>
+      <c r="GG33" s="43"/>
+      <c r="GH33" s="43"/>
+      <c r="GI33" s="43"/>
+      <c r="GJ33" s="43"/>
+      <c r="GK33" s="43"/>
+      <c r="GL33" s="43"/>
+      <c r="GM33" s="43"/>
+      <c r="GN33" s="43"/>
+      <c r="GO33" s="43"/>
+      <c r="GP33" s="43"/>
+      <c r="GQ33" s="43"/>
+      <c r="GR33" s="43"/>
+      <c r="GS33" s="43"/>
+      <c r="GT33" s="43"/>
+      <c r="GU33" s="43"/>
+      <c r="GV33" s="43"/>
+      <c r="GW33" s="43"/>
+      <c r="GX33" s="43"/>
+      <c r="GY33" s="43"/>
+      <c r="GZ33" s="43"/>
+      <c r="HA33" s="43"/>
+      <c r="HB33" s="43"/>
+      <c r="HC33" s="43"/>
+      <c r="HD33" s="43"/>
+      <c r="HE33" s="43"/>
+      <c r="HF33" s="43"/>
+      <c r="HG33" s="43"/>
+      <c r="HH33" s="43"/>
+      <c r="HI33" s="43"/>
+      <c r="HJ33" s="43"/>
+      <c r="HK33" s="43"/>
+      <c r="HL33" s="43"/>
+      <c r="HM33" s="43"/>
+      <c r="HN33" s="43"/>
+      <c r="HO33" s="43"/>
+      <c r="HP33" s="43"/>
+      <c r="HQ33" s="43"/>
+      <c r="HR33" s="43"/>
+      <c r="HS33" s="43"/>
+      <c r="HT33" s="43"/>
+      <c r="HU33" s="43"/>
+      <c r="HV33" s="43"/>
+      <c r="HW33" s="43"/>
+      <c r="HX33" s="43"/>
+      <c r="HY33" s="43"/>
+      <c r="HZ33" s="43"/>
+      <c r="IA33" s="43"/>
+      <c r="IB33" s="43"/>
+      <c r="IC33" s="43"/>
+      <c r="ID33" s="43"/>
+      <c r="IE33" s="43"/>
+      <c r="IF33" s="43"/>
+      <c r="IG33" s="43"/>
+      <c r="IH33" s="43"/>
+      <c r="II33" s="43"/>
+      <c r="IJ33" s="43"/>
+      <c r="IK33" s="43"/>
+      <c r="IL33" s="43"/>
+      <c r="IM33" s="43"/>
+      <c r="IN33" s="43"/>
+      <c r="IO33" s="43"/>
+      <c r="IP33" s="43"/>
+    </row>
+    <row r="34" spans="1:250" s="44" customFormat="1" ht="120.5" customHeight="1">
+      <c r="A34" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" s="42"/>
+      <c r="C34" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="E34" s="42"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="43"/>
+      <c r="R34" s="43"/>
+      <c r="S34" s="43"/>
+      <c r="T34" s="43"/>
+      <c r="U34" s="43"/>
+      <c r="V34" s="43"/>
+      <c r="W34" s="43"/>
+      <c r="X34" s="43"/>
+      <c r="Y34" s="43"/>
+      <c r="Z34" s="43"/>
+      <c r="AA34" s="43"/>
+      <c r="AB34" s="43"/>
+      <c r="AC34" s="43"/>
+      <c r="AD34" s="43"/>
+      <c r="AE34" s="43"/>
+      <c r="AF34" s="43"/>
+      <c r="AG34" s="43"/>
+      <c r="AH34" s="43"/>
+      <c r="AI34" s="43"/>
+      <c r="AJ34" s="43"/>
+      <c r="AK34" s="43"/>
+      <c r="AL34" s="43"/>
+      <c r="AM34" s="43"/>
+      <c r="AN34" s="43"/>
+      <c r="AO34" s="43"/>
+      <c r="AP34" s="43"/>
+      <c r="AQ34" s="43"/>
+      <c r="AR34" s="43"/>
+      <c r="AS34" s="43"/>
+      <c r="AT34" s="43"/>
+      <c r="AU34" s="43"/>
+      <c r="AV34" s="43"/>
+      <c r="AW34" s="43"/>
+      <c r="AX34" s="43"/>
+      <c r="AY34" s="43"/>
+      <c r="AZ34" s="43"/>
+      <c r="BA34" s="43"/>
+      <c r="BB34" s="43"/>
+      <c r="BC34" s="43"/>
+      <c r="BD34" s="43"/>
+      <c r="BE34" s="43"/>
+      <c r="BF34" s="43"/>
+      <c r="BG34" s="43"/>
+      <c r="BH34" s="43"/>
+      <c r="BI34" s="43"/>
+      <c r="BJ34" s="43"/>
+      <c r="BK34" s="43"/>
+      <c r="BL34" s="43"/>
+      <c r="BM34" s="43"/>
+      <c r="BN34" s="43"/>
+      <c r="BO34" s="43"/>
+      <c r="BP34" s="43"/>
+      <c r="BQ34" s="43"/>
+      <c r="BR34" s="43"/>
+      <c r="BS34" s="43"/>
+      <c r="BT34" s="43"/>
+      <c r="BU34" s="43"/>
+      <c r="BV34" s="43"/>
+      <c r="BW34" s="43"/>
+      <c r="BX34" s="43"/>
+      <c r="BY34" s="43"/>
+      <c r="BZ34" s="43"/>
+      <c r="CA34" s="43"/>
+      <c r="CB34" s="43"/>
+      <c r="CC34" s="43"/>
+      <c r="CD34" s="43"/>
+      <c r="CE34" s="43"/>
+      <c r="CF34" s="43"/>
+      <c r="CG34" s="43"/>
+      <c r="CH34" s="43"/>
+      <c r="CI34" s="43"/>
+      <c r="CJ34" s="43"/>
+      <c r="CK34" s="43"/>
+      <c r="CL34" s="43"/>
+      <c r="CM34" s="43"/>
+      <c r="CN34" s="43"/>
+      <c r="CO34" s="43"/>
+      <c r="CP34" s="43"/>
+      <c r="CQ34" s="43"/>
+      <c r="CR34" s="43"/>
+      <c r="CS34" s="43"/>
+      <c r="CT34" s="43"/>
+      <c r="CU34" s="43"/>
+      <c r="CV34" s="43"/>
+      <c r="CW34" s="43"/>
+      <c r="CX34" s="43"/>
+      <c r="CY34" s="43"/>
+      <c r="CZ34" s="43"/>
+      <c r="DA34" s="43"/>
+      <c r="DB34" s="43"/>
+      <c r="DC34" s="43"/>
+      <c r="DD34" s="43"/>
+      <c r="DE34" s="43"/>
+      <c r="DF34" s="43"/>
+      <c r="DG34" s="43"/>
+      <c r="DH34" s="43"/>
+      <c r="DI34" s="43"/>
+      <c r="DJ34" s="43"/>
+      <c r="DK34" s="43"/>
+      <c r="DL34" s="43"/>
+      <c r="DM34" s="43"/>
+      <c r="DN34" s="43"/>
+      <c r="DO34" s="43"/>
+      <c r="DP34" s="43"/>
+      <c r="DQ34" s="43"/>
+      <c r="DR34" s="43"/>
+      <c r="DS34" s="43"/>
+      <c r="DT34" s="43"/>
+      <c r="DU34" s="43"/>
+      <c r="DV34" s="43"/>
+      <c r="DW34" s="43"/>
+      <c r="DX34" s="43"/>
+      <c r="DY34" s="43"/>
+      <c r="DZ34" s="43"/>
+      <c r="EA34" s="43"/>
+      <c r="EB34" s="43"/>
+      <c r="EC34" s="43"/>
+      <c r="ED34" s="43"/>
+      <c r="EE34" s="43"/>
+      <c r="EF34" s="43"/>
+      <c r="EG34" s="43"/>
+      <c r="EH34" s="43"/>
+      <c r="EI34" s="43"/>
+      <c r="EJ34" s="43"/>
+      <c r="EK34" s="43"/>
+      <c r="EL34" s="43"/>
+      <c r="EM34" s="43"/>
+      <c r="EN34" s="43"/>
+      <c r="EO34" s="43"/>
+      <c r="EP34" s="43"/>
+      <c r="EQ34" s="43"/>
+      <c r="ER34" s="43"/>
+      <c r="ES34" s="43"/>
+      <c r="ET34" s="43"/>
+      <c r="EU34" s="43"/>
+      <c r="EV34" s="43"/>
+      <c r="EW34" s="43"/>
+      <c r="EX34" s="43"/>
+      <c r="EY34" s="43"/>
+      <c r="EZ34" s="43"/>
+      <c r="FA34" s="43"/>
+      <c r="FB34" s="43"/>
+      <c r="FC34" s="43"/>
+      <c r="FD34" s="43"/>
+      <c r="FE34" s="43"/>
+      <c r="FF34" s="43"/>
+      <c r="FG34" s="43"/>
+      <c r="FH34" s="43"/>
+      <c r="FI34" s="43"/>
+      <c r="FJ34" s="43"/>
+      <c r="FK34" s="43"/>
+      <c r="FL34" s="43"/>
+      <c r="FM34" s="43"/>
+      <c r="FN34" s="43"/>
+      <c r="FO34" s="43"/>
+      <c r="FP34" s="43"/>
+      <c r="FQ34" s="43"/>
+      <c r="FR34" s="43"/>
+      <c r="FS34" s="43"/>
+      <c r="FT34" s="43"/>
+      <c r="FU34" s="43"/>
+      <c r="FV34" s="43"/>
+      <c r="FW34" s="43"/>
+      <c r="FX34" s="43"/>
+      <c r="FY34" s="43"/>
+      <c r="FZ34" s="43"/>
+      <c r="GA34" s="43"/>
+      <c r="GB34" s="43"/>
+      <c r="GC34" s="43"/>
+      <c r="GD34" s="43"/>
+      <c r="GE34" s="43"/>
+      <c r="GF34" s="43"/>
+      <c r="GG34" s="43"/>
+      <c r="GH34" s="43"/>
+      <c r="GI34" s="43"/>
+      <c r="GJ34" s="43"/>
+      <c r="GK34" s="43"/>
+      <c r="GL34" s="43"/>
+      <c r="GM34" s="43"/>
+      <c r="GN34" s="43"/>
+      <c r="GO34" s="43"/>
+      <c r="GP34" s="43"/>
+      <c r="GQ34" s="43"/>
+      <c r="GR34" s="43"/>
+      <c r="GS34" s="43"/>
+      <c r="GT34" s="43"/>
+      <c r="GU34" s="43"/>
+      <c r="GV34" s="43"/>
+      <c r="GW34" s="43"/>
+      <c r="GX34" s="43"/>
+      <c r="GY34" s="43"/>
+      <c r="GZ34" s="43"/>
+      <c r="HA34" s="43"/>
+      <c r="HB34" s="43"/>
+      <c r="HC34" s="43"/>
+      <c r="HD34" s="43"/>
+      <c r="HE34" s="43"/>
+      <c r="HF34" s="43"/>
+      <c r="HG34" s="43"/>
+      <c r="HH34" s="43"/>
+      <c r="HI34" s="43"/>
+      <c r="HJ34" s="43"/>
+      <c r="HK34" s="43"/>
+      <c r="HL34" s="43"/>
+      <c r="HM34" s="43"/>
+      <c r="HN34" s="43"/>
+      <c r="HO34" s="43"/>
+      <c r="HP34" s="43"/>
+      <c r="HQ34" s="43"/>
+      <c r="HR34" s="43"/>
+      <c r="HS34" s="43"/>
+      <c r="HT34" s="43"/>
+      <c r="HU34" s="43"/>
+      <c r="HV34" s="43"/>
+      <c r="HW34" s="43"/>
+      <c r="HX34" s="43"/>
+      <c r="HY34" s="43"/>
+      <c r="HZ34" s="43"/>
+      <c r="IA34" s="43"/>
+      <c r="IB34" s="43"/>
+      <c r="IC34" s="43"/>
+      <c r="ID34" s="43"/>
+      <c r="IE34" s="43"/>
+      <c r="IF34" s="43"/>
+      <c r="IG34" s="43"/>
+      <c r="IH34" s="43"/>
+      <c r="II34" s="43"/>
+      <c r="IJ34" s="43"/>
+      <c r="IK34" s="43"/>
+      <c r="IL34" s="43"/>
+      <c r="IM34" s="43"/>
+      <c r="IN34" s="43"/>
+      <c r="IO34" s="43"/>
+      <c r="IP34" s="43"/>
+    </row>
+    <row r="35" spans="1:250" s="44" customFormat="1" ht="123" customHeight="1">
+      <c r="A35" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="E35" s="42"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="43"/>
+      <c r="R35" s="43"/>
+      <c r="S35" s="43"/>
+      <c r="T35" s="43"/>
+      <c r="U35" s="43"/>
+      <c r="V35" s="43"/>
+      <c r="W35" s="43"/>
+      <c r="X35" s="43"/>
+      <c r="Y35" s="43"/>
+      <c r="Z35" s="43"/>
+      <c r="AA35" s="43"/>
+      <c r="AB35" s="43"/>
+      <c r="AC35" s="43"/>
+      <c r="AD35" s="43"/>
+      <c r="AE35" s="43"/>
+      <c r="AF35" s="43"/>
+      <c r="AG35" s="43"/>
+      <c r="AH35" s="43"/>
+      <c r="AI35" s="43"/>
+      <c r="AJ35" s="43"/>
+      <c r="AK35" s="43"/>
+      <c r="AL35" s="43"/>
+      <c r="AM35" s="43"/>
+      <c r="AN35" s="43"/>
+      <c r="AO35" s="43"/>
+      <c r="AP35" s="43"/>
+      <c r="AQ35" s="43"/>
+      <c r="AR35" s="43"/>
+      <c r="AS35" s="43"/>
+      <c r="AT35" s="43"/>
+      <c r="AU35" s="43"/>
+      <c r="AV35" s="43"/>
+      <c r="AW35" s="43"/>
+      <c r="AX35" s="43"/>
+      <c r="AY35" s="43"/>
+      <c r="AZ35" s="43"/>
+      <c r="BA35" s="43"/>
+      <c r="BB35" s="43"/>
+      <c r="BC35" s="43"/>
+      <c r="BD35" s="43"/>
+      <c r="BE35" s="43"/>
+      <c r="BF35" s="43"/>
+      <c r="BG35" s="43"/>
+      <c r="BH35" s="43"/>
+      <c r="BI35" s="43"/>
+      <c r="BJ35" s="43"/>
+      <c r="BK35" s="43"/>
+      <c r="BL35" s="43"/>
+      <c r="BM35" s="43"/>
+      <c r="BN35" s="43"/>
+      <c r="BO35" s="43"/>
+      <c r="BP35" s="43"/>
+      <c r="BQ35" s="43"/>
+      <c r="BR35" s="43"/>
+      <c r="BS35" s="43"/>
+      <c r="BT35" s="43"/>
+      <c r="BU35" s="43"/>
+      <c r="BV35" s="43"/>
+      <c r="BW35" s="43"/>
+      <c r="BX35" s="43"/>
+      <c r="BY35" s="43"/>
+      <c r="BZ35" s="43"/>
+      <c r="CA35" s="43"/>
+      <c r="CB35" s="43"/>
+      <c r="CC35" s="43"/>
+      <c r="CD35" s="43"/>
+      <c r="CE35" s="43"/>
+      <c r="CF35" s="43"/>
+      <c r="CG35" s="43"/>
+      <c r="CH35" s="43"/>
+      <c r="CI35" s="43"/>
+      <c r="CJ35" s="43"/>
+      <c r="CK35" s="43"/>
+      <c r="CL35" s="43"/>
+      <c r="CM35" s="43"/>
+      <c r="CN35" s="43"/>
+      <c r="CO35" s="43"/>
+      <c r="CP35" s="43"/>
+      <c r="CQ35" s="43"/>
+      <c r="CR35" s="43"/>
+      <c r="CS35" s="43"/>
+      <c r="CT35" s="43"/>
+      <c r="CU35" s="43"/>
+      <c r="CV35" s="43"/>
+      <c r="CW35" s="43"/>
+      <c r="CX35" s="43"/>
+      <c r="CY35" s="43"/>
+      <c r="CZ35" s="43"/>
+      <c r="DA35" s="43"/>
+      <c r="DB35" s="43"/>
+      <c r="DC35" s="43"/>
+      <c r="DD35" s="43"/>
+      <c r="DE35" s="43"/>
+      <c r="DF35" s="43"/>
+      <c r="DG35" s="43"/>
+      <c r="DH35" s="43"/>
+      <c r="DI35" s="43"/>
+      <c r="DJ35" s="43"/>
+      <c r="DK35" s="43"/>
+      <c r="DL35" s="43"/>
+      <c r="DM35" s="43"/>
+      <c r="DN35" s="43"/>
+      <c r="DO35" s="43"/>
+      <c r="DP35" s="43"/>
+      <c r="DQ35" s="43"/>
+      <c r="DR35" s="43"/>
+      <c r="DS35" s="43"/>
+      <c r="DT35" s="43"/>
+      <c r="DU35" s="43"/>
+      <c r="DV35" s="43"/>
+      <c r="DW35" s="43"/>
+      <c r="DX35" s="43"/>
+      <c r="DY35" s="43"/>
+      <c r="DZ35" s="43"/>
+      <c r="EA35" s="43"/>
+      <c r="EB35" s="43"/>
+      <c r="EC35" s="43"/>
+      <c r="ED35" s="43"/>
+      <c r="EE35" s="43"/>
+      <c r="EF35" s="43"/>
+      <c r="EG35" s="43"/>
+      <c r="EH35" s="43"/>
+      <c r="EI35" s="43"/>
+      <c r="EJ35" s="43"/>
+      <c r="EK35" s="43"/>
+      <c r="EL35" s="43"/>
+      <c r="EM35" s="43"/>
+      <c r="EN35" s="43"/>
+      <c r="EO35" s="43"/>
+      <c r="EP35" s="43"/>
+      <c r="EQ35" s="43"/>
+      <c r="ER35" s="43"/>
+      <c r="ES35" s="43"/>
+      <c r="ET35" s="43"/>
+      <c r="EU35" s="43"/>
+      <c r="EV35" s="43"/>
+      <c r="EW35" s="43"/>
+      <c r="EX35" s="43"/>
+      <c r="EY35" s="43"/>
+      <c r="EZ35" s="43"/>
+      <c r="FA35" s="43"/>
+      <c r="FB35" s="43"/>
+      <c r="FC35" s="43"/>
+      <c r="FD35" s="43"/>
+      <c r="FE35" s="43"/>
+      <c r="FF35" s="43"/>
+      <c r="FG35" s="43"/>
+      <c r="FH35" s="43"/>
+      <c r="FI35" s="43"/>
+      <c r="FJ35" s="43"/>
+      <c r="FK35" s="43"/>
+      <c r="FL35" s="43"/>
+      <c r="FM35" s="43"/>
+      <c r="FN35" s="43"/>
+      <c r="FO35" s="43"/>
+      <c r="FP35" s="43"/>
+      <c r="FQ35" s="43"/>
+      <c r="FR35" s="43"/>
+      <c r="FS35" s="43"/>
+      <c r="FT35" s="43"/>
+      <c r="FU35" s="43"/>
+      <c r="FV35" s="43"/>
+      <c r="FW35" s="43"/>
+      <c r="FX35" s="43"/>
+      <c r="FY35" s="43"/>
+      <c r="FZ35" s="43"/>
+      <c r="GA35" s="43"/>
+      <c r="GB35" s="43"/>
+      <c r="GC35" s="43"/>
+      <c r="GD35" s="43"/>
+      <c r="GE35" s="43"/>
+      <c r="GF35" s="43"/>
+      <c r="GG35" s="43"/>
+      <c r="GH35" s="43"/>
+      <c r="GI35" s="43"/>
+      <c r="GJ35" s="43"/>
+      <c r="GK35" s="43"/>
+      <c r="GL35" s="43"/>
+      <c r="GM35" s="43"/>
+      <c r="GN35" s="43"/>
+      <c r="GO35" s="43"/>
+      <c r="GP35" s="43"/>
+      <c r="GQ35" s="43"/>
+      <c r="GR35" s="43"/>
+      <c r="GS35" s="43"/>
+      <c r="GT35" s="43"/>
+      <c r="GU35" s="43"/>
+      <c r="GV35" s="43"/>
+      <c r="GW35" s="43"/>
+      <c r="GX35" s="43"/>
+      <c r="GY35" s="43"/>
+      <c r="GZ35" s="43"/>
+      <c r="HA35" s="43"/>
+      <c r="HB35" s="43"/>
+      <c r="HC35" s="43"/>
+      <c r="HD35" s="43"/>
+      <c r="HE35" s="43"/>
+      <c r="HF35" s="43"/>
+      <c r="HG35" s="43"/>
+      <c r="HH35" s="43"/>
+      <c r="HI35" s="43"/>
+      <c r="HJ35" s="43"/>
+      <c r="HK35" s="43"/>
+      <c r="HL35" s="43"/>
+      <c r="HM35" s="43"/>
+      <c r="HN35" s="43"/>
+      <c r="HO35" s="43"/>
+      <c r="HP35" s="43"/>
+      <c r="HQ35" s="43"/>
+      <c r="HR35" s="43"/>
+      <c r="HS35" s="43"/>
+      <c r="HT35" s="43"/>
+      <c r="HU35" s="43"/>
+      <c r="HV35" s="43"/>
+      <c r="HW35" s="43"/>
+      <c r="HX35" s="43"/>
+      <c r="HY35" s="43"/>
+      <c r="HZ35" s="43"/>
+      <c r="IA35" s="43"/>
+      <c r="IB35" s="43"/>
+      <c r="IC35" s="43"/>
+      <c r="ID35" s="43"/>
+      <c r="IE35" s="43"/>
+      <c r="IF35" s="43"/>
+      <c r="IG35" s="43"/>
+      <c r="IH35" s="43"/>
+      <c r="II35" s="43"/>
+      <c r="IJ35" s="43"/>
+      <c r="IK35" s="43"/>
+      <c r="IL35" s="43"/>
+      <c r="IM35" s="43"/>
+      <c r="IN35" s="43"/>
+      <c r="IO35" s="43"/>
+      <c r="IP35" s="43"/>
+    </row>
+    <row r="36" spans="1:250" s="44" customFormat="1" ht="124" customHeight="1">
+      <c r="A36" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B36" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="D36" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="E36" s="42"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="43"/>
+      <c r="Q36" s="43"/>
+      <c r="R36" s="43"/>
+      <c r="S36" s="43"/>
+      <c r="T36" s="43"/>
+      <c r="U36" s="43"/>
+      <c r="V36" s="43"/>
+      <c r="W36" s="43"/>
+      <c r="X36" s="43"/>
+      <c r="Y36" s="43"/>
+      <c r="Z36" s="43"/>
+      <c r="AA36" s="43"/>
+      <c r="AB36" s="43"/>
+      <c r="AC36" s="43"/>
+      <c r="AD36" s="43"/>
+      <c r="AE36" s="43"/>
+      <c r="AF36" s="43"/>
+      <c r="AG36" s="43"/>
+      <c r="AH36" s="43"/>
+      <c r="AI36" s="43"/>
+      <c r="AJ36" s="43"/>
+      <c r="AK36" s="43"/>
+      <c r="AL36" s="43"/>
+      <c r="AM36" s="43"/>
+      <c r="AN36" s="43"/>
+      <c r="AO36" s="43"/>
+      <c r="AP36" s="43"/>
+      <c r="AQ36" s="43"/>
+      <c r="AR36" s="43"/>
+      <c r="AS36" s="43"/>
+      <c r="AT36" s="43"/>
+      <c r="AU36" s="43"/>
+      <c r="AV36" s="43"/>
+      <c r="AW36" s="43"/>
+      <c r="AX36" s="43"/>
+      <c r="AY36" s="43"/>
+      <c r="AZ36" s="43"/>
+      <c r="BA36" s="43"/>
+      <c r="BB36" s="43"/>
+      <c r="BC36" s="43"/>
+      <c r="BD36" s="43"/>
+      <c r="BE36" s="43"/>
+      <c r="BF36" s="43"/>
+      <c r="BG36" s="43"/>
+      <c r="BH36" s="43"/>
+      <c r="BI36" s="43"/>
+      <c r="BJ36" s="43"/>
+      <c r="BK36" s="43"/>
+      <c r="BL36" s="43"/>
+      <c r="BM36" s="43"/>
+      <c r="BN36" s="43"/>
+      <c r="BO36" s="43"/>
+      <c r="BP36" s="43"/>
+      <c r="BQ36" s="43"/>
+      <c r="BR36" s="43"/>
+      <c r="BS36" s="43"/>
+      <c r="BT36" s="43"/>
+      <c r="BU36" s="43"/>
+      <c r="BV36" s="43"/>
+      <c r="BW36" s="43"/>
+      <c r="BX36" s="43"/>
+      <c r="BY36" s="43"/>
+      <c r="BZ36" s="43"/>
+      <c r="CA36" s="43"/>
+      <c r="CB36" s="43"/>
+      <c r="CC36" s="43"/>
+      <c r="CD36" s="43"/>
+      <c r="CE36" s="43"/>
+      <c r="CF36" s="43"/>
+      <c r="CG36" s="43"/>
+      <c r="CH36" s="43"/>
+      <c r="CI36" s="43"/>
+      <c r="CJ36" s="43"/>
+      <c r="CK36" s="43"/>
+      <c r="CL36" s="43"/>
+      <c r="CM36" s="43"/>
+      <c r="CN36" s="43"/>
+      <c r="CO36" s="43"/>
+      <c r="CP36" s="43"/>
+      <c r="CQ36" s="43"/>
+      <c r="CR36" s="43"/>
+      <c r="CS36" s="43"/>
+      <c r="CT36" s="43"/>
+      <c r="CU36" s="43"/>
+      <c r="CV36" s="43"/>
+      <c r="CW36" s="43"/>
+      <c r="CX36" s="43"/>
+      <c r="CY36" s="43"/>
+      <c r="CZ36" s="43"/>
+      <c r="DA36" s="43"/>
+      <c r="DB36" s="43"/>
+      <c r="DC36" s="43"/>
+      <c r="DD36" s="43"/>
+      <c r="DE36" s="43"/>
+      <c r="DF36" s="43"/>
+      <c r="DG36" s="43"/>
+      <c r="DH36" s="43"/>
+      <c r="DI36" s="43"/>
+      <c r="DJ36" s="43"/>
+      <c r="DK36" s="43"/>
+      <c r="DL36" s="43"/>
+      <c r="DM36" s="43"/>
+      <c r="DN36" s="43"/>
+      <c r="DO36" s="43"/>
+      <c r="DP36" s="43"/>
+      <c r="DQ36" s="43"/>
+      <c r="DR36" s="43"/>
+      <c r="DS36" s="43"/>
+      <c r="DT36" s="43"/>
+      <c r="DU36" s="43"/>
+      <c r="DV36" s="43"/>
+      <c r="DW36" s="43"/>
+      <c r="DX36" s="43"/>
+      <c r="DY36" s="43"/>
+      <c r="DZ36" s="43"/>
+      <c r="EA36" s="43"/>
+      <c r="EB36" s="43"/>
+      <c r="EC36" s="43"/>
+      <c r="ED36" s="43"/>
+      <c r="EE36" s="43"/>
+      <c r="EF36" s="43"/>
+      <c r="EG36" s="43"/>
+      <c r="EH36" s="43"/>
+      <c r="EI36" s="43"/>
+      <c r="EJ36" s="43"/>
+      <c r="EK36" s="43"/>
+      <c r="EL36" s="43"/>
+      <c r="EM36" s="43"/>
+      <c r="EN36" s="43"/>
+      <c r="EO36" s="43"/>
+      <c r="EP36" s="43"/>
+      <c r="EQ36" s="43"/>
+      <c r="ER36" s="43"/>
+      <c r="ES36" s="43"/>
+      <c r="ET36" s="43"/>
+      <c r="EU36" s="43"/>
+      <c r="EV36" s="43"/>
+      <c r="EW36" s="43"/>
+      <c r="EX36" s="43"/>
+      <c r="EY36" s="43"/>
+      <c r="EZ36" s="43"/>
+      <c r="FA36" s="43"/>
+      <c r="FB36" s="43"/>
+      <c r="FC36" s="43"/>
+      <c r="FD36" s="43"/>
+      <c r="FE36" s="43"/>
+      <c r="FF36" s="43"/>
+      <c r="FG36" s="43"/>
+      <c r="FH36" s="43"/>
+      <c r="FI36" s="43"/>
+      <c r="FJ36" s="43"/>
+      <c r="FK36" s="43"/>
+      <c r="FL36" s="43"/>
+      <c r="FM36" s="43"/>
+      <c r="FN36" s="43"/>
+      <c r="FO36" s="43"/>
+      <c r="FP36" s="43"/>
+      <c r="FQ36" s="43"/>
+      <c r="FR36" s="43"/>
+      <c r="FS36" s="43"/>
+      <c r="FT36" s="43"/>
+      <c r="FU36" s="43"/>
+      <c r="FV36" s="43"/>
+      <c r="FW36" s="43"/>
+      <c r="FX36" s="43"/>
+      <c r="FY36" s="43"/>
+      <c r="FZ36" s="43"/>
+      <c r="GA36" s="43"/>
+      <c r="GB36" s="43"/>
+      <c r="GC36" s="43"/>
+      <c r="GD36" s="43"/>
+      <c r="GE36" s="43"/>
+      <c r="GF36" s="43"/>
+      <c r="GG36" s="43"/>
+      <c r="GH36" s="43"/>
+      <c r="GI36" s="43"/>
+      <c r="GJ36" s="43"/>
+      <c r="GK36" s="43"/>
+      <c r="GL36" s="43"/>
+      <c r="GM36" s="43"/>
+      <c r="GN36" s="43"/>
+      <c r="GO36" s="43"/>
+      <c r="GP36" s="43"/>
+      <c r="GQ36" s="43"/>
+      <c r="GR36" s="43"/>
+      <c r="GS36" s="43"/>
+      <c r="GT36" s="43"/>
+      <c r="GU36" s="43"/>
+      <c r="GV36" s="43"/>
+      <c r="GW36" s="43"/>
+      <c r="GX36" s="43"/>
+      <c r="GY36" s="43"/>
+      <c r="GZ36" s="43"/>
+      <c r="HA36" s="43"/>
+      <c r="HB36" s="43"/>
+      <c r="HC36" s="43"/>
+      <c r="HD36" s="43"/>
+      <c r="HE36" s="43"/>
+      <c r="HF36" s="43"/>
+      <c r="HG36" s="43"/>
+      <c r="HH36" s="43"/>
+      <c r="HI36" s="43"/>
+      <c r="HJ36" s="43"/>
+      <c r="HK36" s="43"/>
+      <c r="HL36" s="43"/>
+      <c r="HM36" s="43"/>
+      <c r="HN36" s="43"/>
+      <c r="HO36" s="43"/>
+      <c r="HP36" s="43"/>
+      <c r="HQ36" s="43"/>
+      <c r="HR36" s="43"/>
+      <c r="HS36" s="43"/>
+      <c r="HT36" s="43"/>
+      <c r="HU36" s="43"/>
+      <c r="HV36" s="43"/>
+      <c r="HW36" s="43"/>
+      <c r="HX36" s="43"/>
+      <c r="HY36" s="43"/>
+      <c r="HZ36" s="43"/>
+      <c r="IA36" s="43"/>
+      <c r="IB36" s="43"/>
+      <c r="IC36" s="43"/>
+      <c r="ID36" s="43"/>
+      <c r="IE36" s="43"/>
+      <c r="IF36" s="43"/>
+      <c r="IG36" s="43"/>
+      <c r="IH36" s="43"/>
+      <c r="II36" s="43"/>
+      <c r="IJ36" s="43"/>
+      <c r="IK36" s="43"/>
+      <c r="IL36" s="43"/>
+      <c r="IM36" s="43"/>
+      <c r="IN36" s="43"/>
+      <c r="IO36" s="43"/>
+      <c r="IP36" s="43"/>
+    </row>
+    <row r="37" spans="1:250" s="44" customFormat="1" ht="131.5" customHeight="1">
+      <c r="A37" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B37" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="D37" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="E37" s="42"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="43"/>
+      <c r="Q37" s="43"/>
+      <c r="R37" s="43"/>
+      <c r="S37" s="43"/>
+      <c r="T37" s="43"/>
+      <c r="U37" s="43"/>
+      <c r="V37" s="43"/>
+      <c r="W37" s="43"/>
+      <c r="X37" s="43"/>
+      <c r="Y37" s="43"/>
+      <c r="Z37" s="43"/>
+      <c r="AA37" s="43"/>
+      <c r="AB37" s="43"/>
+      <c r="AC37" s="43"/>
+      <c r="AD37" s="43"/>
+      <c r="AE37" s="43"/>
+      <c r="AF37" s="43"/>
+      <c r="AG37" s="43"/>
+      <c r="AH37" s="43"/>
+      <c r="AI37" s="43"/>
+      <c r="AJ37" s="43"/>
+      <c r="AK37" s="43"/>
+      <c r="AL37" s="43"/>
+      <c r="AM37" s="43"/>
+      <c r="AN37" s="43"/>
+      <c r="AO37" s="43"/>
+      <c r="AP37" s="43"/>
+      <c r="AQ37" s="43"/>
+      <c r="AR37" s="43"/>
+      <c r="AS37" s="43"/>
+      <c r="AT37" s="43"/>
+      <c r="AU37" s="43"/>
+      <c r="AV37" s="43"/>
+      <c r="AW37" s="43"/>
+      <c r="AX37" s="43"/>
+      <c r="AY37" s="43"/>
+      <c r="AZ37" s="43"/>
+      <c r="BA37" s="43"/>
+      <c r="BB37" s="43"/>
+      <c r="BC37" s="43"/>
+      <c r="BD37" s="43"/>
+      <c r="BE37" s="43"/>
+      <c r="BF37" s="43"/>
+      <c r="BG37" s="43"/>
+      <c r="BH37" s="43"/>
+      <c r="BI37" s="43"/>
+      <c r="BJ37" s="43"/>
+      <c r="BK37" s="43"/>
+      <c r="BL37" s="43"/>
+      <c r="BM37" s="43"/>
+      <c r="BN37" s="43"/>
+      <c r="BO37" s="43"/>
+      <c r="BP37" s="43"/>
+      <c r="BQ37" s="43"/>
+      <c r="BR37" s="43"/>
+      <c r="BS37" s="43"/>
+      <c r="BT37" s="43"/>
+      <c r="BU37" s="43"/>
+      <c r="BV37" s="43"/>
+      <c r="BW37" s="43"/>
+      <c r="BX37" s="43"/>
+      <c r="BY37" s="43"/>
+      <c r="BZ37" s="43"/>
+      <c r="CA37" s="43"/>
+      <c r="CB37" s="43"/>
+      <c r="CC37" s="43"/>
+      <c r="CD37" s="43"/>
+      <c r="CE37" s="43"/>
+      <c r="CF37" s="43"/>
+      <c r="CG37" s="43"/>
+      <c r="CH37" s="43"/>
+      <c r="CI37" s="43"/>
+      <c r="CJ37" s="43"/>
+      <c r="CK37" s="43"/>
+      <c r="CL37" s="43"/>
+      <c r="CM37" s="43"/>
+      <c r="CN37" s="43"/>
+      <c r="CO37" s="43"/>
+      <c r="CP37" s="43"/>
+      <c r="CQ37" s="43"/>
+      <c r="CR37" s="43"/>
+      <c r="CS37" s="43"/>
+      <c r="CT37" s="43"/>
+      <c r="CU37" s="43"/>
+      <c r="CV37" s="43"/>
+      <c r="CW37" s="43"/>
+      <c r="CX37" s="43"/>
+      <c r="CY37" s="43"/>
+      <c r="CZ37" s="43"/>
+      <c r="DA37" s="43"/>
+      <c r="DB37" s="43"/>
+      <c r="DC37" s="43"/>
+      <c r="DD37" s="43"/>
+      <c r="DE37" s="43"/>
+      <c r="DF37" s="43"/>
+      <c r="DG37" s="43"/>
+      <c r="DH37" s="43"/>
+      <c r="DI37" s="43"/>
+      <c r="DJ37" s="43"/>
+      <c r="DK37" s="43"/>
+      <c r="DL37" s="43"/>
+      <c r="DM37" s="43"/>
+      <c r="DN37" s="43"/>
+      <c r="DO37" s="43"/>
+      <c r="DP37" s="43"/>
+      <c r="DQ37" s="43"/>
+      <c r="DR37" s="43"/>
+      <c r="DS37" s="43"/>
+      <c r="DT37" s="43"/>
+      <c r="DU37" s="43"/>
+      <c r="DV37" s="43"/>
+      <c r="DW37" s="43"/>
+      <c r="DX37" s="43"/>
+      <c r="DY37" s="43"/>
+      <c r="DZ37" s="43"/>
+      <c r="EA37" s="43"/>
+      <c r="EB37" s="43"/>
+      <c r="EC37" s="43"/>
+      <c r="ED37" s="43"/>
+      <c r="EE37" s="43"/>
+      <c r="EF37" s="43"/>
+      <c r="EG37" s="43"/>
+      <c r="EH37" s="43"/>
+      <c r="EI37" s="43"/>
+      <c r="EJ37" s="43"/>
+      <c r="EK37" s="43"/>
+      <c r="EL37" s="43"/>
+      <c r="EM37" s="43"/>
+      <c r="EN37" s="43"/>
+      <c r="EO37" s="43"/>
+      <c r="EP37" s="43"/>
+      <c r="EQ37" s="43"/>
+      <c r="ER37" s="43"/>
+      <c r="ES37" s="43"/>
+      <c r="ET37" s="43"/>
+      <c r="EU37" s="43"/>
+      <c r="EV37" s="43"/>
+      <c r="EW37" s="43"/>
+      <c r="EX37" s="43"/>
+      <c r="EY37" s="43"/>
+      <c r="EZ37" s="43"/>
+      <c r="FA37" s="43"/>
+      <c r="FB37" s="43"/>
+      <c r="FC37" s="43"/>
+      <c r="FD37" s="43"/>
+      <c r="FE37" s="43"/>
+      <c r="FF37" s="43"/>
+      <c r="FG37" s="43"/>
+      <c r="FH37" s="43"/>
+      <c r="FI37" s="43"/>
+      <c r="FJ37" s="43"/>
+      <c r="FK37" s="43"/>
+      <c r="FL37" s="43"/>
+      <c r="FM37" s="43"/>
+      <c r="FN37" s="43"/>
+      <c r="FO37" s="43"/>
+      <c r="FP37" s="43"/>
+      <c r="FQ37" s="43"/>
+      <c r="FR37" s="43"/>
+      <c r="FS37" s="43"/>
+      <c r="FT37" s="43"/>
+      <c r="FU37" s="43"/>
+      <c r="FV37" s="43"/>
+      <c r="FW37" s="43"/>
+      <c r="FX37" s="43"/>
+      <c r="FY37" s="43"/>
+      <c r="FZ37" s="43"/>
+      <c r="GA37" s="43"/>
+      <c r="GB37" s="43"/>
+      <c r="GC37" s="43"/>
+      <c r="GD37" s="43"/>
+      <c r="GE37" s="43"/>
+      <c r="GF37" s="43"/>
+      <c r="GG37" s="43"/>
+      <c r="GH37" s="43"/>
+      <c r="GI37" s="43"/>
+      <c r="GJ37" s="43"/>
+      <c r="GK37" s="43"/>
+      <c r="GL37" s="43"/>
+      <c r="GM37" s="43"/>
+      <c r="GN37" s="43"/>
+      <c r="GO37" s="43"/>
+      <c r="GP37" s="43"/>
+      <c r="GQ37" s="43"/>
+      <c r="GR37" s="43"/>
+      <c r="GS37" s="43"/>
+      <c r="GT37" s="43"/>
+      <c r="GU37" s="43"/>
+      <c r="GV37" s="43"/>
+      <c r="GW37" s="43"/>
+      <c r="GX37" s="43"/>
+      <c r="GY37" s="43"/>
+      <c r="GZ37" s="43"/>
+      <c r="HA37" s="43"/>
+      <c r="HB37" s="43"/>
+      <c r="HC37" s="43"/>
+      <c r="HD37" s="43"/>
+      <c r="HE37" s="43"/>
+      <c r="HF37" s="43"/>
+      <c r="HG37" s="43"/>
+      <c r="HH37" s="43"/>
+      <c r="HI37" s="43"/>
+      <c r="HJ37" s="43"/>
+      <c r="HK37" s="43"/>
+      <c r="HL37" s="43"/>
+      <c r="HM37" s="43"/>
+      <c r="HN37" s="43"/>
+      <c r="HO37" s="43"/>
+      <c r="HP37" s="43"/>
+      <c r="HQ37" s="43"/>
+      <c r="HR37" s="43"/>
+      <c r="HS37" s="43"/>
+      <c r="HT37" s="43"/>
+      <c r="HU37" s="43"/>
+      <c r="HV37" s="43"/>
+      <c r="HW37" s="43"/>
+      <c r="HX37" s="43"/>
+      <c r="HY37" s="43"/>
+      <c r="HZ37" s="43"/>
+      <c r="IA37" s="43"/>
+      <c r="IB37" s="43"/>
+      <c r="IC37" s="43"/>
+      <c r="ID37" s="43"/>
+      <c r="IE37" s="43"/>
+      <c r="IF37" s="43"/>
+      <c r="IG37" s="43"/>
+      <c r="IH37" s="43"/>
+      <c r="II37" s="43"/>
+      <c r="IJ37" s="43"/>
+      <c r="IK37" s="43"/>
+      <c r="IL37" s="43"/>
+      <c r="IM37" s="43"/>
+      <c r="IN37" s="43"/>
+      <c r="IO37" s="43"/>
+      <c r="IP37" s="43"/>
+    </row>
+    <row r="38" spans="1:250" s="44" customFormat="1" ht="124.5" customHeight="1">
+      <c r="A38" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B38" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="D38" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="E38" s="42"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="43"/>
+      <c r="Q38" s="43"/>
+      <c r="R38" s="43"/>
+      <c r="S38" s="43"/>
+      <c r="T38" s="43"/>
+      <c r="U38" s="43"/>
+      <c r="V38" s="43"/>
+      <c r="W38" s="43"/>
+      <c r="X38" s="43"/>
+      <c r="Y38" s="43"/>
+      <c r="Z38" s="43"/>
+      <c r="AA38" s="43"/>
+      <c r="AB38" s="43"/>
+      <c r="AC38" s="43"/>
+      <c r="AD38" s="43"/>
+      <c r="AE38" s="43"/>
+      <c r="AF38" s="43"/>
+      <c r="AG38" s="43"/>
+      <c r="AH38" s="43"/>
+      <c r="AI38" s="43"/>
+      <c r="AJ38" s="43"/>
+      <c r="AK38" s="43"/>
+      <c r="AL38" s="43"/>
+      <c r="AM38" s="43"/>
+      <c r="AN38" s="43"/>
+      <c r="AO38" s="43"/>
+      <c r="AP38" s="43"/>
+      <c r="AQ38" s="43"/>
+      <c r="AR38" s="43"/>
+      <c r="AS38" s="43"/>
+      <c r="AT38" s="43"/>
+      <c r="AU38" s="43"/>
+      <c r="AV38" s="43"/>
+      <c r="AW38" s="43"/>
+      <c r="AX38" s="43"/>
+      <c r="AY38" s="43"/>
+      <c r="AZ38" s="43"/>
+      <c r="BA38" s="43"/>
+      <c r="BB38" s="43"/>
+      <c r="BC38" s="43"/>
+      <c r="BD38" s="43"/>
+      <c r="BE38" s="43"/>
+      <c r="BF38" s="43"/>
+      <c r="BG38" s="43"/>
+      <c r="BH38" s="43"/>
+      <c r="BI38" s="43"/>
+      <c r="BJ38" s="43"/>
+      <c r="BK38" s="43"/>
+      <c r="BL38" s="43"/>
+      <c r="BM38" s="43"/>
+      <c r="BN38" s="43"/>
+      <c r="BO38" s="43"/>
+      <c r="BP38" s="43"/>
+      <c r="BQ38" s="43"/>
+      <c r="BR38" s="43"/>
+      <c r="BS38" s="43"/>
+      <c r="BT38" s="43"/>
+      <c r="BU38" s="43"/>
+      <c r="BV38" s="43"/>
+      <c r="BW38" s="43"/>
+      <c r="BX38" s="43"/>
+      <c r="BY38" s="43"/>
+      <c r="BZ38" s="43"/>
+      <c r="CA38" s="43"/>
+      <c r="CB38" s="43"/>
+      <c r="CC38" s="43"/>
+      <c r="CD38" s="43"/>
+      <c r="CE38" s="43"/>
+      <c r="CF38" s="43"/>
+      <c r="CG38" s="43"/>
+      <c r="CH38" s="43"/>
+      <c r="CI38" s="43"/>
+      <c r="CJ38" s="43"/>
+      <c r="CK38" s="43"/>
+      <c r="CL38" s="43"/>
+      <c r="CM38" s="43"/>
+      <c r="CN38" s="43"/>
+      <c r="CO38" s="43"/>
+      <c r="CP38" s="43"/>
+      <c r="CQ38" s="43"/>
+      <c r="CR38" s="43"/>
+      <c r="CS38" s="43"/>
+      <c r="CT38" s="43"/>
+      <c r="CU38" s="43"/>
+      <c r="CV38" s="43"/>
+      <c r="CW38" s="43"/>
+      <c r="CX38" s="43"/>
+      <c r="CY38" s="43"/>
+      <c r="CZ38" s="43"/>
+      <c r="DA38" s="43"/>
+      <c r="DB38" s="43"/>
+      <c r="DC38" s="43"/>
+      <c r="DD38" s="43"/>
+      <c r="DE38" s="43"/>
+      <c r="DF38" s="43"/>
+      <c r="DG38" s="43"/>
+      <c r="DH38" s="43"/>
+      <c r="DI38" s="43"/>
+      <c r="DJ38" s="43"/>
+      <c r="DK38" s="43"/>
+      <c r="DL38" s="43"/>
+      <c r="DM38" s="43"/>
+      <c r="DN38" s="43"/>
+      <c r="DO38" s="43"/>
+      <c r="DP38" s="43"/>
+      <c r="DQ38" s="43"/>
+      <c r="DR38" s="43"/>
+      <c r="DS38" s="43"/>
+      <c r="DT38" s="43"/>
+      <c r="DU38" s="43"/>
+      <c r="DV38" s="43"/>
+      <c r="DW38" s="43"/>
+      <c r="DX38" s="43"/>
+      <c r="DY38" s="43"/>
+      <c r="DZ38" s="43"/>
+      <c r="EA38" s="43"/>
+      <c r="EB38" s="43"/>
+      <c r="EC38" s="43"/>
+      <c r="ED38" s="43"/>
+      <c r="EE38" s="43"/>
+      <c r="EF38" s="43"/>
+      <c r="EG38" s="43"/>
+      <c r="EH38" s="43"/>
+      <c r="EI38" s="43"/>
+      <c r="EJ38" s="43"/>
+      <c r="EK38" s="43"/>
+      <c r="EL38" s="43"/>
+      <c r="EM38" s="43"/>
+      <c r="EN38" s="43"/>
+      <c r="EO38" s="43"/>
+      <c r="EP38" s="43"/>
+      <c r="EQ38" s="43"/>
+      <c r="ER38" s="43"/>
+      <c r="ES38" s="43"/>
+      <c r="ET38" s="43"/>
+      <c r="EU38" s="43"/>
+      <c r="EV38" s="43"/>
+      <c r="EW38" s="43"/>
+      <c r="EX38" s="43"/>
+      <c r="EY38" s="43"/>
+      <c r="EZ38" s="43"/>
+      <c r="FA38" s="43"/>
+      <c r="FB38" s="43"/>
+      <c r="FC38" s="43"/>
+      <c r="FD38" s="43"/>
+      <c r="FE38" s="43"/>
+      <c r="FF38" s="43"/>
+      <c r="FG38" s="43"/>
+      <c r="FH38" s="43"/>
+      <c r="FI38" s="43"/>
+      <c r="FJ38" s="43"/>
+      <c r="FK38" s="43"/>
+      <c r="FL38" s="43"/>
+      <c r="FM38" s="43"/>
+      <c r="FN38" s="43"/>
+      <c r="FO38" s="43"/>
+      <c r="FP38" s="43"/>
+      <c r="FQ38" s="43"/>
+      <c r="FR38" s="43"/>
+      <c r="FS38" s="43"/>
+      <c r="FT38" s="43"/>
+      <c r="FU38" s="43"/>
+      <c r="FV38" s="43"/>
+      <c r="FW38" s="43"/>
+      <c r="FX38" s="43"/>
+      <c r="FY38" s="43"/>
+      <c r="FZ38" s="43"/>
+      <c r="GA38" s="43"/>
+      <c r="GB38" s="43"/>
+      <c r="GC38" s="43"/>
+      <c r="GD38" s="43"/>
+      <c r="GE38" s="43"/>
+      <c r="GF38" s="43"/>
+      <c r="GG38" s="43"/>
+      <c r="GH38" s="43"/>
+      <c r="GI38" s="43"/>
+      <c r="GJ38" s="43"/>
+      <c r="GK38" s="43"/>
+      <c r="GL38" s="43"/>
+      <c r="GM38" s="43"/>
+      <c r="GN38" s="43"/>
+      <c r="GO38" s="43"/>
+      <c r="GP38" s="43"/>
+      <c r="GQ38" s="43"/>
+      <c r="GR38" s="43"/>
+      <c r="GS38" s="43"/>
+      <c r="GT38" s="43"/>
+      <c r="GU38" s="43"/>
+      <c r="GV38" s="43"/>
+      <c r="GW38" s="43"/>
+      <c r="GX38" s="43"/>
+      <c r="GY38" s="43"/>
+      <c r="GZ38" s="43"/>
+      <c r="HA38" s="43"/>
+      <c r="HB38" s="43"/>
+      <c r="HC38" s="43"/>
+      <c r="HD38" s="43"/>
+      <c r="HE38" s="43"/>
+      <c r="HF38" s="43"/>
+      <c r="HG38" s="43"/>
+      <c r="HH38" s="43"/>
+      <c r="HI38" s="43"/>
+      <c r="HJ38" s="43"/>
+      <c r="HK38" s="43"/>
+      <c r="HL38" s="43"/>
+      <c r="HM38" s="43"/>
+      <c r="HN38" s="43"/>
+      <c r="HO38" s="43"/>
+      <c r="HP38" s="43"/>
+      <c r="HQ38" s="43"/>
+      <c r="HR38" s="43"/>
+      <c r="HS38" s="43"/>
+      <c r="HT38" s="43"/>
+      <c r="HU38" s="43"/>
+      <c r="HV38" s="43"/>
+      <c r="HW38" s="43"/>
+      <c r="HX38" s="43"/>
+      <c r="HY38" s="43"/>
+      <c r="HZ38" s="43"/>
+      <c r="IA38" s="43"/>
+      <c r="IB38" s="43"/>
+      <c r="IC38" s="43"/>
+      <c r="ID38" s="43"/>
+      <c r="IE38" s="43"/>
+      <c r="IF38" s="43"/>
+      <c r="IG38" s="43"/>
+      <c r="IH38" s="43"/>
+      <c r="II38" s="43"/>
+      <c r="IJ38" s="43"/>
+      <c r="IK38" s="43"/>
+      <c r="IL38" s="43"/>
+      <c r="IM38" s="43"/>
+      <c r="IN38" s="43"/>
+      <c r="IO38" s="43"/>
+      <c r="IP38" s="43"/>
+    </row>
+    <row r="39" spans="1:250" ht="20.149999999999999" customHeight="1">
       <c r="A39" s="17"/>
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
       <c r="D39" s="22"/>
       <c r="E39" s="22"/>
     </row>
-    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="1:250" ht="20.149999999999999" customHeight="1">
       <c r="A40" s="17"/>
       <c r="B40" s="22"/>
       <c r="C40" s="22"/>
       <c r="D40" s="22"/>
       <c r="E40" s="22"/>
     </row>
-    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="1:250" ht="20.149999999999999" customHeight="1">
       <c r="A41" s="17"/>
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
       <c r="D41" s="22"/>
       <c r="E41" s="22"/>
     </row>
-    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="42" spans="1:250" ht="20.149999999999999" customHeight="1">
       <c r="A42" s="17"/>
       <c r="B42" s="22"/>
       <c r="C42" s="22"/>
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
     </row>
-    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="43" spans="1:250" ht="20.149999999999999" customHeight="1">
       <c r="A43" s="17"/>
       <c r="B43" s="22"/>
       <c r="C43" s="22"/>
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
     </row>
-    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="44" spans="1:250" ht="20.149999999999999" customHeight="1">
       <c r="A44" s="17"/>
       <c r="B44" s="22"/>
       <c r="C44" s="22"/>
       <c r="D44" s="22"/>
       <c r="E44" s="22"/>
     </row>
-    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="45" spans="1:250" ht="20.149999999999999" customHeight="1">
       <c r="A45" s="17"/>
       <c r="B45" s="22"/>
       <c r="C45" s="22"/>
       <c r="D45" s="22"/>
       <c r="E45" s="22"/>
     </row>
-    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="46" spans="1:250" ht="20.149999999999999" customHeight="1">
       <c r="A46" s="17"/>
       <c r="B46" s="22"/>
       <c r="C46" s="22"/>
       <c r="D46" s="22"/>
       <c r="E46" s="22"/>
     </row>
-    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="47" spans="1:250" ht="20.149999999999999" customHeight="1">
       <c r="A47" s="17"/>
       <c r="B47" s="22"/>
       <c r="C47" s="22"/>
       <c r="D47" s="22"/>
       <c r="E47" s="22"/>
     </row>
-    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="48" spans="1:250" ht="20.149999999999999" customHeight="1">
       <c r="A48" s="17"/>
       <c r="B48" s="22"/>
       <c r="C48" s="22"/>
       <c r="D48" s="22"/>
       <c r="E48" s="22"/>
     </row>
-    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="49" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A49" s="17"/>
       <c r="B49" s="22"/>
       <c r="C49" s="22"/>
       <c r="D49" s="22"/>
       <c r="E49" s="22"/>
     </row>
-    <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="50" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A50" s="17"/>
       <c r="B50" s="22"/>
       <c r="C50" s="22"/>
       <c r="D50" s="22"/>
       <c r="E50" s="22"/>
     </row>
-    <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="51" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A51" s="17"/>
       <c r="B51" s="22"/>
       <c r="C51" s="22"/>
       <c r="D51" s="22"/>
       <c r="E51" s="22"/>
     </row>
-    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="52" spans="1:5" ht="20.149999999999999" customHeight="1">
       <c r="A52" s="17"/>
       <c r="B52" s="22"/>
       <c r="C52" s="22"/>
@@ -3609,22 +7753,36 @@
       <c r="E52" s="22"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E52"/>
+  <autoFilter ref="A1:E52" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <phoneticPr fontId="11"/>
   <hyperlinks>
-    <hyperlink ref="D7" r:id="rId1"/>
-    <hyperlink ref="D8" r:id="rId2"/>
-    <hyperlink ref="D9" r:id="rId3"/>
-    <hyperlink ref="D10" r:id="rId4"/>
-    <hyperlink ref="D11" r:id="rId5"/>
-    <hyperlink ref="D12" r:id="rId6"/>
-    <hyperlink ref="D13" r:id="rId7"/>
-    <hyperlink ref="D14" r:id="rId8"/>
-    <hyperlink ref="D15" r:id="rId9"/>
-    <hyperlink ref="D17" r:id="rId10"/>
-    <hyperlink ref="D16" r:id="rId11"/>
-    <hyperlink ref="D18" r:id="rId12"/>
-    <hyperlink ref="D19" r:id="rId13"/>
+    <hyperlink ref="D7" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="D8" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="D9" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="D10" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="D11" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="D12" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="D13" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="D14" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="D15" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="D17" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="D16" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="D18" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="D19" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="D24" r:id="rId14" xr:uid="{1B842264-FC68-4114-B335-4951E43AA76B}"/>
+    <hyperlink ref="D25" r:id="rId15" xr:uid="{76407221-2EEF-4CFF-9B5F-A91973E75D4B}"/>
+    <hyperlink ref="D26" r:id="rId16" xr:uid="{231DEF67-BB9C-4911-A3CD-F0FE6AF3AE52}"/>
+    <hyperlink ref="D27" r:id="rId17" xr:uid="{D3ABFDF8-980C-40DC-AA2B-E5B5F2BC1AC0}"/>
+    <hyperlink ref="D28" r:id="rId18" xr:uid="{BC6AE07C-BE61-46D0-9EAC-897402A60E62}"/>
+    <hyperlink ref="D29" r:id="rId19" xr:uid="{0656FE6E-8B22-4643-A228-9AA178EB7A32}"/>
+    <hyperlink ref="D31" r:id="rId20" xr:uid="{61733788-B231-4ED9-AE37-13DCD2EF4982}"/>
+    <hyperlink ref="D32" r:id="rId21" xr:uid="{7AB4FD0B-E9E5-4FB0-949B-5D014BC8504C}"/>
+    <hyperlink ref="D33" r:id="rId22" xr:uid="{7DA88788-C3AA-4A87-991C-84F140C0E13C}"/>
+    <hyperlink ref="D34" r:id="rId23" xr:uid="{E2DFBB62-DA28-4CC2-A854-800FFA6F1CD3}"/>
+    <hyperlink ref="D35" r:id="rId24" xr:uid="{75883B4A-E27A-4DE6-BA15-75DE77B6A49C}"/>
+    <hyperlink ref="D36" r:id="rId25" xr:uid="{47584C64-74B6-4E67-9DB3-2CC20D17D5B0}"/>
+    <hyperlink ref="D37" r:id="rId26" xr:uid="{76EE056B-CEC0-44DA-B306-E8BAF6CF0AE7}"/>
+    <hyperlink ref="D38" r:id="rId27" xr:uid="{D4BC57A2-FC10-4336-8DED-A3D4385A5002}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup orientation="portrait"/>
